--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.3464631178927189</v>
+        <v>0.2565451842146835</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01896019560979678</v>
+        <v>0.004696031251116856</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0651157893283355</v>
+        <v>0.06621108819184793</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01130636511448914</v>
+        <v>0.00266612246176736</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01446449606860061</v>
+        <v>0.03156390452425896</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05607606864371999</v>
+        <v>0.04182597005944202</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07284191417175094</v>
+        <v>0.05775785664759455</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01217700172475204</v>
+        <v>0.06684912908698715</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001004362543814869</v>
+        <v>0.002126193515298905</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03459891786363259</v>
+        <v>0.06613324458834006</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03772655647549077</v>
+        <v>0.001002735725890704</v>
       </c>
       <c r="P2" t="n">
-        <v>0.05349863960074572</v>
+        <v>0.001411549422746547</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02439142685599642</v>
+        <v>0.01228939699576906</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01755951984426037</v>
+        <v>0.08131823196815793</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06306868581160298</v>
+        <v>0.003561499635477875</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04967557218826398</v>
+        <v>0.03197159865957549</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0122214861809671</v>
+        <v>0.02252264284572358</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02292678960733659</v>
+        <v>0.004250296567796371</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02864692762031438</v>
+        <v>0.04478133912424159</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06571859613035906</v>
+        <v>0.08039899017083413</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.03635805342559831</v>
+        <v>0.05800541150057076</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.002177776899806384</v>
+        <v>0.004679287827512011</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.04261344937854169</v>
+        <v>0.05413892732239277</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0343381566738019</v>
+        <v>0.02645113665929102</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.03566510631774487</v>
+        <v>0.001730309176693934</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0449616378121046</v>
+        <v>0.08036881048278748</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.06328500362815766</v>
+        <v>0.01436731815524315</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.03902503054616049</v>
+        <v>0.06384244716071721</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.03959647393385411</v>
+        <v>0.07307853027192469</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.06026616088716091</v>
+        <v>0.04599563196556224</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6404812826031551</v>
+        <v>0.4609163410490874</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005386811158096433</v>
+        <v>0.000501945578066098</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01833133699506173</v>
+        <v>0.03113294936652768</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01307147284951579</v>
+        <v>0.01015775163347843</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04010992555388219</v>
+        <v>0.05236033685004862</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008828843634298865</v>
+        <v>0.04705886269814452</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01662846597017014</v>
+        <v>0.04800610126692736</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01918655728473633</v>
+        <v>0.01745845727652244</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01250292711055476</v>
+        <v>0.002748515975503003</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06996497905410812</v>
+        <v>0.05518611830722975</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03960414849077439</v>
+        <v>0.05679216284688688</v>
       </c>
       <c r="P3" t="n">
-        <v>0.008570332929850013</v>
+        <v>0.05343084436001276</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04308533578568594</v>
+        <v>0.04959229289295471</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0449909965567627</v>
+        <v>0.004266755028447799</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05931338981761286</v>
+        <v>0.05638027313313297</v>
       </c>
       <c r="T3" t="n">
-        <v>0.002765162866455771</v>
+        <v>0.04338388208392946</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02420662318624499</v>
+        <v>0.0333637788616187</v>
       </c>
       <c r="V3" t="n">
-        <v>0.07743232426121752</v>
+        <v>0.05840717508703776</v>
       </c>
       <c r="W3" t="n">
-        <v>0.06340937011788705</v>
+        <v>0.05720284656082392</v>
       </c>
       <c r="X3" t="n">
-        <v>0.05692266116412376</v>
+        <v>0.03032083069500546</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0724994862189076</v>
+        <v>0.01707396171354076</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.004398595172352802</v>
+        <v>0.001730119390886172</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.01865512939159277</v>
+        <v>0.04648227912729853</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.07082644775321124</v>
+        <v>0.04904835807465564</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.01827394751027142</v>
+        <v>0.01512523403208206</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.06788216603648571</v>
+        <v>0.05868577576100169</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.01327865001614888</v>
+        <v>0.01074687609476279</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.05789883772753489</v>
+        <v>0.0524552911858939</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.05197507538645532</v>
+        <v>0.04090022411758001</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.06017569762759329</v>
+        <v>0.05815752889129102</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1436314414605253</v>
+        <v>0.1584972246139423</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003918459901454748</v>
+        <v>0.04415237023102123</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06701769614505047</v>
+        <v>0.0207503578066017</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05753118101831951</v>
+        <v>0.002897828322181832</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003958724296149398</v>
+        <v>0.002387147656780034</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05312491594207591</v>
+        <v>0.06282687816823171</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004563409570604691</v>
+        <v>0.06829668949576084</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06165249076875799</v>
+        <v>0.07894992025888017</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06504227776903083</v>
+        <v>0.06015040319022995</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06652219280523577</v>
+        <v>0.009206873089786915</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01789794842951526</v>
+        <v>0.00496629863960779</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04419274787730423</v>
+        <v>0.07320953356062014</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.002238358576381457</v>
+        <v>0.001567144016499277</v>
       </c>
       <c r="R4" t="n">
-        <v>0.007258692819600152</v>
+        <v>0.006437178520703605</v>
       </c>
       <c r="S4" t="n">
-        <v>0.06128006159655334</v>
+        <v>0.05923563921978871</v>
       </c>
       <c r="T4" t="n">
-        <v>0.07143612828117446</v>
+        <v>0.06990442088787828</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03092328754635734</v>
+        <v>0.04683222448016173</v>
       </c>
       <c r="V4" t="n">
-        <v>0.007318581005345905</v>
+        <v>0.04758832781093071</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01373712047398019</v>
+        <v>0.008620090431010741</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04005086457258036</v>
+        <v>0.06754673183080097</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.05444350013543272</v>
+        <v>0.01406174505340026</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04773077118256992</v>
+        <v>0.04848853053892212</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.004880265153387579</v>
+        <v>0.03802807538607137</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.002969656284585273</v>
+        <v>0.04581048286509305</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.009542663493616583</v>
+        <v>0.01331031383720896</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.04017131454595946</v>
+        <v>0.01050549096579233</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.05051799350614623</v>
+        <v>0.03130249127021466</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.04004663466090854</v>
+        <v>0.02474069789572913</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.07003206164192161</v>
+        <v>0.03822611457009198</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.01382004236146316</v>
+        <v>0.04308162222390904</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.5592901215476067</v>
+        <v>0.6945569066091458</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02010389320660067</v>
+        <v>0.03672474805387506</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03705579460877433</v>
+        <v>0.08199467868534617</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04988921102482478</v>
+        <v>0.06563662083257089</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08600566254656146</v>
+        <v>0.08723382713238076</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005256512357449269</v>
+        <v>0.03219412819988613</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04144289741508098</v>
+        <v>0.002343640687209518</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01527501889375117</v>
+        <v>0.03347529328026821</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01067557109061356</v>
+        <v>0.06644290552351419</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05472944026089473</v>
+        <v>0.002921054786756273</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002936311250823427</v>
+        <v>0.03935901262728782</v>
       </c>
       <c r="P5" t="n">
-        <v>0.06582393921118757</v>
+        <v>0.03594252034208943</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.000256991739679436</v>
+        <v>0.0001113050810440725</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01465305432558027</v>
+        <v>0.05071706698507054</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02852597220611359</v>
+        <v>0.0004683246299256524</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02869377838901308</v>
+        <v>0.02848473790113098</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08536780719139639</v>
+        <v>0.05987632115862027</v>
       </c>
       <c r="V5" t="n">
-        <v>0.003208734870459575</v>
+        <v>0.05698675961111814</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01343051910079031</v>
+        <v>0.0586623242290378</v>
       </c>
       <c r="X5" t="n">
-        <v>0.08272748434512681</v>
+        <v>0.01724911320214198</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01360873914362572</v>
+        <v>0.02862237603733977</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.05292188406102419</v>
+        <v>0.04900511187272208</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.04291830800992571</v>
+        <v>0.02571522393407259</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.03557213235168793</v>
+        <v>0.02918036124552582</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.03127798024910194</v>
+        <v>0.05515381126343668</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.03460983042350513</v>
+        <v>0.006963125293992137</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.007537607113689913</v>
+        <v>0.01316869310479028</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.053528189667404</v>
+        <v>0.02113319029820599</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.08196673494531413</v>
+        <v>0.0142337240006407</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.01632848842690312</v>
+        <v>0.002850564834563522</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1497892560236415</v>
+        <v>0.1506905437966685</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02658430738360095</v>
+        <v>0.02467134619355326</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03705281716831287</v>
+        <v>0.04825410019328098</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05177775685529734</v>
+        <v>0.02292392225379087</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06043360665234451</v>
+        <v>0.05294426543643749</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04483323875096833</v>
+        <v>0.07082193823318053</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003036561412575497</v>
+        <v>0.002833320828069406</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06131560685614414</v>
+        <v>0.02157669700709068</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06492780637073713</v>
+        <v>0.02167127088718079</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0256119881775427</v>
+        <v>0.05103458600100148</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03749995932645266</v>
+        <v>0.05049526369252787</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03911887431782362</v>
+        <v>0.005369352447456867</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0151040749799429</v>
+        <v>0.003434759485491084</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05364643942536473</v>
+        <v>0.06911629929282102</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05069802202917812</v>
+        <v>0.04897896825619757</v>
       </c>
       <c r="T6" t="n">
-        <v>0.05832420165105516</v>
+        <v>0.04882436963057245</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06818072825876748</v>
+        <v>0.05739070327917466</v>
       </c>
       <c r="V6" t="n">
-        <v>0.00115952649874221</v>
+        <v>0.003154295890165735</v>
       </c>
       <c r="W6" t="n">
-        <v>0.005220341348854986</v>
+        <v>0.009148274641186303</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03572839323880445</v>
+        <v>0.0003662378592831468</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.03196056699672384</v>
+        <v>0.009007653025853839</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.01586809269146212</v>
+        <v>0.03246528691321404</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.05053425679348057</v>
+        <v>0.02091043229497929</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.02581499017788288</v>
+        <v>0.03434574969417107</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.00341398011264973</v>
+        <v>0.0606599063751109</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.006415965895957183</v>
+        <v>0.0567692433198094</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.05614467748125602</v>
+        <v>0.0575176135335365</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0487771207300308</v>
+        <v>0.05088803015504351</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.02081609841804688</v>
+        <v>0.06442611317981931</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.1140350396471198</v>
+        <v>-0.1225407985429096</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.2133413960639903</v>
+        <v>0.2399474695298123</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07551733842655221</v>
+        <v>0.08926988457977526</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001363583834204786</v>
+        <v>0.008919564879703155</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03155801255919994</v>
+        <v>0.002521694606092968</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01528412319699446</v>
+        <v>0.006481033092050134</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03779002578640823</v>
+        <v>0.05097186049529945</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06665879118024969</v>
+        <v>0.07304372324493576</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00194722757601222</v>
+        <v>0.01981537614146502</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06873696032515357</v>
+        <v>0.05764358535936336</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0312599057427311</v>
+        <v>0.02886941807172816</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02217734061919272</v>
+        <v>0.05338539074089748</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0221926795122496</v>
+        <v>0.002600167322017545</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0557887545043585</v>
+        <v>0.04004482908267722</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05265269930510793</v>
+        <v>0.005018438069906112</v>
       </c>
       <c r="S7" t="n">
-        <v>0.007357396090062653</v>
+        <v>0.0220035225993776</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0548075407828218</v>
+        <v>0.04944691058480354</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05486768130647109</v>
+        <v>0.03416618963240309</v>
       </c>
       <c r="V7" t="n">
-        <v>0.006587812302619914</v>
+        <v>0.01106716719262987</v>
       </c>
       <c r="W7" t="n">
-        <v>0.003220980677454689</v>
+        <v>0.02887738153774004</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03046076378456635</v>
+        <v>0.02967576569586283</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.05050173680378021</v>
+        <v>0.03793432418596333</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.04212441363020032</v>
+        <v>0.0210389085231288</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.05519797690569657</v>
+        <v>0.07102100053670926</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.06948810504798977</v>
+        <v>0.08376037708805258</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01666447481222615</v>
+        <v>0.0804337527694555</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01533575757874535</v>
+        <v>0.004764843572593751</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.05380334812494931</v>
+        <v>0.001829186680349909</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01505271576774831</v>
+        <v>0.03810822013244212</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.04160185381625263</v>
+        <v>0.04728748358257623</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.09980980726175571</v>
+        <v>-0.0851732567400029</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1608181245659855</v>
+        <v>0.1479565619472934</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04838968502576064</v>
+        <v>0.05551913871050263</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04581662040485483</v>
+        <v>0.02666990257275835</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01724850861665043</v>
+        <v>0.01880106430752826</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02042243040141787</v>
+        <v>0.04763141697206212</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01910000670833563</v>
+        <v>0.06293938628683003</v>
       </c>
       <c r="K8" t="n">
-        <v>0.007744936827804336</v>
+        <v>0.002012124895972683</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05294168546114274</v>
+        <v>0.02807785408849802</v>
       </c>
       <c r="M8" t="n">
-        <v>0.006363709547899514</v>
+        <v>0.001146600872495239</v>
       </c>
       <c r="N8" t="n">
-        <v>0.06579937376564127</v>
+        <v>0.06303539667642237</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05322929480708961</v>
+        <v>0.009003333991423172</v>
       </c>
       <c r="P8" t="n">
-        <v>0.04249971955457</v>
+        <v>0.03967964034322068</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03330589352039168</v>
+        <v>0.06228115693958913</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02135876315466281</v>
+        <v>0.03582894443688067</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03139571857330711</v>
+        <v>0.01729378473706105</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06981141687378442</v>
+        <v>0.0615598956582568</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02053825216205218</v>
+        <v>0.03735536941523746</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06082082049324609</v>
+        <v>0.06081248860357599</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03531198036765161</v>
+        <v>0.007552313949065547</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01342725209939601</v>
+        <v>0.05792982758862577</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.08277627900568424</v>
+        <v>0.02330517189506453</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.02229076540010895</v>
+        <v>0.01121069195777062</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.05152938562227479</v>
+        <v>0.02342141971918201</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.08188468423278029</v>
+        <v>0.06454391090710777</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.006518085631788043</v>
+        <v>0.03437818283899896</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.007073873208391712</v>
+        <v>0.006191079268033535</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.04802385062749041</v>
+        <v>0.05126121129821921</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.01744568838021706</v>
+        <v>0.04206105374852857</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.01693131952560572</v>
+        <v>0.04849763732108883</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.2340981320419178</v>
+        <v>-0.2387438759557693</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3734565135924756</v>
+        <v>0.3855201602853845</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02197409062003808</v>
+        <v>0.06795981216223448</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03937362318291801</v>
+        <v>0.01602549941127167</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0494419391852266</v>
+        <v>0.04907254871931014</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02311858853936394</v>
+        <v>0.06787410027443844</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01055248753759083</v>
+        <v>0.008549094510952105</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05913184944298674</v>
+        <v>0.0683927797741145</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04384693073251828</v>
+        <v>0.01674816715529497</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07485227378843345</v>
+        <v>0.07821509266063659</v>
       </c>
       <c r="N9" t="n">
-        <v>0.06764852674576884</v>
+        <v>0.062087673157009</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03545393447679728</v>
+        <v>0.01270694145653328</v>
       </c>
       <c r="P9" t="n">
-        <v>0.008402464023200341</v>
+        <v>0.01038621593367808</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0008426447024057567</v>
+        <v>0.02882978064347042</v>
       </c>
       <c r="R9" t="n">
-        <v>0.05747442201264796</v>
+        <v>0.02615365979959054</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01500170514143698</v>
+        <v>0.005875396356479048</v>
       </c>
       <c r="T9" t="n">
-        <v>0.07667130439182071</v>
+        <v>0.01624263582386202</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05319693021918868</v>
+        <v>0.005538907234044183</v>
       </c>
       <c r="V9" t="n">
-        <v>0.07259858865131928</v>
+        <v>0.03722467879185829</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02323681708112619</v>
+        <v>0.03303162044221221</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01218055920674913</v>
+        <v>0.006519757256983851</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.03924513631805004</v>
+        <v>0.02121478322055689</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.02318118361594811</v>
+        <v>0.07011123595928649</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.03039107237830327</v>
+        <v>0.04682985691699442</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.03903203766470092</v>
+        <v>0.005966187039582301</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.001813895650565807</v>
+        <v>0.04343997995747974</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.05571355451384724</v>
+        <v>0.06931723237577474</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.01926144115227927</v>
+        <v>0.04756905062350479</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.01474824403027884</v>
+        <v>0.05096589941400421</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.03161375499448936</v>
+        <v>0.02715141292884254</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.2629283237293188</v>
+        <v>-0.3046998927184322</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2680989974711048</v>
+        <v>0.2648486476733483</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05165381535850692</v>
+        <v>0.05131989284673832</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06914895341073035</v>
+        <v>0.06323634066707137</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03618149919422198</v>
+        <v>0.02502876237483483</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01329783345767999</v>
+        <v>0.003039067877753149</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04560748422788283</v>
+        <v>0.05348656473418521</v>
       </c>
       <c r="K10" t="n">
-        <v>0.009315200921661774</v>
+        <v>0.03554623286752556</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04405848777659907</v>
+        <v>0.03546080208730828</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05971105467821759</v>
+        <v>0.02552170598492796</v>
       </c>
       <c r="N10" t="n">
-        <v>0.009028837383289157</v>
+        <v>0.0009325371097962554</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004404811104589575</v>
+        <v>0.004434872092701869</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01888740050948961</v>
+        <v>0.05329190033987577</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.005093258662432611</v>
+        <v>0.0005567484410378493</v>
       </c>
       <c r="R10" t="n">
-        <v>0.02727735195629974</v>
+        <v>0.01198750377811845</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01746682168601177</v>
+        <v>0.04503144199178902</v>
       </c>
       <c r="T10" t="n">
-        <v>0.04678325259640955</v>
+        <v>0.0475605572004453</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02014435840315654</v>
+        <v>0.01267404622354711</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03358521015931248</v>
+        <v>0.0611750818117763</v>
       </c>
       <c r="W10" t="n">
-        <v>0.07299403922519576</v>
+        <v>0.06396851865729289</v>
       </c>
       <c r="X10" t="n">
-        <v>0.05743460185186559</v>
+        <v>0.06263526103164932</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03797424525926447</v>
+        <v>0.03340640429044422</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.008021537342388233</v>
+        <v>0.01384768432355212</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.04927942403438478</v>
+        <v>0.01333219484038634</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.04830045634637089</v>
+        <v>0.05544233028501747</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01799515014916151</v>
+        <v>0.03728554791805689</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.01470803842903061</v>
+        <v>0.03385457861084901</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0543058271689974</v>
+        <v>0.06015765547103056</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.05331316062924216</v>
+        <v>0.0364661810552672</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.07402788807760702</v>
+        <v>0.05931958508702147</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.01965879923779912</v>
+        <v>-0.01672526387665524</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8023656993250023</v>
+        <v>0.9254909368679338</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06896058981355509</v>
+        <v>0.02501661355467738</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07603025029360966</v>
+        <v>0.1006661983276952</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05072052971474515</v>
+        <v>0.04766612701001451</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001609058135787309</v>
+        <v>0.02721974156549305</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01037418068480949</v>
+        <v>0.01243870029041694</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02584055640203261</v>
+        <v>0.00991268001220303</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04131015961816532</v>
+        <v>0.003962224961995059</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02728164081426461</v>
+        <v>0.004935662300426221</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01327159159040397</v>
+        <v>0.03108067211470996</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003021228737901283</v>
+        <v>0.04022623040949459</v>
       </c>
       <c r="P11" t="n">
-        <v>0.003752868998028191</v>
+        <v>0.01434174501960332</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.08570686291621583</v>
+        <v>0.1028041192051503</v>
       </c>
       <c r="R11" t="n">
-        <v>0.07126044581925382</v>
+        <v>0.1001439341726468</v>
       </c>
       <c r="S11" t="n">
-        <v>0.04164337325193768</v>
+        <v>0.0004486631794980113</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0360435560493483</v>
+        <v>0.04469632198470835</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03346930640600766</v>
+        <v>0.02311590598426331</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02914541262331272</v>
+        <v>0.01155992455651753</v>
       </c>
       <c r="W11" t="n">
-        <v>0.003951537627444192</v>
+        <v>0.06318045408672358</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01333101235605867</v>
+        <v>0.02033415612126952</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.00125636501671308</v>
+        <v>0.02815612939775256</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.06158460830028063</v>
+        <v>0.02647150337570502</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.08339170333757004</v>
+        <v>0.02525821785507016</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.03163601027611861</v>
+        <v>0.05930050640055484</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.08293898757044431</v>
+        <v>0.04225856331815862</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.002115949558953072</v>
+        <v>0.01061749750094017</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.04857740117639902</v>
+        <v>0.007012840802030777</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.04661302094997</v>
+        <v>0.08395372342491157</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.005161791960669868</v>
+        <v>0.0332209430673697</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.04100603104831798</v>
+        <v>0.01831867858298696</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2721326175102475</v>
+        <v>0.269376741330941</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06398130987120063</v>
+        <v>0.05178307998546084</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07734033335222056</v>
+        <v>0.02016157816679872</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006469702487582471</v>
+        <v>0.000843861185732712</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01897453954037557</v>
+        <v>0.06352356474438119</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02171011242939704</v>
+        <v>0.002889708252532519</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002728000876820102</v>
+        <v>0.002719524232172274</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00128815640715585</v>
+        <v>0.01107234137609867</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002327149673536191</v>
+        <v>0.01815239676615981</v>
       </c>
       <c r="N12" t="n">
-        <v>0.004001238042015775</v>
+        <v>0.01127199463276534</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00548891155817879</v>
+        <v>0.01679728968348475</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0496890009003671</v>
+        <v>0.08783013732973891</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.05138079195522032</v>
+        <v>0.02463521593457053</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01878763221499216</v>
+        <v>0.05934325443570958</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0447576190901986</v>
+        <v>0.03534810355964243</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01331518280136563</v>
+        <v>0.07816504908496393</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02047997388655453</v>
+        <v>0.01514961448404188</v>
       </c>
       <c r="V12" t="n">
-        <v>0.06387248281191429</v>
+        <v>0.01283976383397043</v>
       </c>
       <c r="W12" t="n">
-        <v>0.05651006414287797</v>
+        <v>0.0475280537291943</v>
       </c>
       <c r="X12" t="n">
-        <v>0.06576192519840073</v>
+        <v>0.05885689077534294</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.02021135092378539</v>
+        <v>0.01995970082154616</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.03532789857826896</v>
+        <v>0.03918364878386071</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.04693219391113973</v>
+        <v>0.007279197138377685</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.06236460844432835</v>
+        <v>0.05378633208735856</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.02182931459085775</v>
+        <v>0.03602140129071118</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.04351075607727008</v>
+        <v>0.01148463699768609</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.02835216285320865</v>
+        <v>0.07024959111595577</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.08086442675118159</v>
+        <v>0.05270731466728455</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.07419836141872338</v>
+        <v>0.09041675490445764</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1998870945947239</v>
+        <v>0.1900226489853923</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.3724706619982422</v>
+        <v>0.3579025306954856</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003466631620667467</v>
+        <v>0.01015503547167628</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0695257896822425</v>
+        <v>0.05941321060765465</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04665318324512916</v>
+        <v>0.06515411236755267</v>
       </c>
       <c r="I13" t="n">
-        <v>0.005652669936955441</v>
+        <v>0.01566035084582396</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09425452937463764</v>
+        <v>0.0827738409610515</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06369724387241761</v>
+        <v>0.01427108399585041</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06690734866915424</v>
+        <v>0.07196381277896943</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03569570046102712</v>
+        <v>0.04260404397616985</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01466730217218977</v>
+        <v>0.001756804082642359</v>
       </c>
       <c r="O13" t="n">
-        <v>0.06133990841661992</v>
+        <v>0.07838026057994554</v>
       </c>
       <c r="P13" t="n">
-        <v>0.005437671231538705</v>
+        <v>0.02428733364895511</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02167951311844097</v>
+        <v>0.01816277951459749</v>
       </c>
       <c r="R13" t="n">
-        <v>0.04631320501999089</v>
+        <v>0.004041646423209679</v>
       </c>
       <c r="S13" t="n">
-        <v>0.009937343609641758</v>
+        <v>0.005690809622052009</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04642829946227104</v>
+        <v>0.06705539143755904</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0005929411888730158</v>
+        <v>0.03381131828294286</v>
       </c>
       <c r="V13" t="n">
-        <v>0.006219254117011862</v>
+        <v>0.01164678970244531</v>
       </c>
       <c r="W13" t="n">
-        <v>0.06132977503459627</v>
+        <v>0.01017710924398747</v>
       </c>
       <c r="X13" t="n">
-        <v>0.007629003990351314</v>
+        <v>0.01361293087259885</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.004058883847727388</v>
+        <v>0.002186767701057087</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.03773496017419606</v>
+        <v>0.08177051606755324</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.03028247139621736</v>
+        <v>0.003350202540588085</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0787422142150799</v>
+        <v>0.008109759338228021</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.004498216984098938</v>
+        <v>0.03557896283305356</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.08163461892735083</v>
+        <v>0.001424664435294922</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0109165753347686</v>
+        <v>0.06051884448315633</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.04579051787523951</v>
+        <v>0.09197088208980858</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.03891422702156471</v>
+        <v>0.08447073609557584</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.2517006846529791</v>
+        <v>0.2325644630009688</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2966040005481649</v>
+        <v>0.3027450551086622</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003515970519890082</v>
+        <v>0.0170323324268854</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03140563512983599</v>
+        <v>0.07000743966848358</v>
       </c>
       <c r="H14" t="n">
-        <v>0.006512263253197946</v>
+        <v>0.007409487688676735</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06708324139341935</v>
+        <v>0.01938185249505734</v>
       </c>
       <c r="J14" t="n">
-        <v>0.07500575084094248</v>
+        <v>0.02424346604092604</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01615528439037118</v>
+        <v>0.01323125804766763</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001614679876713341</v>
+        <v>0.06547022996727929</v>
       </c>
       <c r="M14" t="n">
-        <v>0.05396168727842567</v>
+        <v>0.06681266902101261</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01866277427793133</v>
+        <v>0.004270666935197282</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01309108338949417</v>
+        <v>0.04173254368638417</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05114617918188497</v>
+        <v>0.06394494324872421</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02510047084990639</v>
+        <v>0.06676798294824066</v>
       </c>
       <c r="R14" t="n">
-        <v>0.05094159786910105</v>
+        <v>0.05148646172073836</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03217640292023052</v>
+        <v>0.03878372034557592</v>
       </c>
       <c r="T14" t="n">
-        <v>0.08597852171407588</v>
+        <v>0.06673569289597493</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02398659398402157</v>
+        <v>0.02371155454931907</v>
       </c>
       <c r="V14" t="n">
-        <v>0.006659137142762397</v>
+        <v>0.04121851494301559</v>
       </c>
       <c r="W14" t="n">
-        <v>0.06911438210529725</v>
+        <v>0.01811121397401641</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0003840056558158779</v>
+        <v>0.0006936544651356208</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.04888830902962109</v>
+        <v>0.07011508413761205</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.01784223079469438</v>
+        <v>0.003730594392763897</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01794613555354464</v>
+        <v>0.02410865414907708</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.07258385839969853</v>
+        <v>0.002424858084814492</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.02530043141496869</v>
+        <v>0.01515496453605386</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.01572407967893996</v>
+        <v>0.05052135708694667</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.07862118737341239</v>
+        <v>0.05074686871595974</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.08037916172748355</v>
+        <v>0.009055334096259722</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.01167215614336138</v>
+        <v>0.07309659973220159</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.07618513041958605</v>
+        <v>-0.09057546250880998</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.373048518253499</v>
+        <v>0.3488354172567865</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06389908942028792</v>
+        <v>0.08447198685967897</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02931700500571656</v>
+        <v>0.05369055480681063</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06291933986954303</v>
+        <v>0.06546266657255109</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03410124275886885</v>
+        <v>0.07236796926837778</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0654181662454307</v>
+        <v>0.0460100418792053</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003750585625275784</v>
+        <v>0.006745115073114501</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01875482656132038</v>
+        <v>0.01778762679787388</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02094294639844083</v>
+        <v>0.08226716396449732</v>
       </c>
       <c r="N15" t="n">
-        <v>0.05142072088260241</v>
+        <v>0.009405420264135309</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06701023119002832</v>
+        <v>0.04890979553292944</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03337511151101776</v>
+        <v>0.01565558766496629</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.06392815756891669</v>
+        <v>0.01555618696013004</v>
       </c>
       <c r="R15" t="n">
-        <v>0.03985553480599265</v>
+        <v>0.04189321379179251</v>
       </c>
       <c r="S15" t="n">
-        <v>0.03791982230869714</v>
+        <v>0.009089372560221069</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01436637942504383</v>
+        <v>0.02824348418992895</v>
       </c>
       <c r="U15" t="n">
-        <v>0.001232960945997929</v>
+        <v>0.01782606575344295</v>
       </c>
       <c r="V15" t="n">
-        <v>0.04042538612097282</v>
+        <v>0.07671762188249977</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01565934350143819</v>
+        <v>0.03122533205014693</v>
       </c>
       <c r="X15" t="n">
-        <v>0.005630747848657493</v>
+        <v>0.001643106491138604</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.07043432460475003</v>
+        <v>0.05181916279702824</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.07371469834090746</v>
+        <v>0.05476060572713292</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.06874437462966403</v>
+        <v>0.02049752682603625</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0002853941419331852</v>
+        <v>0.02389902777520786</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.04191076889019299</v>
+        <v>0.009291261878531501</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.01298176407290006</v>
+        <v>0.006039338839357024</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.01585770901539402</v>
+        <v>0.02735082361499116</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.003156711627571815</v>
+        <v>0.07427128942155348</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.04298665668243719</v>
+        <v>0.007102650756720234</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.06661055748559735</v>
+        <v>-0.08512714613283107</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2844447459942421</v>
+        <v>0.2899497490013456</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02253652155562503</v>
+        <v>0.0006839969541643914</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05823745334958851</v>
+        <v>0.07022093940093051</v>
       </c>
       <c r="H16" t="n">
-        <v>0.002460025990108305</v>
+        <v>0.01280433282773624</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03045981437622582</v>
+        <v>0.0009764201089004755</v>
       </c>
       <c r="J16" t="n">
-        <v>0.002514908312087698</v>
+        <v>0.02034119762843991</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01139381648084303</v>
+        <v>0.02251764501382553</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05697838671198718</v>
+        <v>0.002167543770155547</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0195353195859969</v>
+        <v>0.006504790604225833</v>
       </c>
       <c r="N16" t="n">
-        <v>0.06418540609097352</v>
+        <v>0.02752597024572176</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02780006300893558</v>
+        <v>0.01489191494741411</v>
       </c>
       <c r="P16" t="n">
-        <v>0.04296081075912678</v>
+        <v>0.06236253769868831</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.05092398979324068</v>
+        <v>0.04976280777667188</v>
       </c>
       <c r="R16" t="n">
-        <v>0.03831294821078905</v>
+        <v>0.05988159584224879</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01145107009639107</v>
+        <v>0.01073118318219956</v>
       </c>
       <c r="T16" t="n">
-        <v>0.05916832090234775</v>
+        <v>0.07429897422234683</v>
       </c>
       <c r="U16" t="n">
-        <v>0.005545348459126332</v>
+        <v>0.04273393889294901</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01577290633956267</v>
+        <v>0.04272969480273147</v>
       </c>
       <c r="W16" t="n">
-        <v>0.06303059101016702</v>
+        <v>0.05728974632340527</v>
       </c>
       <c r="X16" t="n">
-        <v>0.05569006598247949</v>
+        <v>0.03504532811530944</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.07337601826231467</v>
+        <v>0.01453660402734426</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.02435911530372226</v>
+        <v>0.06589857004977231</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.005580723477668637</v>
+        <v>0.05204852096260137</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.02943210149998031</v>
+        <v>0.05857529525048197</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.03389506105204784</v>
+        <v>0.04183042828893687</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.06604154015520104</v>
+        <v>0.0124393810846846</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.05326960207915821</v>
+        <v>0.05589444890278914</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.01262940960778085</v>
+        <v>0.05584642375523255</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.06245866154652379</v>
+        <v>0.02945976932009206</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1546816265067699</v>
+        <v>0.1887894375790652</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3682029771924309</v>
+        <v>0.373903089096874</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07815953114335478</v>
+        <v>0.09400593889322631</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02469575813063832</v>
+        <v>0.005950372110044072</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08413974847902243</v>
+        <v>0.08927804669202637</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01180866872188515</v>
+        <v>0.01597582855713112</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008244138092668711</v>
+        <v>0.001169794786856823</v>
       </c>
       <c r="K17" t="n">
-        <v>0.003732180940329313</v>
+        <v>0.07108321110799273</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06550854552126111</v>
+        <v>0.05157797702729758</v>
       </c>
       <c r="M17" t="n">
-        <v>0.05936818675457033</v>
+        <v>0.008636841376795499</v>
       </c>
       <c r="N17" t="n">
-        <v>0.08774533712418826</v>
+        <v>0.01927366830005617</v>
       </c>
       <c r="O17" t="n">
-        <v>0.06888507881857009</v>
+        <v>0.06863608706108448</v>
       </c>
       <c r="P17" t="n">
-        <v>0.03418640364849578</v>
+        <v>0.0415770239812314</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.05099068448244739</v>
+        <v>0.06130891227306091</v>
       </c>
       <c r="R17" t="n">
-        <v>0.08792500467628658</v>
+        <v>0.05228843011949483</v>
       </c>
       <c r="S17" t="n">
-        <v>0.06609558564752362</v>
+        <v>0.01468130701859155</v>
       </c>
       <c r="T17" t="n">
-        <v>0.008383919008688482</v>
+        <v>0.01506427170633206</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01993419329957359</v>
+        <v>0.008426479971151118</v>
       </c>
       <c r="V17" t="n">
-        <v>0.001850916289205212</v>
+        <v>0.02555382326967506</v>
       </c>
       <c r="W17" t="n">
-        <v>0.00588525167896907</v>
+        <v>0.02684117838078191</v>
       </c>
       <c r="X17" t="n">
-        <v>0.06848063816877398</v>
+        <v>0.05248832340896845</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01866684379184508</v>
+        <v>0.05524457041978532</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0053130937979129</v>
+        <v>0.01168139452382927</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0002037274362179161</v>
+        <v>0.06786432684456639</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0487987036493565</v>
+        <v>0.03433054749452651</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.008089768510659656</v>
+        <v>0.02383494735917178</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.001462801296187998</v>
+        <v>0.009909193183997422</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.02208404503946419</v>
+        <v>0.0432438471149912</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.0213425226449643</v>
+        <v>0.004331999884473321</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.03801872320693923</v>
+        <v>0.02574165713286021</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1650765164141614</v>
+        <v>0.187350766286823</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2651525840348233</v>
+        <v>0.3171152614711947</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06325603292948097</v>
+        <v>0.0007378422163156883</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03793265977015924</v>
+        <v>0.02020581120531515</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04590169592772609</v>
+        <v>0.0552970583341517</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04004456774524609</v>
+        <v>0.0592334982437613</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01929739191345963</v>
+        <v>0.00748512343780394</v>
       </c>
       <c r="K18" t="n">
-        <v>0.008036480558389588</v>
+        <v>0.0181040206444408</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03763346115197928</v>
+        <v>0.03256154081633536</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00113684390327617</v>
+        <v>0.01926329999183903</v>
       </c>
       <c r="N18" t="n">
-        <v>0.03884539712670571</v>
+        <v>0.007750476720550191</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01620971052773883</v>
+        <v>0.04912519935588736</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03354773930164141</v>
+        <v>0.07262841374562938</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01266096435042251</v>
+        <v>0.02659643365319308</v>
       </c>
       <c r="R18" t="n">
-        <v>0.04755177743116188</v>
+        <v>0.05067782304209889</v>
       </c>
       <c r="S18" t="n">
-        <v>0.03359618467574526</v>
+        <v>0.0344630449442841</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02738024460937582</v>
+        <v>0.04445167718208622</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06050945706854906</v>
+        <v>0.04442519268114914</v>
       </c>
       <c r="V18" t="n">
-        <v>0.005534874117429169</v>
+        <v>0.001329681634471677</v>
       </c>
       <c r="W18" t="n">
-        <v>0.07032888322192345</v>
+        <v>0.04985964294319267</v>
       </c>
       <c r="X18" t="n">
-        <v>0.02487413225126778</v>
+        <v>0.03063730032210871</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.04345610325468921</v>
+        <v>0.050707728167283</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.06763331510651696</v>
+        <v>0.05918088314614352</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.06992351064383204</v>
+        <v>0.05142084114598199</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0483130669306233</v>
+        <v>0.07405779953180006</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.06145003416866741</v>
+        <v>0.04007258523015627</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0133244946282037</v>
+        <v>0.02179743126029485</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.001781763967464325</v>
+        <v>0.001061323763145952</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.03444435911275929</v>
+        <v>0.02076396441107466</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.03539485360556584</v>
+        <v>0.05610436222950525</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.04191442888251363</v>
+        <v>0.03891736041782435</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5738625476078026</v>
+        <v>0.3763469426642754</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07494362688665523</v>
+        <v>0.07420023689013884</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002010009245000279</v>
+        <v>0.06470021307971778</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02585916208885425</v>
+        <v>0.005178244859158157</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04901565624261976</v>
+        <v>0.06589989427863588</v>
       </c>
       <c r="J19" t="n">
-        <v>0.06713131608124671</v>
+        <v>0.02400950922262257</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05664049184085659</v>
+        <v>0.03563764774933444</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03431935643936436</v>
+        <v>0.02985711921009076</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02957155271264383</v>
+        <v>0.002335573290410917</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01899443667724906</v>
+        <v>0.07812131569786915</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001163420562986414</v>
+        <v>0.007750742557794182</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01738654872315152</v>
+        <v>0.07645360644550676</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.007353567114881121</v>
+        <v>0.02237917910329861</v>
       </c>
       <c r="R19" t="n">
-        <v>0.005507677870913262</v>
+        <v>0.04439296255586296</v>
       </c>
       <c r="S19" t="n">
-        <v>0.03251253566650845</v>
+        <v>0.02733421283885844</v>
       </c>
       <c r="T19" t="n">
-        <v>0.03251620884320792</v>
+        <v>0.05137626332485676</v>
       </c>
       <c r="U19" t="n">
-        <v>0.007548231551634829</v>
+        <v>0.005539225685454934</v>
       </c>
       <c r="V19" t="n">
-        <v>0.008461545199938464</v>
+        <v>0.007239714830981041</v>
       </c>
       <c r="W19" t="n">
-        <v>0.05788138477147217</v>
+        <v>0.02891078195930296</v>
       </c>
       <c r="X19" t="n">
-        <v>0.07388261976730554</v>
+        <v>0.0203734120499808</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.02755213605292099</v>
+        <v>0.02434038187985628</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.05806997461408686</v>
+        <v>0.03488087495206196</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.07575811093997172</v>
+        <v>0.07778594112726156</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.02250374475689088</v>
+        <v>0.05926242737368408</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.05633788365191968</v>
+        <v>0.03854184650530836</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.0446348417648474</v>
+        <v>0.02233371842673399</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.01109016753088269</v>
+        <v>0.01883441679850336</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.06395648101944797</v>
+        <v>0.01619444502690687</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.03739731138254204</v>
+        <v>0.03613609227980779</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.0697873453763188</v>
+        <v>0.05301573480766496</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1479361033223454</v>
+        <v>0.1499203572888836</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02259358410101219</v>
+        <v>0.002202682768537536</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06168309292462974</v>
+        <v>0.01566540146521093</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0139748677603346</v>
+        <v>0.001494137884914754</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03523152734086677</v>
+        <v>0.06572159539758032</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02429722497873869</v>
+        <v>0.05033154405907961</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02233211492427912</v>
+        <v>0.02357894943414679</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0526899323737918</v>
+        <v>0.04947087653703908</v>
       </c>
       <c r="M20" t="n">
-        <v>0.003944591227573501</v>
+        <v>0.01146846702506159</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01124971918383084</v>
+        <v>0.04395459716014821</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0658114523415684</v>
+        <v>0.002317547171251478</v>
       </c>
       <c r="P20" t="n">
-        <v>0.06829867905486803</v>
+        <v>0.01303137486033917</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.05402159006508107</v>
+        <v>0.0284893906816818</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05210453561317578</v>
+        <v>0.04918063996313735</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0475321943046486</v>
+        <v>0.01849991232389163</v>
       </c>
       <c r="T20" t="n">
-        <v>0.05236216261023146</v>
+        <v>0.01893271617901393</v>
       </c>
       <c r="U20" t="n">
-        <v>0.001760130561679056</v>
+        <v>0.03384032420131085</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0416261598647126</v>
+        <v>0.06026819985783591</v>
       </c>
       <c r="W20" t="n">
-        <v>0.004181046828462085</v>
+        <v>0.00358241279232517</v>
       </c>
       <c r="X20" t="n">
-        <v>0.06913357299742166</v>
+        <v>0.07613469465706769</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.03398066409190474</v>
+        <v>0.0787201069104278</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.01002489349689754</v>
+        <v>0.04156041838760558</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.03549510559671979</v>
+        <v>0.03081413777410043</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.04815883670561536</v>
+        <v>0.07649624161101377</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.003129796678647283</v>
+        <v>0.02963264303283624</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0002728433596706886</v>
+        <v>0.007672352533931242</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.03880496247708</v>
+        <v>0.04758370205173064</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.05104277110289434</v>
+        <v>0.06934726579732908</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.07426194743366415</v>
+        <v>0.05000766748145145</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0.02496730655267674</v>
+        <v>-0.03112155857827627</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1986030513396067</v>
+        <v>0.2094435056688795</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04512797881148188</v>
+        <v>0.04969726391617734</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01508164703173014</v>
+        <v>0.03296693790396398</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06785676669888634</v>
+        <v>0.07741028024098762</v>
       </c>
       <c r="I21" t="n">
-        <v>0.05676087158761736</v>
+        <v>0.03024685885450857</v>
       </c>
       <c r="J21" t="n">
-        <v>0.06241123361574155</v>
+        <v>0.05299344045014945</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05425581656707203</v>
+        <v>0.05306880404928493</v>
       </c>
       <c r="L21" t="n">
-        <v>0.009287283369141116</v>
+        <v>0.01591807059709486</v>
       </c>
       <c r="M21" t="n">
-        <v>0.003336144714501936</v>
+        <v>0.05261334325589675</v>
       </c>
       <c r="N21" t="n">
-        <v>0.06130650665007645</v>
+        <v>0.05666853008863407</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02647287973894362</v>
+        <v>0.007954445556137543</v>
       </c>
       <c r="P21" t="n">
-        <v>0.003246857643698025</v>
+        <v>0.03368217815067606</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.07585353352984651</v>
+        <v>0.05858190135854252</v>
       </c>
       <c r="R21" t="n">
-        <v>0.02815261079824715</v>
+        <v>0.04209703880723472</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01823701102778976</v>
+        <v>0.02455097983713524</v>
       </c>
       <c r="T21" t="n">
-        <v>0.05137610489047122</v>
+        <v>0.01683810773443176</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02681837981976616</v>
+        <v>0.001928956006892445</v>
       </c>
       <c r="V21" t="n">
-        <v>0.00688773967573008</v>
+        <v>0.03520344521504864</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01116404921252029</v>
+        <v>0.01492758108905795</v>
       </c>
       <c r="X21" t="n">
-        <v>0.02095523802290808</v>
+        <v>0.02960849217651365</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0524813137514123</v>
+        <v>0.02105301654358707</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.007881492720068224</v>
+        <v>0.03448268110508</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.07490820488567887</v>
+        <v>0.03839435881756941</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.08090136967612156</v>
+        <v>0.05545903757855335</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.01148210372630686</v>
+        <v>0.008315612377042503</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.06043191024534689</v>
+        <v>0.07663861764302242</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.0129279412665594</v>
+        <v>0.006737020145188408</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.05326517556634456</v>
+        <v>0.009059830726909355</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.001131834755991337</v>
+        <v>0.06290316977467932</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.06381170654130637</v>
+        <v>-0.02396442743188552</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1694987111518201</v>
+        <v>0.1703109958370055</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01136762287983479</v>
+        <v>0.02403089228454222</v>
       </c>
       <c r="G22" t="n">
-        <v>0.005853539336210843</v>
+        <v>0.01641086705086234</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07452993194900061</v>
+        <v>0.005706599911828748</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02295845588982012</v>
+        <v>0.04905296373926481</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0108535189591363</v>
+        <v>0.01748130624377935</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03070862261673884</v>
+        <v>0.02358311230075152</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02856552861141204</v>
+        <v>0.02134619166873</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04848797422127572</v>
+        <v>0.05265131041589582</v>
       </c>
       <c r="N22" t="n">
-        <v>0.05539817915228594</v>
+        <v>0.03045091191141824</v>
       </c>
       <c r="O22" t="n">
-        <v>0.04919923751719916</v>
+        <v>0.03163959130778039</v>
       </c>
       <c r="P22" t="n">
-        <v>0.02624732953623164</v>
+        <v>0.04991888716748288</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0129959045219797</v>
+        <v>0.0133850148354233</v>
       </c>
       <c r="R22" t="n">
-        <v>0.04865952476239423</v>
+        <v>0.07419799436056226</v>
       </c>
       <c r="S22" t="n">
-        <v>0.002047201735197146</v>
+        <v>0.04201106886996615</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02581712259668094</v>
+        <v>0.0311268492534285</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0004831481044719595</v>
+        <v>0.03754562094130117</v>
       </c>
       <c r="V22" t="n">
-        <v>0.05924982450400152</v>
+        <v>0.04669123752733132</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0004732941480722399</v>
+        <v>0.0003171153287814099</v>
       </c>
       <c r="X22" t="n">
-        <v>0.04599332034909227</v>
+        <v>0.002750397570582843</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.07251130467254048</v>
+        <v>0.05933520702020845</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.0355750324264384</v>
+        <v>0.04584388753894199</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0254230094788308</v>
+        <v>0.007560029394524554</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.04340263930332312</v>
+        <v>0.0717496423906412</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.01346454554412424</v>
+        <v>0.02741533532523159</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.002339085189049846</v>
+        <v>0.0428184535825663</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.08674424750295383</v>
+        <v>0.07173760214562047</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.07296322470270705</v>
+        <v>0.02597715173044485</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.08768762978899645</v>
+        <v>0.07726475818210725</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.07509803548537601</v>
+        <v>0.07403760399341894</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.540927499773493</v>
+        <v>0.4965375821007395</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05345645844009955</v>
+        <v>0.08320310877396249</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04856216223923407</v>
+        <v>0.05589106366463031</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05330441864959309</v>
+        <v>0.01550991060731344</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01814614139013733</v>
+        <v>0.001797829042690951</v>
       </c>
       <c r="J23" t="n">
-        <v>0.04415725140880457</v>
+        <v>0.001916869178123376</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001662515169438858</v>
+        <v>0.00721537993927512</v>
       </c>
       <c r="L23" t="n">
-        <v>0.008900428523150152</v>
+        <v>0.00237579274794798</v>
       </c>
       <c r="M23" t="n">
-        <v>0.05945456814325824</v>
+        <v>0.04120918914465727</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01481131864986815</v>
+        <v>0.008461994705752506</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005966141657640969</v>
+        <v>0.0005319964178346672</v>
       </c>
       <c r="P23" t="n">
-        <v>0.05968813234161757</v>
+        <v>0.0844075301113405</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01297445029823929</v>
+        <v>0.02389251429990565</v>
       </c>
       <c r="R23" t="n">
-        <v>0.02032587944752469</v>
+        <v>0.07228265712991459</v>
       </c>
       <c r="S23" t="n">
-        <v>0.05912666230139488</v>
+        <v>0.02036316533793695</v>
       </c>
       <c r="T23" t="n">
-        <v>0.06583128198063502</v>
+        <v>0.03431051900945409</v>
       </c>
       <c r="U23" t="n">
-        <v>0.005957746028955464</v>
+        <v>0.06620612246410547</v>
       </c>
       <c r="V23" t="n">
-        <v>0.043370264213992</v>
+        <v>0.03686786130396932</v>
       </c>
       <c r="W23" t="n">
-        <v>0.07669068350723235</v>
+        <v>0.07039365230872491</v>
       </c>
       <c r="X23" t="n">
-        <v>0.05386793700527622</v>
+        <v>0.02720449884805928</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0430525587430661</v>
+        <v>0.02127261543195858</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.004751231055583924</v>
+        <v>0.007273491616419121</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0661496814062088</v>
+        <v>0.04172668640482752</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.03495486233449833</v>
+        <v>0.01358486098962827</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.04532699763125939</v>
+        <v>0.04688225829038273</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0408955186436404</v>
+        <v>0.07574757619312213</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.005492740711654711</v>
+        <v>0.06586211293244905</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.05039430399696233</v>
+        <v>0.01915185008957456</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.00272766408103348</v>
+        <v>0.05445689301603923</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.05149808037751362</v>
+        <v>0.0903595973489226</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1629557352156963</v>
+        <v>0.1651486430385988</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05113534413318538</v>
+        <v>0.0363517777846769</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05616111986902366</v>
+        <v>0.06559773889926131</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03250458274050311</v>
+        <v>0.0610907037025078</v>
       </c>
       <c r="I24" t="n">
-        <v>0.006665840024916897</v>
+        <v>0.06973508434108876</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03512993407737799</v>
+        <v>0.03630445824557198</v>
       </c>
       <c r="K24" t="n">
-        <v>0.005811163990274617</v>
+        <v>0.02124852996914551</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0614086136093259</v>
+        <v>0.02220914249582645</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02870826688480411</v>
+        <v>0.003622671853564634</v>
       </c>
       <c r="N24" t="n">
-        <v>0.07350671285062998</v>
+        <v>0.001194894530063693</v>
       </c>
       <c r="O24" t="n">
-        <v>0.06380991852265841</v>
+        <v>0.03855599378370899</v>
       </c>
       <c r="P24" t="n">
-        <v>0.005286639659628733</v>
+        <v>0.01084530874761696</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01576746323368818</v>
+        <v>0.01277035945791979</v>
       </c>
       <c r="R24" t="n">
-        <v>0.01442345973624488</v>
+        <v>0.07027643399835079</v>
       </c>
       <c r="S24" t="n">
-        <v>0.04693620826348149</v>
+        <v>0.06955540165226676</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0483231333407225</v>
+        <v>0.05176470617009338</v>
       </c>
       <c r="U24" t="n">
-        <v>0.008125328309446251</v>
+        <v>0.01090328488040512</v>
       </c>
       <c r="V24" t="n">
-        <v>0.02985497004044165</v>
+        <v>0.0494587227888956</v>
       </c>
       <c r="W24" t="n">
-        <v>0.06314984906029486</v>
+        <v>0.0548966645622452</v>
       </c>
       <c r="X24" t="n">
-        <v>0.03640119810064125</v>
+        <v>0.03986995793955136</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0469082117632945</v>
+        <v>0.0008710966417713202</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.02029762797431537</v>
+        <v>0.01491194380545798</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.06975100839419951</v>
+        <v>0.04674834331406578</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.06131844888742356</v>
+        <v>0.04537210710835345</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.02023912565251324</v>
+        <v>0.04418848859131129</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.02161172737738653</v>
+        <v>0.04635384488617657</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.01311850835934852</v>
+        <v>0.003075530164795435</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.05939322369128489</v>
+        <v>0.06176741378366236</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.004252371452944043</v>
+        <v>0.01045939590164478</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.05329589835235975</v>
+        <v>0.03767523095279327</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.3081788710585238</v>
+        <v>0.2407137659326261</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0730940869989786</v>
+        <v>0.02487746756112771</v>
       </c>
       <c r="G25" t="n">
-        <v>0.009747458972985549</v>
+        <v>0.01058936558278589</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0391138608251322</v>
+        <v>0.0601240349996477</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0002245300236124231</v>
+        <v>0.007118757829035356</v>
       </c>
       <c r="J25" t="n">
-        <v>0.002189912248505542</v>
+        <v>0.04807092341582764</v>
       </c>
       <c r="K25" t="n">
-        <v>0.006356467063207059</v>
+        <v>0.03492488692182111</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0008679492004025715</v>
+        <v>0.02777592133724895</v>
       </c>
       <c r="M25" t="n">
-        <v>0.07862142880895065</v>
+        <v>0.0180894574486428</v>
       </c>
       <c r="N25" t="n">
-        <v>0.06972439509648146</v>
+        <v>0.009038322366885794</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01569088362187034</v>
+        <v>0.06426640350406942</v>
       </c>
       <c r="P25" t="n">
-        <v>0.04950273738416332</v>
+        <v>0.001618420268058138</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01688805371222146</v>
+        <v>0.01564457364932536</v>
       </c>
       <c r="R25" t="n">
-        <v>0.06733598112345907</v>
+        <v>0.02941392020992699</v>
       </c>
       <c r="S25" t="n">
-        <v>0.008460133062363505</v>
+        <v>0.01980625107456812</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01905780129557175</v>
+        <v>0.02404912384626742</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0250744594917124</v>
+        <v>0.06606718445216436</v>
       </c>
       <c r="V25" t="n">
-        <v>0.02296570981075781</v>
+        <v>0.06509500171277199</v>
       </c>
       <c r="W25" t="n">
-        <v>0.07120884957126057</v>
+        <v>0.07866884312919586</v>
       </c>
       <c r="X25" t="n">
-        <v>0.02862796228214098</v>
+        <v>0.005190698375816704</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.01554399064821968</v>
+        <v>0.07338050470256671</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.1029193300771582</v>
+        <v>0.009517868536932258</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01958504723262337</v>
+        <v>0.04442922908671972</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.05486706721749948</v>
+        <v>0.04477199737879973</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.05004047368108352</v>
+        <v>0.02974227535562527</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.01777341132455245</v>
+        <v>0.0283529631914212</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.009523386228612934</v>
+        <v>0.007670136511853541</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.01963273532378143</v>
+        <v>0.07275450278217255</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.1053618976726915</v>
+        <v>0.0789509647687217</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.01425790429310266</v>
+        <v>0.05919356130235929</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1873858143288145</v>
+        <v>0.1898973155562653</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03617615055483028</v>
+        <v>0.06515919712719208</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02648532537322084</v>
+        <v>0.003382108996321783</v>
       </c>
       <c r="H26" t="n">
-        <v>0.007474167248420397</v>
+        <v>0.0005060472492112606</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0270635817028606</v>
+        <v>0.05477856197239159</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01378036781917512</v>
+        <v>0.03723215353054195</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03864989042068201</v>
+        <v>0.04495838741743751</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0202968337317769</v>
+        <v>0.04026870857406311</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0622476500154196</v>
+        <v>0.02614602824647574</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0337212628531036</v>
+        <v>0.00676054021807998</v>
       </c>
       <c r="O26" t="n">
-        <v>0.00843344848031651</v>
+        <v>0.002274816817888032</v>
       </c>
       <c r="P26" t="n">
-        <v>0.005976930479712112</v>
+        <v>0.006493438467161206</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02862553415971317</v>
+        <v>0.02643621904575679</v>
       </c>
       <c r="R26" t="n">
-        <v>0.03885774134614237</v>
+        <v>0.03103886698597962</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0732459417031968</v>
+        <v>0.04352877465660452</v>
       </c>
       <c r="T26" t="n">
-        <v>0.04751566466762677</v>
+        <v>0.04643185667050148</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01787200231084374</v>
+        <v>0.006636917981619358</v>
       </c>
       <c r="V26" t="n">
-        <v>0.07200076284921521</v>
+        <v>0.05672887779351853</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0470785622172715</v>
+        <v>0.06704185606561552</v>
       </c>
       <c r="X26" t="n">
-        <v>0.06010088983526324</v>
+        <v>0.03621624294409053</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.05664573183212972</v>
+        <v>0.02113125313105469</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.001474656428910513</v>
+        <v>0.06745946833121896</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.03537583869473563</v>
+        <v>0.04329076511770911</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.05313518089934394</v>
+        <v>0.05447355982381068</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.00555546324459499</v>
+        <v>0.05912041414633553</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.03393036331826445</v>
+        <v>0.04709052563043244</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.06046048289609614</v>
+        <v>0.01984425907615541</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.01228611019745018</v>
+        <v>0.03138619827599137</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.07553346471968368</v>
+        <v>0.05418395570684123</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.09938426149841252</v>
+        <v>0.09369504484397112</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2401479673665362</v>
+        <v>0.2415324666554693</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04509683950257309</v>
+        <v>0.07251782630709078</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07166681197043581</v>
+        <v>0.05065727900576913</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06380182541398402</v>
+        <v>0.08511843777585835</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02595747558945552</v>
+        <v>0.02757037002481136</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01270232520708895</v>
+        <v>0.01078176485920927</v>
       </c>
       <c r="K27" t="n">
-        <v>0.07149550925238171</v>
+        <v>0.08120227018995174</v>
       </c>
       <c r="L27" t="n">
-        <v>0.004616212455563982</v>
+        <v>0.08955625740894911</v>
       </c>
       <c r="M27" t="n">
-        <v>0.001094824972919318</v>
+        <v>0.004203135856908266</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02177107221768623</v>
+        <v>0.05905942740098506</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0729416771097339</v>
+        <v>0.05124597496538175</v>
       </c>
       <c r="P27" t="n">
-        <v>0.002660419098471127</v>
+        <v>0.0173756629650435</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01647125707445664</v>
+        <v>0.02621753942652165</v>
       </c>
       <c r="R27" t="n">
-        <v>0.03067216383954</v>
+        <v>0.009656360713379972</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01560007654209302</v>
+        <v>0.01519380076163361</v>
       </c>
       <c r="T27" t="n">
-        <v>0.005518451270555557</v>
+        <v>0.09200198501108593</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07171645284623919</v>
+        <v>0.01510085668193576</v>
       </c>
       <c r="V27" t="n">
-        <v>0.05200418061752891</v>
+        <v>0.07386698493137828</v>
       </c>
       <c r="W27" t="n">
-        <v>0.03223507293935123</v>
+        <v>0.01231031321085552</v>
       </c>
       <c r="X27" t="n">
-        <v>0.02723747693278288</v>
+        <v>0.03151437468074809</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.07351734937456372</v>
+        <v>0.0924074890831101</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.01513865903301928</v>
+        <v>0.03062441702601936</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.05806606737007123</v>
+        <v>0.004168060241437291</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.03550500308083128</v>
+        <v>0.009539048807732976</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.03597113593967235</v>
+        <v>0.01085516656366515</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.01857118027011382</v>
+        <v>0.01605424137242938</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.07022514388721735</v>
+        <v>0.005865133175557389</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.03756072791096918</v>
+        <v>0.002101349082933482</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.01018460828070067</v>
+        <v>0.003234472469617762</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.1006357381819965</v>
+        <v>0.1053630909197535</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.3084500834655614</v>
+        <v>0.3754564283061402</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0281970315508</v>
+        <v>0.04697734620300273</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06151627882135992</v>
+        <v>0.0731802021323165</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02347438583065654</v>
+        <v>0.02927806192514341</v>
       </c>
       <c r="I28" t="n">
-        <v>0.009818771396358327</v>
+        <v>0.02963516370840212</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03751224942420963</v>
+        <v>0.009680036424537261</v>
       </c>
       <c r="K28" t="n">
-        <v>0.03860971090779673</v>
+        <v>0.04772817035606824</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01088859527114585</v>
+        <v>0.01308525569041339</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03974173121002425</v>
+        <v>0.07205456363160521</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0165876815655776</v>
+        <v>0.008523071307979089</v>
       </c>
       <c r="O28" t="n">
-        <v>0.02298123670809205</v>
+        <v>0.05529162897543642</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0052827295416927</v>
+        <v>0.006534792193285605</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.05826677723443516</v>
+        <v>0.02327681241340781</v>
       </c>
       <c r="R28" t="n">
-        <v>0.05093536820768112</v>
+        <v>0.0619056182424032</v>
       </c>
       <c r="S28" t="n">
-        <v>0.0197643451766329</v>
+        <v>0.07347411180396352</v>
       </c>
       <c r="T28" t="n">
-        <v>8.379443963926106e-05</v>
+        <v>0.01667070015470424</v>
       </c>
       <c r="U28" t="n">
-        <v>0.002013892700394013</v>
+        <v>0.007701628436465957</v>
       </c>
       <c r="V28" t="n">
-        <v>0.01473504829436662</v>
+        <v>0.008943897653422305</v>
       </c>
       <c r="W28" t="n">
-        <v>0.07474402256485517</v>
+        <v>0.02099361826405595</v>
       </c>
       <c r="X28" t="n">
-        <v>0.07019846209308404</v>
+        <v>0.0655836290068008</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.07580642341781159</v>
+        <v>0.02034502818432047</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.05987697581828656</v>
+        <v>0.01234721920425894</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0009076813257623161</v>
+        <v>0.006120735582969356</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.06695520167096208</v>
+        <v>0.07139831935519307</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.07558893567006093</v>
+        <v>0.04348942221168542</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.01819400908319082</v>
+        <v>0.0006594756287853434</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.007415364521110448</v>
+        <v>0.03890576054576989</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.06648266433022337</v>
+        <v>0.06249242348709418</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.04342063122379005</v>
+        <v>0.07372330727650968</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.119836041450805</v>
+        <v>0.1285394614181637</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.589340406323537</v>
+        <v>0.5988492035746129</v>
       </c>
       <c r="F29" t="n">
-        <v>0.04619950216160184</v>
+        <v>0.02691071098550177</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00909755651189334</v>
+        <v>0.03647436373584993</v>
       </c>
       <c r="H29" t="n">
-        <v>0.03325285977518072</v>
+        <v>0.001508964589538942</v>
       </c>
       <c r="I29" t="n">
-        <v>0.07274158003624019</v>
+        <v>0.07997064096224381</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0623875736269562</v>
+        <v>0.07597616497108534</v>
       </c>
       <c r="K29" t="n">
-        <v>0.07278315247783938</v>
+        <v>0.06522677767799312</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02476023869011577</v>
+        <v>0.05028332503429663</v>
       </c>
       <c r="M29" t="n">
-        <v>0.04876781588161537</v>
+        <v>0.008139272871352674</v>
       </c>
       <c r="N29" t="n">
-        <v>0.001862471239077763</v>
+        <v>0.006756475837206378</v>
       </c>
       <c r="O29" t="n">
-        <v>0.04784779533060871</v>
+        <v>0.002546151978025506</v>
       </c>
       <c r="P29" t="n">
-        <v>0.02316927561986467</v>
+        <v>0.00875401804127245</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.004577754138463458</v>
+        <v>0.07742577107777403</v>
       </c>
       <c r="R29" t="n">
-        <v>0.007517105659295297</v>
+        <v>0.02606724438683553</v>
       </c>
       <c r="S29" t="n">
-        <v>0.02516180505344831</v>
+        <v>0.01910675793816166</v>
       </c>
       <c r="T29" t="n">
-        <v>0.05454816782968434</v>
+        <v>0.06319013042502995</v>
       </c>
       <c r="U29" t="n">
-        <v>0.02014471337817573</v>
+        <v>0.07866848460819631</v>
       </c>
       <c r="V29" t="n">
-        <v>0.06431987248628593</v>
+        <v>0.01948027526607249</v>
       </c>
       <c r="W29" t="n">
-        <v>0.001748612260486168</v>
+        <v>0.03204477939247029</v>
       </c>
       <c r="X29" t="n">
-        <v>0.04199476627853637</v>
+        <v>0.005273741281099867</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.02028489515595834</v>
+        <v>0.01965731653409468</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.06797459055541391</v>
+        <v>0.03927902751683036</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.001923024271675174</v>
+        <v>0.0005901796566204329</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.04602596161220221</v>
+        <v>0.02662830973829282</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.0635792719100487</v>
+        <v>0.08242926705110376</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.02165202068743525</v>
+        <v>0.0005638244875539503</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.06985101408001158</v>
+        <v>0.05565249998271286</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.03527963781664077</v>
+        <v>0.02709758911485898</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.0105469654752445</v>
+        <v>0.06429793485792558</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.1326091965584733</v>
+        <v>0.1153349065302509</v>
       </c>
     </row>
     <row r="30">
@@ -3700,94 +3700,94 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1363689167991678</v>
+        <v>0.1474518537535911</v>
       </c>
       <c r="F30" t="n">
-        <v>0.03936062619660186</v>
+        <v>0.01770638151884511</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03836812879691976</v>
+        <v>0.0379227775594436</v>
       </c>
       <c r="H30" t="n">
-        <v>0.001221367688577252</v>
+        <v>0.003726908576446152</v>
       </c>
       <c r="I30" t="n">
-        <v>0.001434552595908513</v>
+        <v>0.01440127527552676</v>
       </c>
       <c r="J30" t="n">
-        <v>0.05888373131136784</v>
+        <v>0.05372698295574762</v>
       </c>
       <c r="K30" t="n">
-        <v>0.04495777562798945</v>
+        <v>0.05888989632170141</v>
       </c>
       <c r="L30" t="n">
-        <v>0.06697081521271707</v>
+        <v>0.02133051913463426</v>
       </c>
       <c r="M30" t="n">
-        <v>0.07177915046279726</v>
+        <v>0.06092487120567495</v>
       </c>
       <c r="N30" t="n">
-        <v>0.009140957858747413</v>
+        <v>0.005986395597757477</v>
       </c>
       <c r="O30" t="n">
-        <v>0.02435994765519777</v>
+        <v>0.03108344383566483</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0003963005887707938</v>
+        <v>0.0122161041302593</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.03415613809557765</v>
+        <v>0.03890332474424713</v>
       </c>
       <c r="R30" t="n">
-        <v>0.03667665381935242</v>
+        <v>0.0669418049193919</v>
       </c>
       <c r="S30" t="n">
-        <v>0.02437890659027197</v>
+        <v>0.06708082292193755</v>
       </c>
       <c r="T30" t="n">
-        <v>0.007467975297334498</v>
+        <v>0.05893366074595761</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02525839231371194</v>
+        <v>0.01348626984791942</v>
       </c>
       <c r="V30" t="n">
-        <v>0.02152645215923103</v>
+        <v>0.04078933068461909</v>
       </c>
       <c r="W30" t="n">
-        <v>0.07080870104980379</v>
+        <v>0.03069218752794299</v>
       </c>
       <c r="X30" t="n">
-        <v>0.05735372442419874</v>
+        <v>0.03692590951893161</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.05095886098674161</v>
+        <v>0.04366496107780757</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0588916282482581</v>
+        <v>0.06185767626289537</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.02224367414767228</v>
+        <v>0.04295645474173228</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.0711024037712646</v>
+        <v>0.03165047062794816</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.001302236322436464</v>
+        <v>0.007271910515778875</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.0443602179372987</v>
+        <v>0.02567462047272423</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.04215083482290551</v>
+        <v>0.01490264292817006</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.02366848920299282</v>
+        <v>0.04879692904925722</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.05082135681535297</v>
+        <v>0.05155546730103772</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.07166189923996265</v>
+        <v>0.07881122313039023</v>
       </c>
     </row>
     <row r="31">
@@ -3810,94 +3810,94 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1591630533332924</v>
+        <v>0.1811159253317994</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04387686790959409</v>
+        <v>0.0612545769186212</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05120555742729666</v>
+        <v>0.04572409243966521</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0059444124015724</v>
+        <v>0.00181581538026784</v>
       </c>
       <c r="I31" t="n">
-        <v>0.03564956250594433</v>
+        <v>0.03206668707904228</v>
       </c>
       <c r="J31" t="n">
-        <v>0.009646017747315546</v>
+        <v>0.01407825720351431</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01905108216621623</v>
+        <v>0.06358804350379542</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03380807078116551</v>
+        <v>0.0645686041248697</v>
       </c>
       <c r="M31" t="n">
-        <v>0.003601083766781136</v>
+        <v>0.03918649069682435</v>
       </c>
       <c r="N31" t="n">
-        <v>0.004240670105571481</v>
+        <v>0.01460890753650739</v>
       </c>
       <c r="O31" t="n">
-        <v>0.02322202386524277</v>
+        <v>0.01287903017449274</v>
       </c>
       <c r="P31" t="n">
-        <v>0.01442288385856041</v>
+        <v>0.0290817413995047</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.05462353950688762</v>
+        <v>0.01617613894056498</v>
       </c>
       <c r="R31" t="n">
-        <v>0.01662150605868163</v>
+        <v>0.009951521933296971</v>
       </c>
       <c r="S31" t="n">
-        <v>0.06924110552744768</v>
+        <v>0.01754224848741047</v>
       </c>
       <c r="T31" t="n">
-        <v>0.03144096080539385</v>
+        <v>0.05544518723779421</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04358823764833834</v>
+        <v>0.04153974756749695</v>
       </c>
       <c r="V31" t="n">
-        <v>0.05719939636998718</v>
+        <v>0.03057287067986849</v>
       </c>
       <c r="W31" t="n">
-        <v>0.05648967341920211</v>
+        <v>0.06679265015786998</v>
       </c>
       <c r="X31" t="n">
-        <v>0.02055653972672704</v>
+        <v>0.06008237088122853</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.04502213635324678</v>
+        <v>0.04850503816261577</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.06076745273304163</v>
+        <v>0.04919377961120811</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.05840826670296335</v>
+        <v>0.05818341497899859</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.0638231278570319</v>
+        <v>0.02672517350685265</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.005570187095691705</v>
+        <v>0.007415236995937153</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.02307694799755956</v>
+        <v>0.06449415408719869</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.06833816472410584</v>
+        <v>0.009215346119579781</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.06778645569192937</v>
+        <v>0.05288428093434749</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.01277806924650388</v>
+        <v>0.006428593260626054</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.07384140113928575</v>
+        <v>0.08176148935002298</v>
       </c>
     </row>
     <row r="32">
@@ -3920,94 +3920,94 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1606287583219208</v>
+        <v>0.1552855260852727</v>
       </c>
       <c r="F32" t="n">
-        <v>0.003530455652512533</v>
+        <v>0.001382620147200708</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02024157580953105</v>
+        <v>0.02518722073056899</v>
       </c>
       <c r="H32" t="n">
-        <v>0.053486583709986</v>
+        <v>0.04009974410619475</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01808275242023366</v>
+        <v>0.005933426843330289</v>
       </c>
       <c r="J32" t="n">
-        <v>0.05145776951919814</v>
+        <v>0.04962338074344563</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01967263732024745</v>
+        <v>0.008115492717823898</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0410133571498378</v>
+        <v>0.001464544931701435</v>
       </c>
       <c r="M32" t="n">
-        <v>0.06295636024182077</v>
+        <v>0.04349621182462436</v>
       </c>
       <c r="N32" t="n">
-        <v>0.05562139686520361</v>
+        <v>0.04898479918182644</v>
       </c>
       <c r="O32" t="n">
-        <v>0.06366990953642901</v>
+        <v>0.06641909979676339</v>
       </c>
       <c r="P32" t="n">
-        <v>0.05243588699724492</v>
+        <v>0.07625312140624001</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.05312603539285616</v>
+        <v>0.03598646632089066</v>
       </c>
       <c r="R32" t="n">
-        <v>0.04772129669953113</v>
+        <v>0.08151752209638394</v>
       </c>
       <c r="S32" t="n">
-        <v>4.252987174124833e-05</v>
+        <v>0.005189814486214696</v>
       </c>
       <c r="T32" t="n">
-        <v>0.01827329604290416</v>
+        <v>0.001764561833085002</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05032445595305404</v>
+        <v>0.04944215120922568</v>
       </c>
       <c r="V32" t="n">
-        <v>0.03973960774081889</v>
+        <v>0.07571281934523728</v>
       </c>
       <c r="W32" t="n">
-        <v>0.04908351233270594</v>
+        <v>0.0318809325883825</v>
       </c>
       <c r="X32" t="n">
-        <v>0.004183533837233565</v>
+        <v>0.006260072303998083</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.04470372876632441</v>
+        <v>0.02032970857446323</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.03349666554297531</v>
+        <v>0.026979368106781</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.05373960367843964</v>
+        <v>0.0253722846392501</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.04948103939986145</v>
+        <v>0.06115124426435666</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.0325527247056801</v>
+        <v>0.003597444982429453</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.03271160249897794</v>
+        <v>0.06146395023945941</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.02268754494117275</v>
+        <v>0.07328490047512461</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.01285469830100964</v>
+        <v>0.04741972518963377</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.01310943907246887</v>
+        <v>0.02568737091536417</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.04631872608090896</v>
+        <v>0.04765114863968132</v>
       </c>
     </row>
     <row r="33">
@@ -4030,94 +4030,94 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.5418824122072677</v>
+        <v>0.5578495863367037</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0672534085303985</v>
+        <v>0.06890023594048769</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07637578444621265</v>
+        <v>0.04681014334325116</v>
       </c>
       <c r="H33" t="n">
-        <v>0.02637217753133973</v>
+        <v>0.006520104970803028</v>
       </c>
       <c r="I33" t="n">
-        <v>0.04422105800714893</v>
+        <v>0.06811831138446309</v>
       </c>
       <c r="J33" t="n">
-        <v>0.07804588297163928</v>
+        <v>0.07066022825507888</v>
       </c>
       <c r="K33" t="n">
-        <v>0.008115710728922747</v>
+        <v>0.01993115227947519</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01750657669263076</v>
+        <v>0.03524343917360098</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06055557725620445</v>
+        <v>0.04151966215806846</v>
       </c>
       <c r="N33" t="n">
-        <v>0.03877214339390232</v>
+        <v>0.0279858162867664</v>
       </c>
       <c r="O33" t="n">
-        <v>0.06368790127943834</v>
+        <v>0.06296964953326843</v>
       </c>
       <c r="P33" t="n">
-        <v>0.003812860304268932</v>
+        <v>0.0009243179380478666</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.02256491583103883</v>
+        <v>0.04497489479975253</v>
       </c>
       <c r="R33" t="n">
-        <v>0.009891575426818478</v>
+        <v>0.007362909439863117</v>
       </c>
       <c r="S33" t="n">
-        <v>0.002984116276585809</v>
+        <v>0.001650761321398623</v>
       </c>
       <c r="T33" t="n">
-        <v>0.005726501209779547</v>
+        <v>0.01602289474725144</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006038090796152446</v>
+        <v>0.0291503124819104</v>
       </c>
       <c r="V33" t="n">
-        <v>0.0345431557517942</v>
+        <v>0.06476227899330597</v>
       </c>
       <c r="W33" t="n">
-        <v>0.03176530213468545</v>
+        <v>0.02189166046888644</v>
       </c>
       <c r="X33" t="n">
-        <v>0.002602257335867379</v>
+        <v>0.02743661650191268</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.05258474946131642</v>
+        <v>0.04821660429914485</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0644063448429532</v>
+        <v>0.0646695501720732</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.0349201851775951</v>
+        <v>0.0141737923334147</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.0006452133815963554</v>
+        <v>0.02770958538578564</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.05866845189874223</v>
+        <v>0.05048811348387792</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.06121195929493332</v>
+        <v>0.03541021049879572</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.0007720537985211835</v>
+        <v>0.02031283486393339</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.07832434552380969</v>
+        <v>0.07158631410714025</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.04763170071570366</v>
+        <v>0.004597604838241919</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.06422231175377929</v>
+        <v>0.05472601292925366</v>
       </c>
     </row>
     <row r="34">
@@ -4140,94 +4140,94 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1586036287010341</v>
+        <v>0.1579363993791998</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02934680152139532</v>
+        <v>0.02243197068674287</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01336453328423515</v>
+        <v>0.01739624916269772</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04552733362557761</v>
+        <v>0.06800615771541355</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04543169680358065</v>
+        <v>0.04737370494841409</v>
       </c>
       <c r="J34" t="n">
-        <v>0.04918994132188922</v>
+        <v>0.04111922367622142</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01722178303933692</v>
+        <v>0.05358934544942908</v>
       </c>
       <c r="L34" t="n">
-        <v>0.009819821411103226</v>
+        <v>0.01464514569628947</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0681315418687982</v>
+        <v>0.06055526596475853</v>
       </c>
       <c r="N34" t="n">
-        <v>0.007615158153483895</v>
+        <v>0.03463483152447946</v>
       </c>
       <c r="O34" t="n">
-        <v>0.05492864614713705</v>
+        <v>0.07071425603421348</v>
       </c>
       <c r="P34" t="n">
-        <v>0.03329040260741302</v>
+        <v>0.04315497462672504</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.02258878678489593</v>
+        <v>0.004104202312100905</v>
       </c>
       <c r="R34" t="n">
-        <v>0.05567890093860863</v>
+        <v>0.03621132438559782</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0183735739173545</v>
+        <v>0.0416832180714803</v>
       </c>
       <c r="T34" t="n">
-        <v>0.02494421858735874</v>
+        <v>0.01880950426842885</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06732012632881647</v>
+        <v>0.006917198224469683</v>
       </c>
       <c r="V34" t="n">
-        <v>0.05321156936187847</v>
+        <v>0.04833515196328713</v>
       </c>
       <c r="W34" t="n">
-        <v>0.009567414469039616</v>
+        <v>0.02198822248329855</v>
       </c>
       <c r="X34" t="n">
-        <v>0.038868699078944</v>
+        <v>0.06140339799489301</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0503060398981901</v>
+        <v>0.03427400329163466</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.03508918745715567</v>
+        <v>0.0535067275919371</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.00961238059349433</v>
+        <v>0.008409644564238756</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.008617435447533617</v>
+        <v>0.009797812409783013</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.0404978420874379</v>
+        <v>0.0731632063585196</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.001335478378630092</v>
+        <v>0.001312755107181731</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.06234608516870525</v>
+        <v>0.0306744569314214</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.07378715869563773</v>
+        <v>0.05601055954739373</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.05398744302236864</v>
+        <v>0.01977748900894911</v>
       </c>
       <c r="AH34" t="n">
-        <v>-0.01106614960634635</v>
+        <v>-0.009968748171535105</v>
       </c>
     </row>
     <row r="35">
@@ -4250,94 +4250,94 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.264522667838451</v>
+        <v>0.2291503594609036</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08658635510544466</v>
+        <v>0.04158008536107989</v>
       </c>
       <c r="G35" t="n">
-        <v>0.003583893141897341</v>
+        <v>0.001853790172745105</v>
       </c>
       <c r="H35" t="n">
-        <v>0.06358634740425725</v>
+        <v>0.03999770321450767</v>
       </c>
       <c r="I35" t="n">
-        <v>0.03236039854598872</v>
+        <v>0.01019560221293521</v>
       </c>
       <c r="J35" t="n">
-        <v>0.003178292694621575</v>
+        <v>0.01134961018422936</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0258937101070235</v>
+        <v>0.04688792862555925</v>
       </c>
       <c r="L35" t="n">
-        <v>0.05247273311585283</v>
+        <v>0.07865530156739443</v>
       </c>
       <c r="M35" t="n">
-        <v>0.02089321014881261</v>
+        <v>0.04050876597013288</v>
       </c>
       <c r="N35" t="n">
-        <v>0.08677686634100477</v>
+        <v>0.06603949991365932</v>
       </c>
       <c r="O35" t="n">
-        <v>0.003636458117329759</v>
+        <v>0.061106553882677</v>
       </c>
       <c r="P35" t="n">
-        <v>0.06574136792863128</v>
+        <v>0.05548564192625089</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.05562675732195022</v>
+        <v>0.002624119003242334</v>
       </c>
       <c r="R35" t="n">
-        <v>0.009321746345792333</v>
+        <v>0.0420067412846027</v>
       </c>
       <c r="S35" t="n">
-        <v>0.04996779294234452</v>
+        <v>0.0470718315509352</v>
       </c>
       <c r="T35" t="n">
-        <v>0.007925115143183243</v>
+        <v>0.006827016675422863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.002687094951794012</v>
+        <v>0.0557099389904685</v>
       </c>
       <c r="V35" t="n">
-        <v>0.02351484087640684</v>
+        <v>0.06920236320710887</v>
       </c>
       <c r="W35" t="n">
-        <v>0.02179054082463705</v>
+        <v>0.02426851074622019</v>
       </c>
       <c r="X35" t="n">
-        <v>0.05210121228007197</v>
+        <v>0.009667407725886404</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.02679286931461188</v>
+        <v>0.04087801329070421</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.03942510235139485</v>
+        <v>0.07882000242289437</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.006471719128713366</v>
+        <v>0.01053435983053973</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.002437672420890546</v>
+        <v>0.00927661208126395</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.03399857551243493</v>
+        <v>0.005678554240181492</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.02678925752183368</v>
+        <v>0.01543399522635659</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.08476897801979451</v>
+        <v>0.04771958033881008</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.08271684216453291</v>
+        <v>0.07721321599719727</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.02895425022874874</v>
+        <v>0.003407254356994314</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.0235295195732898</v>
+        <v>0.02283512539432225</v>
       </c>
     </row>
     <row r="36">
@@ -4360,94 +4360,94 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1156281944454863</v>
+        <v>0.1116895144051805</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0005613134838470031</v>
+        <v>0.08221796195196651</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01080261482080623</v>
+        <v>0.002330767950700835</v>
       </c>
       <c r="H36" t="n">
-        <v>0.02665647562227841</v>
+        <v>0.01645312887888708</v>
       </c>
       <c r="I36" t="n">
-        <v>0.06311250385520864</v>
+        <v>0.06623824371203194</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0569665685643163</v>
+        <v>0.05959733646598848</v>
       </c>
       <c r="K36" t="n">
-        <v>0.06199795588238935</v>
+        <v>0.03876439506114541</v>
       </c>
       <c r="L36" t="n">
-        <v>0.05678213595834732</v>
+        <v>0.07340784182861193</v>
       </c>
       <c r="M36" t="n">
-        <v>0.03677719435669324</v>
+        <v>0.01377309862726073</v>
       </c>
       <c r="N36" t="n">
-        <v>0.001125896403011013</v>
+        <v>0.005055661272911729</v>
       </c>
       <c r="O36" t="n">
-        <v>0.05875547651791737</v>
+        <v>0.04583669486256032</v>
       </c>
       <c r="P36" t="n">
-        <v>0.006154011027867444</v>
+        <v>0.02460495880683037</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.07553179147170179</v>
+        <v>0.03862718326008124</v>
       </c>
       <c r="R36" t="n">
-        <v>0.03397395923817685</v>
+        <v>0.01733212185445638</v>
       </c>
       <c r="S36" t="n">
-        <v>0.01208214683426196</v>
+        <v>0.06544370120601954</v>
       </c>
       <c r="T36" t="n">
-        <v>0.04291004382678064</v>
+        <v>0.01426318695823361</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0003158692881938125</v>
+        <v>0.0024389647978441</v>
       </c>
       <c r="V36" t="n">
-        <v>0.02969977048589305</v>
+        <v>0.002849389328681817</v>
       </c>
       <c r="W36" t="n">
-        <v>0.07839264446195246</v>
+        <v>0.07664719813025654</v>
       </c>
       <c r="X36" t="n">
-        <v>0.05403149228248187</v>
+        <v>0.04915180318428154</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.02176501531921467</v>
+        <v>0.02765251492258643</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.005440034122675428</v>
+        <v>0.004173751127383709</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.005345289722183772</v>
+        <v>0.00212233105714867</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.05114916549884575</v>
+        <v>0.0150545638160808</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.01276116678902854</v>
+        <v>0.03949498251037646</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.05712853469567738</v>
+        <v>0.0327521988477831</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.01652416962434663</v>
+        <v>0.07426230774527712</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.07442221401520578</v>
+        <v>0.0371560113168591</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.04883454583069739</v>
+        <v>0.0722977005177546</v>
       </c>
       <c r="AH36" t="n">
-        <v>-0.01221715015699814</v>
+        <v>-0.01821855986303961</v>
       </c>
     </row>
     <row r="37">
@@ -4470,94 +4470,94 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1677925031043407</v>
+        <v>0.2388203837070189</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03955404468072047</v>
+        <v>0.0197748973903305</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07324046208209119</v>
+        <v>0.08199545522510862</v>
       </c>
       <c r="H37" t="n">
-        <v>0.04019429548877557</v>
+        <v>0.02024992516479466</v>
       </c>
       <c r="I37" t="n">
-        <v>0.03860960303265761</v>
+        <v>0.005193671992980785</v>
       </c>
       <c r="J37" t="n">
-        <v>0.07908949281497589</v>
+        <v>0.03676368053085078</v>
       </c>
       <c r="K37" t="n">
-        <v>0.03368888896115462</v>
+        <v>0.008983682394632283</v>
       </c>
       <c r="L37" t="n">
-        <v>0.05672203027094585</v>
+        <v>0.04953600570603336</v>
       </c>
       <c r="M37" t="n">
-        <v>0.03594378521892849</v>
+        <v>0.0112723153567217</v>
       </c>
       <c r="N37" t="n">
-        <v>0.03412608819790258</v>
+        <v>0.05008621782680816</v>
       </c>
       <c r="O37" t="n">
-        <v>0.002754534013371697</v>
+        <v>0.02633066117671636</v>
       </c>
       <c r="P37" t="n">
-        <v>0.002182189885122806</v>
+        <v>0.04131280092886984</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.07931134926636497</v>
+        <v>0.08111885522780121</v>
       </c>
       <c r="R37" t="n">
-        <v>0.02233347955560005</v>
+        <v>0.03544263626513035</v>
       </c>
       <c r="S37" t="n">
-        <v>0.03193371973098673</v>
+        <v>0.04792033345806656</v>
       </c>
       <c r="T37" t="n">
-        <v>0.04910678728839457</v>
+        <v>0.008660906291526282</v>
       </c>
       <c r="U37" t="n">
-        <v>0.005354113607933232</v>
+        <v>0.00508453556654379</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0258027102409528</v>
+        <v>0.01992188912466681</v>
       </c>
       <c r="W37" t="n">
-        <v>0.04451996211532748</v>
+        <v>0.05371744854518164</v>
       </c>
       <c r="X37" t="n">
-        <v>0.01916741168436766</v>
+        <v>0.05024274406686408</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.03487765726006552</v>
+        <v>0.02281845834561981</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.02140583066679374</v>
+        <v>0.07292081357150441</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.005390631622109649</v>
+        <v>0.03058873447255503</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.03436276181682989</v>
+        <v>0.01991390312711582</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.01853023889989351</v>
+        <v>0.0005767512408665613</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.07609573408384418</v>
+        <v>0.08014677531670067</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.01574959009079896</v>
+        <v>0.02068932154744357</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.07933587418308821</v>
+        <v>0.07776199935494706</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.0006167332400020922</v>
+        <v>0.0209745807836194</v>
       </c>
       <c r="AH37" t="n">
-        <v>-0.01304546829426862</v>
+        <v>0.01050770562199627</v>
       </c>
     </row>
     <row r="38">
@@ -4580,94 +4580,94 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.14196633427012</v>
+        <v>0.1412708367211573</v>
       </c>
       <c r="F38" t="n">
-        <v>0.008791598426996635</v>
+        <v>0.01470610640077467</v>
       </c>
       <c r="G38" t="n">
-        <v>0.06873760437387867</v>
+        <v>0.04721680597715706</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04298002367282924</v>
+        <v>0.07236133715068936</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04834333655610812</v>
+        <v>0.01419434180317442</v>
       </c>
       <c r="J38" t="n">
-        <v>0.06381986090867636</v>
+        <v>0.01851419643251061</v>
       </c>
       <c r="K38" t="n">
-        <v>0.001128169396764593</v>
+        <v>0.05320258766403823</v>
       </c>
       <c r="L38" t="n">
-        <v>0.04110494587442007</v>
+        <v>0.0425003979597299</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01799136068142152</v>
+        <v>0.05530845802002519</v>
       </c>
       <c r="N38" t="n">
-        <v>0.05115473344101466</v>
+        <v>0.06952715813574663</v>
       </c>
       <c r="O38" t="n">
-        <v>0.05803093188116931</v>
+        <v>0.04955586844571697</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0004671941853158302</v>
+        <v>0.001637859818581905</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.03484696423628236</v>
+        <v>0.04359713234170774</v>
       </c>
       <c r="R38" t="n">
-        <v>0.05390749902918059</v>
+        <v>0.04758514867985843</v>
       </c>
       <c r="S38" t="n">
-        <v>0.03663825671316667</v>
+        <v>0.009406172260011371</v>
       </c>
       <c r="T38" t="n">
-        <v>0.03934196726756758</v>
+        <v>0.01827190863819932</v>
       </c>
       <c r="U38" t="n">
-        <v>0.07017621815980191</v>
+        <v>0.04004185890854189</v>
       </c>
       <c r="V38" t="n">
-        <v>0.00127928671655005</v>
+        <v>0.01639797166708334</v>
       </c>
       <c r="W38" t="n">
-        <v>0.004596687677202308</v>
+        <v>0.00171849808539706</v>
       </c>
       <c r="X38" t="n">
-        <v>0.06791586897042007</v>
+        <v>0.033459430671305</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.05487439747592611</v>
+        <v>0.06236133151730941</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.009279307852544416</v>
+        <v>0.04229400446066696</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.02404255987563144</v>
+        <v>0.03178813512914754</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.05218083948064321</v>
+        <v>0.06271616283201946</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.009253395593872359</v>
+        <v>0.01695752438510309</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.0005951452697004128</v>
+        <v>0.0219183184133068</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.07429339972741583</v>
+        <v>0.02657347015894651</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.009533919614565602</v>
+        <v>0.0115954558563343</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.05469452694093405</v>
+        <v>0.07459235818691684</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.04796978615796808</v>
+        <v>0.04106811338735054</v>
       </c>
     </row>
     <row r="39">
@@ -4690,94 +4690,94 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.6897592852278014</v>
+        <v>1.240168133984942</v>
       </c>
       <c r="F39" t="n">
-        <v>0.03154250937837168</v>
+        <v>0.04396144992004887</v>
       </c>
       <c r="G39" t="n">
-        <v>0.05970710537501684</v>
+        <v>0.003746280203118367</v>
       </c>
       <c r="H39" t="n">
-        <v>0.007374174965154123</v>
+        <v>0.009716641472014738</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03516827703374038</v>
+        <v>0.01108175498815457</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01957661458742364</v>
+        <v>0.000245535202024787</v>
       </c>
       <c r="K39" t="n">
-        <v>0.05023532953801212</v>
+        <v>0.05789989189530693</v>
       </c>
       <c r="L39" t="n">
-        <v>0.06032398485209214</v>
+        <v>0.07666530997117869</v>
       </c>
       <c r="M39" t="n">
-        <v>0.005790012903664132</v>
+        <v>0.06321846638082068</v>
       </c>
       <c r="N39" t="n">
-        <v>0.01620809568929957</v>
+        <v>0.02190482268044846</v>
       </c>
       <c r="O39" t="n">
-        <v>0.008486600905667621</v>
+        <v>4.298370241808946e-07</v>
       </c>
       <c r="P39" t="n">
-        <v>0.04541604083420572</v>
+        <v>0.05964949191765249</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0004610163271911204</v>
+        <v>0.06595311569030936</v>
       </c>
       <c r="R39" t="n">
-        <v>0.05886848881339397</v>
+        <v>0.06133356852772711</v>
       </c>
       <c r="S39" t="n">
-        <v>0.007367598250656446</v>
+        <v>0.01182277455586278</v>
       </c>
       <c r="T39" t="n">
-        <v>0.002931957689986315</v>
+        <v>0.04208449515033895</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02028483271478216</v>
+        <v>0.0499185307710644</v>
       </c>
       <c r="V39" t="n">
-        <v>0.02885699325567551</v>
+        <v>0.06103623556432107</v>
       </c>
       <c r="W39" t="n">
-        <v>0.03597298515942545</v>
+        <v>0.07477342582995546</v>
       </c>
       <c r="X39" t="n">
-        <v>0.05111122136898103</v>
+        <v>0.02443554265994668</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.02974733677582664</v>
+        <v>0.0009904435074253961</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.05770783897095071</v>
+        <v>0.06288827948585271</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.05902796074680881</v>
+        <v>0.06167869801008297</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.002154901488916147</v>
+        <v>0.004118196239397662</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.07542431292758141</v>
+        <v>0.009102334219808442</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.06619594526029964</v>
+        <v>0.06488443626687225</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.07577881702617274</v>
+        <v>0.007552589632741922</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.07865417305899523</v>
+        <v>0.01415985171462424</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.009624874101708663</v>
+        <v>0.03517740770587571</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.04626107538153543</v>
+        <v>0.0524457206853457</v>
       </c>
     </row>
     <row r="40">
@@ -4800,94 +4800,94 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1323116532754749</v>
+        <v>0.1338285822807269</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02504908819690736</v>
+        <v>0.02432823541220685</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04389719425487908</v>
+        <v>0.0198190388538561</v>
       </c>
       <c r="H40" t="n">
-        <v>0.06222245659131654</v>
+        <v>0.03737987377747663</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0159835476194225</v>
+        <v>0.0625860507958541</v>
       </c>
       <c r="J40" t="n">
-        <v>0.02907415085337216</v>
+        <v>0.04681447759162709</v>
       </c>
       <c r="K40" t="n">
-        <v>0.001312800578800584</v>
+        <v>0.01679433389568215</v>
       </c>
       <c r="L40" t="n">
-        <v>0.00405385196689538</v>
+        <v>0.05021750835613367</v>
       </c>
       <c r="M40" t="n">
-        <v>0.02239768898943768</v>
+        <v>0.04021779151533419</v>
       </c>
       <c r="N40" t="n">
-        <v>0.02734871407899545</v>
+        <v>0.05228739598355657</v>
       </c>
       <c r="O40" t="n">
-        <v>0.01118140873754624</v>
+        <v>0.0335044182724662</v>
       </c>
       <c r="P40" t="n">
-        <v>0.008450704279693988</v>
+        <v>0.03554258021899871</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.0009745678801304704</v>
+        <v>0.004498534076316036</v>
       </c>
       <c r="R40" t="n">
-        <v>0.06072996041971759</v>
+        <v>0.01692183989046623</v>
       </c>
       <c r="S40" t="n">
-        <v>0.02032123858229436</v>
+        <v>0.007709475959350475</v>
       </c>
       <c r="T40" t="n">
-        <v>0.02068152459644784</v>
+        <v>0.05963648113079897</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02213262519252059</v>
+        <v>0.0290056861529518</v>
       </c>
       <c r="V40" t="n">
-        <v>0.06770784547227193</v>
+        <v>0.06064954099058972</v>
       </c>
       <c r="W40" t="n">
-        <v>0.06961417283905963</v>
+        <v>0.04458611727640383</v>
       </c>
       <c r="X40" t="n">
-        <v>0.07644538682104163</v>
+        <v>0.02122287870086766</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.07415239819975294</v>
+        <v>0.02234626536629915</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.01968817798389061</v>
+        <v>0.06037597464155522</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.05891485516202886</v>
+        <v>0.05156453506075879</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.02919443131509569</v>
+        <v>0.05962411119128151</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.07617971721507982</v>
+        <v>0.05035332784854774</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.001510098936138525</v>
+        <v>0.0005934154389194499</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.07904938010557253</v>
+        <v>0.05980298476684671</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.03044148968220557</v>
+        <v>0.02175782513834137</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.04129052344948445</v>
+        <v>0.009859301696513037</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.03905613925947207</v>
+        <v>0.06633427153731296</v>
       </c>
     </row>
     <row r="41">
@@ -4910,94 +4910,94 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.6976176834123162</v>
+        <v>0.6259816789674792</v>
       </c>
       <c r="F41" t="n">
-        <v>0.05698975987748359</v>
+        <v>0.01188157459242711</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04231688565942147</v>
+        <v>0.02001927441196824</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01072728039879275</v>
+        <v>0.03595263019974032</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0228660389559439</v>
+        <v>0.05176614115179221</v>
       </c>
       <c r="J41" t="n">
-        <v>0.03845899420440424</v>
+        <v>0.02856190372112745</v>
       </c>
       <c r="K41" t="n">
-        <v>0.08188826138420253</v>
+        <v>0.03734272474402553</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0491608508759804</v>
+        <v>0.003181646584052511</v>
       </c>
       <c r="M41" t="n">
-        <v>0.002173052057668354</v>
+        <v>0.00393811807439336</v>
       </c>
       <c r="N41" t="n">
-        <v>0.009569596475192866</v>
+        <v>0.005710460558509976</v>
       </c>
       <c r="O41" t="n">
-        <v>0.05818212089976493</v>
+        <v>0.06362988740371435</v>
       </c>
       <c r="P41" t="n">
-        <v>0.08289458134438737</v>
+        <v>0.02432092593921807</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.002634808889215665</v>
+        <v>0.0001728235573580312</v>
       </c>
       <c r="R41" t="n">
-        <v>0.02773683739714876</v>
+        <v>0.03779543381351137</v>
       </c>
       <c r="S41" t="n">
-        <v>0.009697395205660715</v>
+        <v>0.02956524091086706</v>
       </c>
       <c r="T41" t="n">
-        <v>0.007141375659455743</v>
+        <v>0.05160802695630896</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04347865909221948</v>
+        <v>0.08147678456678138</v>
       </c>
       <c r="V41" t="n">
-        <v>0.01033236251440892</v>
+        <v>0.007213437855699971</v>
       </c>
       <c r="W41" t="n">
-        <v>0.02447216220051141</v>
+        <v>0.03492956111347854</v>
       </c>
       <c r="X41" t="n">
-        <v>0.02905199774280328</v>
+        <v>0.07838395814069464</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.05956504347875897</v>
+        <v>0.04918720545562391</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.05915536312932999</v>
+        <v>0.02851330819333697</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.006404973218959395</v>
+        <v>0.01893185066827269</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.009323309152999747</v>
+        <v>0.03568892666277761</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.01703729622697947</v>
+        <v>0.04231519628514083</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.08584779066832501</v>
+        <v>0.07658252257895269</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.05590064335338536</v>
+        <v>0.08268661024072567</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.07949667929963622</v>
+        <v>0.01224712366191398</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.01749588063695949</v>
+        <v>0.04639670195758663</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.08050820879704497</v>
+        <v>0.09111490214836002</v>
       </c>
     </row>
     <row r="42">
@@ -5020,94 +5020,94 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1406711552688958</v>
+        <v>0.1433046240225804</v>
       </c>
       <c r="F42" t="n">
-        <v>0.04687635523359128</v>
+        <v>0.003814985872514743</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0631537525320989</v>
+        <v>0.06499283579473709</v>
       </c>
       <c r="H42" t="n">
-        <v>0.02746995873080281</v>
+        <v>0.03050698002077906</v>
       </c>
       <c r="I42" t="n">
-        <v>0.07042502278068218</v>
+        <v>0.05359118447644858</v>
       </c>
       <c r="J42" t="n">
-        <v>0.002127517251984312</v>
+        <v>0.01024145724430486</v>
       </c>
       <c r="K42" t="n">
-        <v>0.02083375433434793</v>
+        <v>0.05421669425133187</v>
       </c>
       <c r="L42" t="n">
-        <v>0.06444710314338513</v>
+        <v>0.07302216977284787</v>
       </c>
       <c r="M42" t="n">
-        <v>0.06657161592483736</v>
+        <v>0.02059649004236353</v>
       </c>
       <c r="N42" t="n">
-        <v>0.02862696806427308</v>
+        <v>0.05699369639174612</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0022396838709918</v>
+        <v>0.002285356026451637</v>
       </c>
       <c r="P42" t="n">
-        <v>0.03913376063168757</v>
+        <v>0.01422186727192145</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.0002528708688668772</v>
+        <v>0.06626793634384801</v>
       </c>
       <c r="R42" t="n">
-        <v>0.04433479007799868</v>
+        <v>0.06187409873599259</v>
       </c>
       <c r="S42" t="n">
-        <v>0.02169221506483941</v>
+        <v>0.06110652667335388</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0581126774370028</v>
+        <v>0.02955998116638476</v>
       </c>
       <c r="U42" t="n">
-        <v>0.003943738415502206</v>
+        <v>0.002729194787907097</v>
       </c>
       <c r="V42" t="n">
-        <v>0.04656327655170237</v>
+        <v>0.0557629394665051</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0729860307575525</v>
+        <v>0.0002645147512779215</v>
       </c>
       <c r="X42" t="n">
-        <v>0.02506324428133583</v>
+        <v>0.04037703651069447</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.02350655953058097</v>
+        <v>0.005005696866476681</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.02376432473810338</v>
+        <v>0.009166341999866106</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.06247343936636715</v>
+        <v>0.04371159555609573</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.0408016371932144</v>
+        <v>0.04868491744642157</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.01721141599285985</v>
+        <v>0.02708242724886402</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.002158858087086978</v>
+        <v>0.000563478990787731</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.03675660999369717</v>
+        <v>0.02002363656070357</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.02344620807506622</v>
+        <v>0.07582236666549194</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.06502661106954088</v>
+        <v>0.06751359306388208</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.08042847588755271</v>
+        <v>0.06007985842396252</v>
       </c>
     </row>
     <row r="43">
@@ -5130,94 +5130,94 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.69678124821034</v>
+        <v>0.6039026571215237</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004237958901669503</v>
+        <v>0.01666694809506755</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01178782589321785</v>
+        <v>0.06827861541237454</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0419711340623352</v>
+        <v>0.04078785324413703</v>
       </c>
       <c r="I43" t="n">
-        <v>0.03226913770773505</v>
+        <v>0.07954237665672806</v>
       </c>
       <c r="J43" t="n">
-        <v>0.03089656085659549</v>
+        <v>0.01326176175980318</v>
       </c>
       <c r="K43" t="n">
-        <v>0.00644502384978877</v>
+        <v>0.005582242556952954</v>
       </c>
       <c r="L43" t="n">
-        <v>0.06888075212935439</v>
+        <v>0.04773808444687451</v>
       </c>
       <c r="M43" t="n">
-        <v>0.04743765392666415</v>
+        <v>0.05151915449011452</v>
       </c>
       <c r="N43" t="n">
-        <v>0.02336960538843357</v>
+        <v>0.05995394870209629</v>
       </c>
       <c r="O43" t="n">
-        <v>0.01063003247165041</v>
+        <v>0.002090461168571046</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0756035241675225</v>
+        <v>0.009496587655370389</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.00723401123589195</v>
+        <v>0.03266374735246739</v>
       </c>
       <c r="R43" t="n">
-        <v>0.02302396693500096</v>
+        <v>0.04629023509971031</v>
       </c>
       <c r="S43" t="n">
-        <v>0.03226565262516125</v>
+        <v>0.01740848574397147</v>
       </c>
       <c r="T43" t="n">
-        <v>0.05015073818020856</v>
+        <v>0.0450925050654887</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09482940553710592</v>
+        <v>0.08015720604451931</v>
       </c>
       <c r="V43" t="n">
-        <v>0.03896917113613255</v>
+        <v>0.00261400939064539</v>
       </c>
       <c r="W43" t="n">
-        <v>0.08216416249581487</v>
+        <v>0.02679275966639906</v>
       </c>
       <c r="X43" t="n">
-        <v>0.06849118143607195</v>
+        <v>0.01445772904695322</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.02271182902426525</v>
+        <v>0.07165257914848319</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.01508846033329289</v>
+        <v>0.001857656137289383</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.0314220199239285</v>
+        <v>0.0185774591541872</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.00276787150147721</v>
+        <v>0.007360783199119074</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.04678169995463433</v>
+        <v>0.0695721237423973</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.06282115126078758</v>
+        <v>0.05651796426572514</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.008203383880177818</v>
+        <v>0.06845544906041336</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.0128026391359399</v>
+        <v>0.007220100568276106</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.04674344604914157</v>
+        <v>0.03839117312586429</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.08644060415262328</v>
+        <v>0.0605315251399902</v>
       </c>
     </row>
     <row r="44">
@@ -5240,94 +5240,94 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1815584366400255</v>
+        <v>0.1964634264307168</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0009990427902897764</v>
+        <v>0.0427858457089029</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0348071743458958</v>
+        <v>0.05412181090307056</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0661954380215822</v>
+        <v>0.03164985593332692</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01930619684683576</v>
+        <v>0.03120611159817912</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0141630123560201</v>
+        <v>0.01477202576336108</v>
       </c>
       <c r="K44" t="n">
-        <v>0.01814236125167813</v>
+        <v>0.05913904160660582</v>
       </c>
       <c r="L44" t="n">
-        <v>0.05934869977365961</v>
+        <v>0.009026758297619631</v>
       </c>
       <c r="M44" t="n">
-        <v>0.03210626368174312</v>
+        <v>0.04617674630277799</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0658176237331445</v>
+        <v>0.06073427765021628</v>
       </c>
       <c r="O44" t="n">
-        <v>0.05950006873764781</v>
+        <v>0.05298310424597923</v>
       </c>
       <c r="P44" t="n">
-        <v>0.02477426906690389</v>
+        <v>0.02531992787635528</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.02613132637439366</v>
+        <v>0.02252086197947694</v>
       </c>
       <c r="R44" t="n">
-        <v>0.05097919270050021</v>
+        <v>0.03996931874705961</v>
       </c>
       <c r="S44" t="n">
-        <v>0.06845842330945107</v>
+        <v>0.02119946949323724</v>
       </c>
       <c r="T44" t="n">
-        <v>0.03300547631796986</v>
+        <v>0.03584730422682132</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05220169238145881</v>
+        <v>0.0493151211583765</v>
       </c>
       <c r="V44" t="n">
-        <v>0.04331388073956626</v>
+        <v>0.04642558292417905</v>
       </c>
       <c r="W44" t="n">
-        <v>0.04097310601832547</v>
+        <v>0.04138920556268201</v>
       </c>
       <c r="X44" t="n">
-        <v>0.01541080704268048</v>
+        <v>0.00106921365305916</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.006000194578142506</v>
+        <v>0.0176365296983384</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.002836129172242076</v>
+        <v>0.005914001111827736</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.07254422099531299</v>
+        <v>0.05598742361540326</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.07264075463726005</v>
+        <v>0.04707807151799578</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.04700771431127578</v>
+        <v>0.06286453144723039</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.01079102441418886</v>
+        <v>0.01691544582637079</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.05843050801060994</v>
+        <v>0.03947610204727069</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.001909678839400842</v>
+        <v>0.0620658046226746</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.002205719551820348</v>
+        <v>0.006410506481601558</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.1203308516106907</v>
+        <v>0.1008047878330977</v>
       </c>
     </row>
     <row r="45">
@@ -5350,94 +5350,94 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.322529114146838</v>
+        <v>0.37418651273253</v>
       </c>
       <c r="F45" t="n">
-        <v>0.06568245842914007</v>
+        <v>0.06943794407128924</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01040616873178035</v>
+        <v>0.04446625122871004</v>
       </c>
       <c r="H45" t="n">
-        <v>0.04588711510083563</v>
+        <v>0.007736584125878445</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03374020991477565</v>
+        <v>0.02648180568273156</v>
       </c>
       <c r="J45" t="n">
-        <v>0.004711100862506171</v>
+        <v>0.0005473071812706149</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0173336874020313</v>
+        <v>0.06608800973964393</v>
       </c>
       <c r="L45" t="n">
-        <v>0.04656700528560574</v>
+        <v>0.04137961089727471</v>
       </c>
       <c r="M45" t="n">
-        <v>0.02876023033517925</v>
+        <v>0.02291517737455924</v>
       </c>
       <c r="N45" t="n">
-        <v>0.05685683026294502</v>
+        <v>0.03388986156230511</v>
       </c>
       <c r="O45" t="n">
-        <v>0.07279171770151552</v>
+        <v>0.07707992244543181</v>
       </c>
       <c r="P45" t="n">
-        <v>0.004000294968516149</v>
+        <v>0.008881675408676071</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0366456690851307</v>
+        <v>0.03946510207536932</v>
       </c>
       <c r="R45" t="n">
-        <v>0.06080443716725369</v>
+        <v>0.07073590143684202</v>
       </c>
       <c r="S45" t="n">
-        <v>0.01667084962386284</v>
+        <v>0.06332919661809391</v>
       </c>
       <c r="T45" t="n">
-        <v>0.07060153503960517</v>
+        <v>0.02156242312629794</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04126487737857496</v>
+        <v>0.05936790552209598</v>
       </c>
       <c r="V45" t="n">
-        <v>0.02247066423869786</v>
+        <v>0.07051935403532057</v>
       </c>
       <c r="W45" t="n">
-        <v>0.008300384118617436</v>
+        <v>0.0009273439489955484</v>
       </c>
       <c r="X45" t="n">
-        <v>0.05698601820838087</v>
+        <v>0.08137947482206617</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.03440889823241364</v>
+        <v>0.07333001617695839</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.0001061254836788405</v>
+        <v>0.0001037460789757146</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.03092607312731517</v>
+        <v>0.03152384666543713</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.07205229382297702</v>
+        <v>0.01712967005945671</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.04796102455331488</v>
+        <v>0.009389354682005715</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.03909262313585274</v>
+        <v>0.009901965952159093</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.03920443928739081</v>
+        <v>0.01432769189527321</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.01668119578428766</v>
+        <v>0.02744116645252856</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.0190860727178148</v>
+        <v>0.01066169073435312</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.1070049127457185</v>
+        <v>0.1017472072531099</v>
       </c>
     </row>
     <row r="46">
@@ -5460,94 +5460,94 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.3077143820807696</v>
+        <v>0.3382181413829977</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01363025416410111</v>
+        <v>0.01308159727875489</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05677583457302939</v>
+        <v>0.0435431949758858</v>
       </c>
       <c r="H46" t="n">
-        <v>0.06547305155497939</v>
+        <v>0.03991552710225305</v>
       </c>
       <c r="I46" t="n">
-        <v>0.01071565033145437</v>
+        <v>0.01082060943264026</v>
       </c>
       <c r="J46" t="n">
-        <v>0.02002006936426433</v>
+        <v>0.002022610542560672</v>
       </c>
       <c r="K46" t="n">
-        <v>0.006377131669537062</v>
+        <v>0.0005042797871460255</v>
       </c>
       <c r="L46" t="n">
-        <v>0.04785000921641769</v>
+        <v>0.04500738180962231</v>
       </c>
       <c r="M46" t="n">
-        <v>0.04580867847531139</v>
+        <v>0.05795837947086957</v>
       </c>
       <c r="N46" t="n">
-        <v>0.06507171776262628</v>
+        <v>0.048905375246071</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0229908421777487</v>
+        <v>0.0421898459824884</v>
       </c>
       <c r="P46" t="n">
-        <v>0.02473773825107607</v>
+        <v>0.00627891556302177</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.0005682179761314313</v>
+        <v>0.02557762216445115</v>
       </c>
       <c r="R46" t="n">
-        <v>0.03976337542967341</v>
+        <v>0.06680562572724502</v>
       </c>
       <c r="S46" t="n">
-        <v>0.001171516577527442</v>
+        <v>0.008504790970510177</v>
       </c>
       <c r="T46" t="n">
-        <v>0.07149593623187815</v>
+        <v>0.08108556022659275</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05847187736250459</v>
+        <v>0.02084936330137705</v>
       </c>
       <c r="V46" t="n">
-        <v>0.05797092880766053</v>
+        <v>0.0449247898890374</v>
       </c>
       <c r="W46" t="n">
-        <v>0.07286055612014911</v>
+        <v>0.01086176152504569</v>
       </c>
       <c r="X46" t="n">
-        <v>0.04362094339617621</v>
+        <v>0.05684898951805607</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.03750688293306513</v>
+        <v>0.04011418233029698</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.006552964075308166</v>
+        <v>0.03289464864585612</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.05090396838618599</v>
+        <v>0.03224702587825286</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.007210354862233215</v>
+        <v>0.0156721420986241</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.011933925012345</v>
+        <v>0.01292024963750461</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.05383582850588237</v>
+        <v>0.08004510922325944</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.001196545196665927</v>
+        <v>0.02328103524053424</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.071283542544646</v>
+        <v>0.08211716058928914</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.03420165904142147</v>
+        <v>0.05502222584275347</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.03434198959203175</v>
+        <v>-0.04177109995115467</v>
       </c>
     </row>
     <row r="47">
@@ -5570,94 +5570,94 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.6474738767665896</v>
+        <v>0.7255781128611243</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00850984828185993</v>
+        <v>0.01365189050512387</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06618099544373476</v>
+        <v>0.02699290729910458</v>
       </c>
       <c r="H47" t="n">
-        <v>0.02156069241929142</v>
+        <v>0.04558238737181618</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01237042026169814</v>
+        <v>0.006050775568250835</v>
       </c>
       <c r="J47" t="n">
-        <v>0.02331247640709976</v>
+        <v>0.03208908778274681</v>
       </c>
       <c r="K47" t="n">
-        <v>0.002171327209396185</v>
+        <v>0.007590338075373394</v>
       </c>
       <c r="L47" t="n">
-        <v>0.008406269730386653</v>
+        <v>0.08219271911278121</v>
       </c>
       <c r="M47" t="n">
-        <v>0.03992726862198888</v>
+        <v>0.0008610947817312023</v>
       </c>
       <c r="N47" t="n">
-        <v>0.03587797357893271</v>
+        <v>0.01493194825851966</v>
       </c>
       <c r="O47" t="n">
-        <v>0.08759736291876107</v>
+        <v>0.08196068479816015</v>
       </c>
       <c r="P47" t="n">
-        <v>0.01834659356953413</v>
+        <v>0.03735239058309367</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.08812426876801485</v>
+        <v>0.0976569858323439</v>
       </c>
       <c r="R47" t="n">
-        <v>0.05758042590666007</v>
+        <v>0.03478986823519714</v>
       </c>
       <c r="S47" t="n">
-        <v>0.08044430330106792</v>
+        <v>0.007484213715701402</v>
       </c>
       <c r="T47" t="n">
-        <v>0.04622756078228972</v>
+        <v>0.01089922744192937</v>
       </c>
       <c r="U47" t="n">
-        <v>0.06560924210460707</v>
+        <v>0.05226882428149342</v>
       </c>
       <c r="V47" t="n">
-        <v>0.006727362808300073</v>
+        <v>0.04441714190924066</v>
       </c>
       <c r="W47" t="n">
-        <v>0.009901087553322701</v>
+        <v>0.07546497786856447</v>
       </c>
       <c r="X47" t="n">
-        <v>0.08350791764667301</v>
+        <v>0.07911386965928613</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.005533919763938543</v>
+        <v>0.08781957096268719</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.03884019430821658</v>
+        <v>0.01672813578300583</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.07173141579166384</v>
+        <v>0.004043716033186654</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.04559214927024106</v>
+        <v>0.03826066415187749</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.01159864657944244</v>
+        <v>0.001739772769688618</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.02574989971873156</v>
+        <v>0.04066316467799783</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.02544704189430564</v>
+        <v>0.003231475884565058</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.00782165208404695</v>
+        <v>0.01124348099351052</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.005301683275794375</v>
+        <v>0.04491868566302266</v>
       </c>
       <c r="AH47" t="n">
-        <v>-0.03089916313462155</v>
+        <v>-0.04047319334807199</v>
       </c>
     </row>
     <row r="48">
@@ -5680,94 +5680,94 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1108927939598182</v>
+        <v>0.1178889404734635</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003492391106178388</v>
+        <v>0.00760622728270055</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04064891458138389</v>
+        <v>0.01906540074338052</v>
       </c>
       <c r="H48" t="n">
-        <v>0.007063106377021303</v>
+        <v>0.01940837787901007</v>
       </c>
       <c r="I48" t="n">
-        <v>0.02865577341339333</v>
+        <v>0.04210872521707183</v>
       </c>
       <c r="J48" t="n">
-        <v>0.02670872068189547</v>
+        <v>0.05295068966208946</v>
       </c>
       <c r="K48" t="n">
-        <v>0.008239661828820025</v>
+        <v>0.002987124720896031</v>
       </c>
       <c r="L48" t="n">
-        <v>0.02072708714544977</v>
+        <v>0.0679549403820949</v>
       </c>
       <c r="M48" t="n">
-        <v>0.01283037860927548</v>
+        <v>0.0125457334355079</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0785826532985935</v>
+        <v>0.06933385915107945</v>
       </c>
       <c r="O48" t="n">
-        <v>0.04035755382713093</v>
+        <v>0.05966903729256094</v>
       </c>
       <c r="P48" t="n">
-        <v>0.04197394346019024</v>
+        <v>0.03059318499007482</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.01202273842203225</v>
+        <v>0.01165937504494763</v>
       </c>
       <c r="R48" t="n">
-        <v>0.03765866946167178</v>
+        <v>0.05030084582885706</v>
       </c>
       <c r="S48" t="n">
-        <v>0.01448844157792221</v>
+        <v>0.04582898106155252</v>
       </c>
       <c r="T48" t="n">
-        <v>0.05407673015961675</v>
+        <v>0.002335503459289937</v>
       </c>
       <c r="U48" t="n">
-        <v>0.07029185923098853</v>
+        <v>0.0264553559925522</v>
       </c>
       <c r="V48" t="n">
-        <v>0.05015250066320963</v>
+        <v>0.02631744525231581</v>
       </c>
       <c r="W48" t="n">
-        <v>0.05708416714099752</v>
+        <v>0.05237514566386559</v>
       </c>
       <c r="X48" t="n">
-        <v>0.04851185998996078</v>
+        <v>0.04549012694760701</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.02815447833355419</v>
+        <v>0.03725561894108973</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.005017487030000071</v>
+        <v>0.004520221586787389</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.04387699476641151</v>
+        <v>0.05027446865702884</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.04536608474795566</v>
+        <v>0.05883194547524977</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.05285725106368017</v>
+        <v>0.06204005090554195</v>
       </c>
       <c r="AD48" t="n">
-        <v>3.718318243876861e-05</v>
+        <v>0.002837316612746856</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.02518175555040376</v>
+        <v>0.04543954972924041</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.07413697819229809</v>
+        <v>0.04525173076461495</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.07180463615752582</v>
+        <v>0.04856301732024576</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.01013204610222657</v>
+        <v>-0.004948056114730009</v>
       </c>
     </row>
     <row r="49">
@@ -5790,94 +5790,94 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.2922257155422945</v>
+        <v>0.289974078859589</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02207478359377844</v>
+        <v>0.0004400046372103783</v>
       </c>
       <c r="G49" t="n">
-        <v>0.004618492165313626</v>
+        <v>0.04690168859847462</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02822412123203273</v>
+        <v>0.02476088300392015</v>
       </c>
       <c r="I49" t="n">
-        <v>0.03610459129194873</v>
+        <v>0.02538831646590644</v>
       </c>
       <c r="J49" t="n">
-        <v>0.04767497797427189</v>
+        <v>0.05734081526743751</v>
       </c>
       <c r="K49" t="n">
-        <v>0.003995490241259732</v>
+        <v>0.003794443534542196</v>
       </c>
       <c r="L49" t="n">
-        <v>0.06924050752151015</v>
+        <v>0.004498127471491522</v>
       </c>
       <c r="M49" t="n">
-        <v>0.03187390207072784</v>
+        <v>0.05269188411362307</v>
       </c>
       <c r="N49" t="n">
-        <v>0.02530737571090886</v>
+        <v>0.03427819451186171</v>
       </c>
       <c r="O49" t="n">
-        <v>0.04682641348814005</v>
+        <v>0.007584673891407369</v>
       </c>
       <c r="P49" t="n">
-        <v>0.02815356085701637</v>
+        <v>0.03929129661125499</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.0352154350530593</v>
+        <v>0.0240044351001985</v>
       </c>
       <c r="R49" t="n">
-        <v>0.05316172487902053</v>
+        <v>0.05980685929838399</v>
       </c>
       <c r="S49" t="n">
-        <v>0.005627399410959509</v>
+        <v>0.03985270293531561</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0590064161551055</v>
+        <v>0.0553662791121028</v>
       </c>
       <c r="U49" t="n">
-        <v>0.002383666510745245</v>
+        <v>0.002795259893856981</v>
       </c>
       <c r="V49" t="n">
-        <v>0.02684539212828608</v>
+        <v>0.04254274933108546</v>
       </c>
       <c r="W49" t="n">
-        <v>0.06025068157988649</v>
+        <v>0.02933664337595186</v>
       </c>
       <c r="X49" t="n">
-        <v>0.04017614568137854</v>
+        <v>0.04427050217035927</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0524801198205249</v>
+        <v>0.07674672671770633</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.0001623830696113548</v>
+        <v>0.005522090304051062</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.008374666406059987</v>
+        <v>0.05502530021240078</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.04675734903924664</v>
+        <v>0.06136165762510151</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.01993582204375485</v>
+        <v>0.01304630384443801</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.07155416604493108</v>
+        <v>0.07040924619317573</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.05709719386805149</v>
+        <v>0.0528456649948525</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.0444121085814688</v>
+        <v>0.0544097487097746</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.07246511358100141</v>
+        <v>0.01568750207411502</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.007948276007884333</v>
+        <v>0.01489094951378256</v>
       </c>
     </row>
     <row r="50">
@@ -5900,94 +5900,94 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1371514987884608</v>
+        <v>0.1356020428560535</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06441560366417144</v>
+        <v>0.01631934791381114</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05720376138386444</v>
+        <v>0.01589165168833828</v>
       </c>
       <c r="H50" t="n">
-        <v>0.001653795900087667</v>
+        <v>0.02746569795992673</v>
       </c>
       <c r="I50" t="n">
-        <v>0.04438957239980346</v>
+        <v>0.05995795006388058</v>
       </c>
       <c r="J50" t="n">
-        <v>0.01908904362089728</v>
+        <v>0.01180989862403181</v>
       </c>
       <c r="K50" t="n">
-        <v>0.02088086519495592</v>
+        <v>0.05943753404261896</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0258455271135017</v>
+        <v>0.01506316684343637</v>
       </c>
       <c r="M50" t="n">
-        <v>0.03403689524366967</v>
+        <v>0.03864106774160128</v>
       </c>
       <c r="N50" t="n">
-        <v>0.02028088843378717</v>
+        <v>0.02353599684101115</v>
       </c>
       <c r="O50" t="n">
-        <v>0.07223626458989373</v>
+        <v>0.04892265965037065</v>
       </c>
       <c r="P50" t="n">
-        <v>0.07125844316083928</v>
+        <v>0.0520191227064122</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.05160141899329089</v>
+        <v>0.0382355686460728</v>
       </c>
       <c r="R50" t="n">
-        <v>0.006638825620983324</v>
+        <v>0.0528233560980645</v>
       </c>
       <c r="S50" t="n">
-        <v>0.001366824068038715</v>
+        <v>0.06040949760420979</v>
       </c>
       <c r="T50" t="n">
-        <v>0.05892643385350277</v>
+        <v>0.0628812573315497</v>
       </c>
       <c r="U50" t="n">
-        <v>0.04093065446271868</v>
+        <v>0.01805289741818183</v>
       </c>
       <c r="V50" t="n">
-        <v>0.001773718561038497</v>
+        <v>0.002535943543285095</v>
       </c>
       <c r="W50" t="n">
-        <v>0.0367629900001494</v>
+        <v>0.06219764447579824</v>
       </c>
       <c r="X50" t="n">
-        <v>0.06088216264008789</v>
+        <v>0.04319657349311386</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.02792221341658452</v>
+        <v>0.0629743128535402</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.01195206877632806</v>
+        <v>0.008004763832090141</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.05385094535278478</v>
+        <v>0.04668227723902115</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.02760952524090915</v>
+        <v>0.01178349162615197</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.05479090873654154</v>
+        <v>0.05597619459463535</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.008175998116968196</v>
+        <v>0.001670179221494871</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.05837219266110116</v>
+        <v>0.04902031646302249</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.02098081852232612</v>
+        <v>0.03288371236066335</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.04617164027117441</v>
+        <v>0.02160791912366546</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.1311793405516421</v>
+        <v>0.1255119757279282</v>
       </c>
     </row>
     <row r="51">
@@ -6010,94 +6010,94 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1589871795176444</v>
+        <v>0.1679679327140161</v>
       </c>
       <c r="F51" t="n">
-        <v>0.07299028742441195</v>
+        <v>0.0102742718408965</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0233225559418263</v>
+        <v>0.003400999047258538</v>
       </c>
       <c r="H51" t="n">
-        <v>0.04137166951769714</v>
+        <v>0.03743122207853503</v>
       </c>
       <c r="I51" t="n">
-        <v>0.001538794817172618</v>
+        <v>0.07586974642010649</v>
       </c>
       <c r="J51" t="n">
-        <v>0.002454269650284183</v>
+        <v>0.01731189085871584</v>
       </c>
       <c r="K51" t="n">
-        <v>0.01475745147776803</v>
+        <v>0.06315839820833553</v>
       </c>
       <c r="L51" t="n">
-        <v>0.07669594629730977</v>
+        <v>0.06207613290637608</v>
       </c>
       <c r="M51" t="n">
-        <v>0.07320121879234907</v>
+        <v>0.04298930050044607</v>
       </c>
       <c r="N51" t="n">
-        <v>0.07293971665848735</v>
+        <v>0.07603310627975751</v>
       </c>
       <c r="O51" t="n">
-        <v>0.02336501090960227</v>
+        <v>0.005540524402219264</v>
       </c>
       <c r="P51" t="n">
-        <v>0.0129336857603629</v>
+        <v>0.06759536556074966</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.0145306670283034</v>
+        <v>0.07235671303317744</v>
       </c>
       <c r="R51" t="n">
-        <v>0.0009821793284580753</v>
+        <v>0.006782058010825582</v>
       </c>
       <c r="S51" t="n">
-        <v>0.03095875735952204</v>
+        <v>0.02503265503484491</v>
       </c>
       <c r="T51" t="n">
-        <v>0.03318007987589434</v>
+        <v>0.004356626478533599</v>
       </c>
       <c r="U51" t="n">
-        <v>0.07239040872725669</v>
+        <v>0.04418713113908656</v>
       </c>
       <c r="V51" t="n">
-        <v>0.0007461657701994273</v>
+        <v>0.002003529481355608</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01003568236056039</v>
+        <v>0.01919486644408996</v>
       </c>
       <c r="X51" t="n">
-        <v>0.02461205655327089</v>
+        <v>0.03494886605496757</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.07767208252655286</v>
+        <v>0.04114905586096761</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.02421358336470461</v>
+        <v>0.03149619630715809</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.0637393734973502</v>
+        <v>0.05786696958515464</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.07571188500647615</v>
+        <v>0.06200576368155663</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.05665361886411258</v>
+        <v>0.01061359588521385</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.006935471756994705</v>
+        <v>0.01442521350968594</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.04313470615418986</v>
+        <v>0.02325638492005551</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.04145026044421144</v>
+        <v>0.0484910532871218</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.007482414134670676</v>
+        <v>0.04015236318280833</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.1476361684307873</v>
+        <v>0.1463968632333001</v>
       </c>
     </row>
     <row r="52">
@@ -6120,94 +6120,94 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1536077153474884</v>
+        <v>0.1515254260914482</v>
       </c>
       <c r="F52" t="n">
-        <v>0.03898509561989197</v>
+        <v>0.0149413659041548</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04822957478238721</v>
+        <v>0.07351232421899184</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0104829054852959</v>
+        <v>0.002230365250874506</v>
       </c>
       <c r="I52" t="n">
-        <v>0.02888880565257597</v>
+        <v>0.01441987789152693</v>
       </c>
       <c r="J52" t="n">
-        <v>0.009064511612120676</v>
+        <v>0.0108913918170021</v>
       </c>
       <c r="K52" t="n">
-        <v>0.01960622549763198</v>
+        <v>0.04152937586209395</v>
       </c>
       <c r="L52" t="n">
-        <v>0.04914926147597068</v>
+        <v>0.03108430428855137</v>
       </c>
       <c r="M52" t="n">
-        <v>0.03562804673252017</v>
+        <v>0.0006652738326453058</v>
       </c>
       <c r="N52" t="n">
-        <v>0.003037444854143207</v>
+        <v>0.01510072793048413</v>
       </c>
       <c r="O52" t="n">
-        <v>0.04651419768508074</v>
+        <v>0.05438990571185327</v>
       </c>
       <c r="P52" t="n">
-        <v>0.04552017920993195</v>
+        <v>0.01427188444102001</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.0004317529279905786</v>
+        <v>0.01559744779734892</v>
       </c>
       <c r="R52" t="n">
-        <v>0.0296511212385235</v>
+        <v>0.06786066316695606</v>
       </c>
       <c r="S52" t="n">
-        <v>0.05481429496491264</v>
+        <v>0.05762708689921647</v>
       </c>
       <c r="T52" t="n">
-        <v>0.0418234263576884</v>
+        <v>0.06686106180268896</v>
       </c>
       <c r="U52" t="n">
-        <v>0.03367346484078782</v>
+        <v>0.05618127301703044</v>
       </c>
       <c r="V52" t="n">
-        <v>0.04970454540833449</v>
+        <v>0.04762084479941491</v>
       </c>
       <c r="W52" t="n">
-        <v>0.04851424673257042</v>
+        <v>0.01273821547638164</v>
       </c>
       <c r="X52" t="n">
-        <v>0.06584972922320219</v>
+        <v>0.07067136946745499</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.04906023796466098</v>
+        <v>0.05027126126307262</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.04806150020231224</v>
+        <v>0.05080772316598627</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.06605823766383662</v>
+        <v>0.02486742771809008</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.008137995461724367</v>
+        <v>0.003278101901913613</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.007965239410795454</v>
+        <v>0.04868588452232483</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.05629864230451113</v>
+        <v>0.04575056203359407</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.001021406387331466</v>
+        <v>0.0003798801757220799</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.06166503299588762</v>
+        <v>0.04737088804870104</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.04216287730737957</v>
+        <v>0.06039351159490485</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.08759077690369202</v>
+        <v>0.08434940901631864</v>
       </c>
     </row>
     <row r="53">
@@ -6230,94 +6230,94 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.2871207812411417</v>
+        <v>0.2347341393162922</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01674232857955993</v>
+        <v>0.02186118994059826</v>
       </c>
       <c r="G53" t="n">
-        <v>0.005183229269810003</v>
+        <v>0.04695549389093168</v>
       </c>
       <c r="H53" t="n">
-        <v>0.03719591001883358</v>
+        <v>0.05102517564966333</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01605447166204854</v>
+        <v>0.02958870525319596</v>
       </c>
       <c r="J53" t="n">
-        <v>0.01174382659785576</v>
+        <v>0.0268817436587062</v>
       </c>
       <c r="K53" t="n">
-        <v>0.06305451675641995</v>
+        <v>0.08058055039187592</v>
       </c>
       <c r="L53" t="n">
-        <v>0.03574971001920917</v>
+        <v>0.03698718947962495</v>
       </c>
       <c r="M53" t="n">
-        <v>0.01915491058501097</v>
+        <v>0.04735932345166626</v>
       </c>
       <c r="N53" t="n">
-        <v>0.001892333937745578</v>
+        <v>0.01070971522029774</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0105470612193879</v>
+        <v>0.003532020835670668</v>
       </c>
       <c r="P53" t="n">
-        <v>0.01793444431453039</v>
+        <v>0.04827873881298859</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.03262586856304221</v>
+        <v>0.01801922528483088</v>
       </c>
       <c r="R53" t="n">
-        <v>0.03474877523351815</v>
+        <v>0.009309172564846814</v>
       </c>
       <c r="S53" t="n">
-        <v>0.06832046430589891</v>
+        <v>0.01136758704272249</v>
       </c>
       <c r="T53" t="n">
-        <v>0.069380406017767</v>
+        <v>0.02724057014805941</v>
       </c>
       <c r="U53" t="n">
-        <v>0.05421055926598246</v>
+        <v>0.06948295105134621</v>
       </c>
       <c r="V53" t="n">
-        <v>0.08902117562530518</v>
+        <v>0.02970847403805343</v>
       </c>
       <c r="W53" t="n">
-        <v>0.03625218963369113</v>
+        <v>0.03711676797851898</v>
       </c>
       <c r="X53" t="n">
-        <v>0.01435933515274571</v>
+        <v>0.07045568793172279</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.07019181787284148</v>
+        <v>0.02904967375848281</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.0290046225595051</v>
+        <v>0.05406771328864286</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.0794108971040232</v>
+        <v>0.0160890222527855</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.0002420968724091661</v>
+        <v>0.003043364510709223</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.05186609999902171</v>
+        <v>0.01674796950681577</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.02123335970389004</v>
+        <v>0.05243418274627514</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.098068786347962</v>
+        <v>0.07369621567479863</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.01564113919478662</v>
+        <v>0.01421647615587055</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.0001696635871982421</v>
+        <v>0.06419509948029899</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.07029499808801828</v>
+        <v>0.07187163582054601</v>
       </c>
     </row>
     <row r="54">
@@ -6340,94 +6340,94 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1759791343260675</v>
+        <v>0.1743700915000614</v>
       </c>
       <c r="F54" t="n">
-        <v>0.03781311186146497</v>
+        <v>0.02204097506883089</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01072225916203161</v>
+        <v>0.007680546878524429</v>
       </c>
       <c r="H54" t="n">
-        <v>0.03742462763179305</v>
+        <v>0.06110762635286882</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0409502661824907</v>
+        <v>0.03293360117205701</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0140674447071087</v>
+        <v>0.004113749481114687</v>
       </c>
       <c r="K54" t="n">
-        <v>0.03485633293636221</v>
+        <v>0.001650502621623864</v>
       </c>
       <c r="L54" t="n">
-        <v>0.002503217131459612</v>
+        <v>0.0006048167429614112</v>
       </c>
       <c r="M54" t="n">
-        <v>0.04825464464230251</v>
+        <v>0.03093247053896957</v>
       </c>
       <c r="N54" t="n">
-        <v>0.01267238601123605</v>
+        <v>0.004870301690267457</v>
       </c>
       <c r="O54" t="n">
-        <v>0.07002749898236174</v>
+        <v>0.05374227685570739</v>
       </c>
       <c r="P54" t="n">
-        <v>0.06468478987025116</v>
+        <v>0.0438783726007802</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.06871551510532846</v>
+        <v>0.0674913304356365</v>
       </c>
       <c r="R54" t="n">
-        <v>0.003110630284184674</v>
+        <v>0.01541757110842848</v>
       </c>
       <c r="S54" t="n">
-        <v>0.06243954808273614</v>
+        <v>0.046104503492161</v>
       </c>
       <c r="T54" t="n">
-        <v>0.06121000242985081</v>
+        <v>0.06905647304597305</v>
       </c>
       <c r="U54" t="n">
-        <v>0.03458105807733728</v>
+        <v>0.0662459470517127</v>
       </c>
       <c r="V54" t="n">
-        <v>0.06271802022982743</v>
+        <v>0.01736320908555568</v>
       </c>
       <c r="W54" t="n">
-        <v>0.01377141761017405</v>
+        <v>0.006541183009032348</v>
       </c>
       <c r="X54" t="n">
-        <v>0.04573190601847818</v>
+        <v>0.04956806811421793</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.008512899321013347</v>
+        <v>0.02773911627266277</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.002239375501565631</v>
+        <v>0.008810092174664877</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.03312108277092746</v>
+        <v>0.02102378119042235</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.03155314428421093</v>
+        <v>0.07788914617544217</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.01158887594195055</v>
+        <v>0.01529239101650524</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.04577874854410086</v>
+        <v>0.04338307975400542</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.06878768378491923</v>
+        <v>0.07538451227511471</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.004265526387693413</v>
+        <v>0.06034174783852306</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.06789798650683933</v>
+        <v>0.06879260795623578</v>
       </c>
       <c r="AH54" t="n">
-        <v>-0.1182449664716978</v>
+        <v>-0.1475315042842161</v>
       </c>
     </row>
     <row r="55">
@@ -6450,94 +6450,94 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.2034889568584553</v>
+        <v>0.2088642538034401</v>
       </c>
       <c r="F55" t="n">
-        <v>0.07020770913601597</v>
+        <v>0.06661251261665267</v>
       </c>
       <c r="G55" t="n">
-        <v>0.001183171954654129</v>
+        <v>0.005999421008197667</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0397210605555681</v>
+        <v>0.04113666420721528</v>
       </c>
       <c r="I55" t="n">
-        <v>0.008031965234066005</v>
+        <v>0.001359248662866235</v>
       </c>
       <c r="J55" t="n">
-        <v>0.01607832617729413</v>
+        <v>0.01788296352384778</v>
       </c>
       <c r="K55" t="n">
-        <v>0.01823152757377123</v>
+        <v>0.03582219274051511</v>
       </c>
       <c r="L55" t="n">
-        <v>0.02863611120043892</v>
+        <v>0.01179743309106785</v>
       </c>
       <c r="M55" t="n">
-        <v>0.00757944668650259</v>
+        <v>0.06401927236988715</v>
       </c>
       <c r="N55" t="n">
-        <v>0.06493347442103727</v>
+        <v>0.01122400759818681</v>
       </c>
       <c r="O55" t="n">
-        <v>0.06376283486697208</v>
+        <v>0.08278126463019354</v>
       </c>
       <c r="P55" t="n">
-        <v>0.06172511909529612</v>
+        <v>0.03563972152606535</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.06363831447021698</v>
+        <v>0.0404131527421365</v>
       </c>
       <c r="R55" t="n">
-        <v>0.01111160763467319</v>
+        <v>0.02015704351479894</v>
       </c>
       <c r="S55" t="n">
-        <v>0.002933635817141263</v>
+        <v>0.02284462381966159</v>
       </c>
       <c r="T55" t="n">
-        <v>0.03613670970699756</v>
+        <v>0.04610321580285744</v>
       </c>
       <c r="U55" t="n">
-        <v>0.05467837469169334</v>
+        <v>0.08309758615512224</v>
       </c>
       <c r="V55" t="n">
-        <v>0.002320171670354213</v>
+        <v>0.01112914371413636</v>
       </c>
       <c r="W55" t="n">
-        <v>0.05069473706606213</v>
+        <v>0.03209807144432349</v>
       </c>
       <c r="X55" t="n">
-        <v>0.0605492681936161</v>
+        <v>0.03364705949398806</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.0005696889631911497</v>
+        <v>0.03486046684857807</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.01899444734054168</v>
+        <v>0.01556024403519013</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.0401818473911057</v>
+        <v>0.01237571133583103</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.06663151933330204</v>
+        <v>0.04360911309883092</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.004935182274443291</v>
+        <v>0.0200317955421241</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.06704208899095616</v>
+        <v>0.07802302411992072</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.070539157042004</v>
+        <v>0.05757615095435602</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.0004715737215932699</v>
+        <v>0.001544436296659416</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.06848092879049154</v>
+        <v>0.07265445910678957</v>
       </c>
       <c r="AH55" t="n">
-        <v>-0.08838577873349403</v>
+        <v>-0.1037232182198249</v>
       </c>
     </row>
     <row r="56">
@@ -6560,94 +6560,94 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.234258713016457</v>
+        <v>0.2366169208734014</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0148598210196504</v>
+        <v>0.005804775511185201</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03169943315005447</v>
+        <v>0.05623447974115564</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0003820750460017105</v>
+        <v>0.04406211630723175</v>
       </c>
       <c r="I56" t="n">
-        <v>0.001942439796046206</v>
+        <v>0.005666596690670967</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0265349678239739</v>
+        <v>0.03589577916278196</v>
       </c>
       <c r="K56" t="n">
-        <v>0.005914974487162577</v>
+        <v>0.02332138641654659</v>
       </c>
       <c r="L56" t="n">
-        <v>0.04863049802205732</v>
+        <v>0.05310118624082364</v>
       </c>
       <c r="M56" t="n">
-        <v>0.08974666248879495</v>
+        <v>0.0104025166660357</v>
       </c>
       <c r="N56" t="n">
-        <v>0.01702783630671801</v>
+        <v>0.01538813168557303</v>
       </c>
       <c r="O56" t="n">
-        <v>0.02669654726103594</v>
+        <v>0.009801333367116295</v>
       </c>
       <c r="P56" t="n">
-        <v>0.05161344743836303</v>
+        <v>0.06209128039211743</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.002524249745290984</v>
+        <v>0.02185940046409261</v>
       </c>
       <c r="R56" t="n">
-        <v>0.02499823620920346</v>
+        <v>0.0569111915348279</v>
       </c>
       <c r="S56" t="n">
-        <v>0.06559714325140779</v>
+        <v>0.02562590133636403</v>
       </c>
       <c r="T56" t="n">
-        <v>0.03324768571407263</v>
+        <v>0.03795492317817442</v>
       </c>
       <c r="U56" t="n">
-        <v>0.05090880084062861</v>
+        <v>0.02096318125371747</v>
       </c>
       <c r="V56" t="n">
-        <v>0.04399808595761207</v>
+        <v>0.06362965761806061</v>
       </c>
       <c r="W56" t="n">
-        <v>0.07962238295707338</v>
+        <v>0.03781914979329192</v>
       </c>
       <c r="X56" t="n">
-        <v>0.02954107114559049</v>
+        <v>0.04712250071492816</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.07908447494184258</v>
+        <v>0.04614491043187091</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.03332556091367668</v>
+        <v>0.04720571565491846</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.01000957723856949</v>
+        <v>0.05784395154958466</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.04452784902829447</v>
+        <v>0.03697604155336147</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.03371429189393179</v>
+        <v>0.004507737815776418</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.05567817217105397</v>
+        <v>0.05104774314374125</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.08870915050138391</v>
+        <v>0.06005607417835828</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.008884185413914829</v>
+        <v>0.05982451720427013</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.0005803792365944476</v>
+        <v>0.00273782039342298</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.1029456875538215</v>
+        <v>0.1257906606580994</v>
       </c>
     </row>
     <row r="57">
@@ -6670,94 +6670,94 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.4288607327640328</v>
+        <v>0.5268458617588236</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07841757992235829</v>
+        <v>0.007446724867828492</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05133109267827245</v>
+        <v>0.02743730264557883</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02088025224337375</v>
+        <v>0.001275796847253866</v>
       </c>
       <c r="I57" t="n">
-        <v>0.01148124239451404</v>
+        <v>0.01627144649474921</v>
       </c>
       <c r="J57" t="n">
-        <v>0.01291212945047611</v>
+        <v>0.05377383722695477</v>
       </c>
       <c r="K57" t="n">
-        <v>0.001678391900465976</v>
+        <v>0.01590100484120361</v>
       </c>
       <c r="L57" t="n">
-        <v>0.03611790643250879</v>
+        <v>0.06999380358424277</v>
       </c>
       <c r="M57" t="n">
-        <v>0.007892291313952703</v>
+        <v>0.05863694054281843</v>
       </c>
       <c r="N57" t="n">
-        <v>0.001725249270644078</v>
+        <v>0.03429671775315811</v>
       </c>
       <c r="O57" t="n">
-        <v>0.007423772753453154</v>
+        <v>0.002249630375428719</v>
       </c>
       <c r="P57" t="n">
-        <v>0.01023425324356338</v>
+        <v>0.02216875080717442</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.03291864361355278</v>
+        <v>0.0538684984189365</v>
       </c>
       <c r="R57" t="n">
-        <v>0.03872189047612372</v>
+        <v>0.05931498801512856</v>
       </c>
       <c r="S57" t="n">
-        <v>0.07001789384029261</v>
+        <v>0.01957244289488514</v>
       </c>
       <c r="T57" t="n">
-        <v>0.006856850854130266</v>
+        <v>0.02510619415065937</v>
       </c>
       <c r="U57" t="n">
-        <v>0.04728431005552838</v>
+        <v>0.04731523091463007</v>
       </c>
       <c r="V57" t="n">
-        <v>0.06973577331244313</v>
+        <v>0.03083723919962437</v>
       </c>
       <c r="W57" t="n">
-        <v>0.06762149462064855</v>
+        <v>0.02262106736156275</v>
       </c>
       <c r="X57" t="n">
-        <v>0.03127080049266872</v>
+        <v>0.05870911702764266</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.0504923243230689</v>
+        <v>0.06041337450311946</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.01215277721293001</v>
+        <v>0.008853659630626015</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.02818007519665575</v>
+        <v>0.02324823917138848</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.02999134721776167</v>
+        <v>0.01575831570379424</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.03987840135212564</v>
+        <v>0.02046160752954015</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.0006476853457972197</v>
+        <v>0.04803614461875923</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.06994867989642699</v>
+        <v>0.04132647399895859</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.08512119704111869</v>
+        <v>0.05650584836183313</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.07906569354514428</v>
+        <v>0.09859960251252002</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.1304304484634034</v>
+        <v>0.1414749376738706</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.2565451842146835</v>
+        <v>0.3239817502988366</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004696031251116856</v>
+        <v>0.007392122034561115</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06621108819184793</v>
+        <v>0.02794168740440539</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00266612246176736</v>
+        <v>0.001253784196139679</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03156390452425896</v>
+        <v>0.05803477347769459</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04182597005944202</v>
+        <v>0.0603867507784117</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05775785664759455</v>
+        <v>0.0001709629465467885</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06684912908698715</v>
+        <v>0.01140116349633865</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002126193515298905</v>
+        <v>0.03933248883028288</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06613324458834006</v>
+        <v>0.00245508987832311</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001002735725890704</v>
+        <v>0.03061562472689098</v>
       </c>
       <c r="P2" t="n">
-        <v>0.001411549422746547</v>
+        <v>0.03174446517099985</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01228939699576906</v>
+        <v>0.06277751261930234</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08131823196815793</v>
+        <v>0.03046727560820632</v>
       </c>
       <c r="S2" t="n">
-        <v>0.003561499635477875</v>
+        <v>0.0008722601731093943</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03197159865957549</v>
+        <v>0.03816258086233792</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02252264284572358</v>
+        <v>0.03727201903321226</v>
       </c>
       <c r="V2" t="n">
-        <v>0.004250296567796371</v>
+        <v>0.03159393462317174</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04478133912424159</v>
+        <v>0.06102202911557298</v>
       </c>
       <c r="X2" t="n">
-        <v>0.08039899017083413</v>
+        <v>0.05935562746976306</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.05800541150057076</v>
+        <v>0.05301418069964652</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.004679287827512011</v>
+        <v>0.01561550196628851</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.05413892732239277</v>
+        <v>0.06039491001313521</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02645113665929102</v>
+        <v>0.01519839443333481</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.001730309176693934</v>
+        <v>0.008755805700561422</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.08036881048278748</v>
+        <v>0.0645754663911136</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.01436731815524315</v>
+        <v>0.05955422643714514</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.06384244716071721</v>
+        <v>0.06474454834275457</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.07307853027192469</v>
+        <v>0.06589481357074944</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.04599563196556224</v>
+        <v>0.07184799302165265</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4609163410490874</v>
+        <v>0.6281555369494947</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000501945578066098</v>
+        <v>0.02987445267104461</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03113294936652768</v>
+        <v>0.02014509597729485</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01015775163347843</v>
+        <v>0.001536300912218805</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05236033685004862</v>
+        <v>0.008884847803020852</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04705886269814452</v>
+        <v>0.09630721617693126</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04800610126692736</v>
+        <v>0.002691743849752984</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01745845727652244</v>
+        <v>0.09369065412406073</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002748515975503003</v>
+        <v>0.0182538471792045</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05518611830722975</v>
+        <v>0.07805925821428705</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05679216284688688</v>
+        <v>0.02438405990144312</v>
       </c>
       <c r="P3" t="n">
-        <v>0.05343084436001276</v>
+        <v>0.01595261357368367</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04959229289295471</v>
+        <v>0.09633452353633264</v>
       </c>
       <c r="R3" t="n">
-        <v>0.004266755028447799</v>
+        <v>0.00715495659696359</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05638027313313297</v>
+        <v>0.001455674356776078</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04338388208392946</v>
+        <v>0.02445012989583426</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0333637788616187</v>
+        <v>0.07438817050445214</v>
       </c>
       <c r="V3" t="n">
-        <v>0.05840717508703776</v>
+        <v>0.04144276561990604</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05720284656082392</v>
+        <v>0.04452707127373578</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03032083069500546</v>
+        <v>0.01025089434573895</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01707396171354076</v>
+        <v>0.08163577022775531</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.001730119390886172</v>
+        <v>0.001518222172975689</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.04648227912729853</v>
+        <v>0.0006728973209588477</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.04904835807465564</v>
+        <v>0.03044320391630951</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.01512523403208206</v>
+        <v>0.007506123979633878</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.05868577576100169</v>
+        <v>0.06621543698078824</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.01074687609476279</v>
+        <v>0.09042862512166028</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0524552911858939</v>
+        <v>0.02800226895470053</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.04090022411758001</v>
+        <v>0.003793174812535759</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05815752889129102</v>
+        <v>0.0818965189976623</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1584972246139423</v>
+        <v>0.1388305798259712</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04415237023102123</v>
+        <v>0.08001916408402196</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0207503578066017</v>
+        <v>0.02412038733714074</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002897828322181832</v>
+        <v>0.03304928398878371</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002387147656780034</v>
+        <v>0.003569583556739822</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06282687816823171</v>
+        <v>0.05749807195322785</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06829668949576084</v>
+        <v>0.009048880988607491</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07894992025888017</v>
+        <v>0.009197642503799248</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06015040319022995</v>
+        <v>0.05651864804662393</v>
       </c>
       <c r="N4" t="n">
-        <v>0.009206873089786915</v>
+        <v>0.0726755573627503</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00496629863960779</v>
+        <v>0.001374610939911726</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07320953356062014</v>
+        <v>0.03119277611516512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001567144016499277</v>
+        <v>0.005159750379641614</v>
       </c>
       <c r="R4" t="n">
-        <v>0.006437178520703605</v>
+        <v>0.001370722753884959</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05923563921978871</v>
+        <v>0.04323009102345849</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06990442088787828</v>
+        <v>0.07730986065033267</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04683222448016173</v>
+        <v>0.05967992876760959</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04758832781093071</v>
+        <v>0.01660599239171747</v>
       </c>
       <c r="W4" t="n">
-        <v>0.008620090431010741</v>
+        <v>0.01342753259299127</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06754673183080097</v>
+        <v>0.02288149922034972</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01406174505340026</v>
+        <v>0.005876274616692641</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04848853053892212</v>
+        <v>0.08097728624458664</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.03802807538607137</v>
+        <v>0.03032458002928678</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04581048286509305</v>
+        <v>0.08087656801030536</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01331031383720896</v>
+        <v>0.0147862588121817</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.01050549096579233</v>
+        <v>0.06144122542107597</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.03130249127021466</v>
+        <v>0.02407950074156816</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.02474069789572913</v>
+        <v>0.06713410468103938</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.03822611457009198</v>
+        <v>0.01657421678650567</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.04308162222390904</v>
+        <v>0.05183884358228131</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6945569066091458</v>
+        <v>0.1466557969359346</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03672474805387506</v>
+        <v>0.07991008650159279</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08199467868534617</v>
+        <v>0.04128110304897615</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06563662083257089</v>
+        <v>0.02008754419090403</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08723382713238076</v>
+        <v>0.004067297874141331</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03219412819988613</v>
+        <v>0.03534352729401681</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002343640687209518</v>
+        <v>0.01419991544393813</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03347529328026821</v>
+        <v>0.06135504870759958</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06644290552351419</v>
+        <v>0.02330525358799099</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002921054786756273</v>
+        <v>0.069971258275693</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03935901262728782</v>
+        <v>0.03674351238593798</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03594252034208943</v>
+        <v>0.009075972075022122</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0001113050810440725</v>
+        <v>0.0009148520817826682</v>
       </c>
       <c r="R5" t="n">
-        <v>0.05071706698507054</v>
+        <v>0.004536996048938403</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0004683246299256524</v>
+        <v>0.02236532936165345</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02848473790113098</v>
+        <v>0.04913722094837417</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05987632115862027</v>
+        <v>0.02195971638117108</v>
       </c>
       <c r="V5" t="n">
-        <v>0.05698675961111814</v>
+        <v>0.01447531654315061</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0586623242290378</v>
+        <v>0.01640600865290021</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01724911320214198</v>
+        <v>0.02117575138132309</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02862237603733977</v>
+        <v>0.0695685129280549</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.04900511187272208</v>
+        <v>0.0227388329607809</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.02571522393407259</v>
+        <v>0.06103867769924953</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.02918036124552582</v>
+        <v>0.07709208518366692</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.05515381126343668</v>
+        <v>0.08048550131376099</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.006963125293992137</v>
+        <v>0.009427701285051906</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01316869310479028</v>
+        <v>0.08208463857936243</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02113319029820599</v>
+        <v>0.008339262531800328</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0142337240006407</v>
+        <v>0.04291307673316544</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.002850564834563522</v>
+        <v>0.06478688950992945</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1506905437966685</v>
+        <v>0.1498406789106401</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02467134619355326</v>
+        <v>0.04110305495223408</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04825410019328098</v>
+        <v>0.06930079214698255</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02292392225379087</v>
+        <v>0.005000675206800777</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05294426543643749</v>
+        <v>0.04714488948162169</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07082193823318053</v>
+        <v>0.07448521744265253</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002833320828069406</v>
+        <v>0.0173155485310593</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02157669700709068</v>
+        <v>0.002373256620129369</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02167127088718079</v>
+        <v>0.02287216258902751</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05103458600100148</v>
+        <v>0.05001132492345159</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05049526369252787</v>
+        <v>0.02999897775196972</v>
       </c>
       <c r="P6" t="n">
-        <v>0.005369352447456867</v>
+        <v>0.05817920910671189</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.003434759485491084</v>
+        <v>0.006849967354623361</v>
       </c>
       <c r="R6" t="n">
-        <v>0.06911629929282102</v>
+        <v>0.07462710887312858</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04897896825619757</v>
+        <v>0.03535386165621388</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04882436963057245</v>
+        <v>0.03342412582568417</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05739070327917466</v>
+        <v>0.01185093831067566</v>
       </c>
       <c r="V6" t="n">
-        <v>0.003154295890165735</v>
+        <v>0.002243836727560652</v>
       </c>
       <c r="W6" t="n">
-        <v>0.009148274641186303</v>
+        <v>0.008102041983169361</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0003662378592831468</v>
+        <v>0.0582153756023235</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.009007653025853839</v>
+        <v>0.06785260662967814</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.03246528691321404</v>
+        <v>0.004694170430503657</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.02091043229497929</v>
+        <v>0.02170792597543658</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.03434574969417107</v>
+        <v>0.0733346634908677</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0606599063751109</v>
+        <v>0.02264876588881565</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0567692433198094</v>
+        <v>0.06230170383159755</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0575176135335365</v>
+        <v>0.01276845745869078</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.05088803015504351</v>
+        <v>0.05506560345456715</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.06442611317981931</v>
+        <v>0.03117373775382269</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.1225407985429096</v>
+        <v>-0.1312807537776846</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.2399474695298123</v>
+        <v>0.2224275932071667</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08926988457977526</v>
+        <v>0.06526402705729112</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008919564879703155</v>
+        <v>0.005695077067079652</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002521694606092968</v>
+        <v>0.009730319426711759</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006481033092050134</v>
+        <v>0.009121680818953228</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05097186049529945</v>
+        <v>0.04415910599956775</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07304372324493576</v>
+        <v>0.05636594673395431</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01981537614146502</v>
+        <v>0.01634671148827105</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05764358535936336</v>
+        <v>0.0384874508426351</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02886941807172816</v>
+        <v>0.04870005033804261</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05338539074089748</v>
+        <v>0.01697013890018388</v>
       </c>
       <c r="P7" t="n">
-        <v>0.002600167322017545</v>
+        <v>7.814065342875781e-05</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04004482908267722</v>
+        <v>0.02557259037145497</v>
       </c>
       <c r="R7" t="n">
-        <v>0.005018438069906112</v>
+        <v>0.06001139298166968</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0220035225993776</v>
+        <v>0.03057132110770105</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04944691058480354</v>
+        <v>0.0579278382834854</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03416618963240309</v>
+        <v>0.05806218909037051</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01106716719262987</v>
+        <v>0.009899230775117623</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02887738153774004</v>
+        <v>0.03062394866850818</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02967576569586283</v>
+        <v>0.05042746730026525</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03793432418596333</v>
+        <v>0.05022792842017313</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0210389085231288</v>
+        <v>0.05847532154276857</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.07102100053670926</v>
+        <v>0.06060798631702181</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.08376037708805258</v>
+        <v>0.05487359148041684</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0804337527694555</v>
+        <v>0.04319387003341395</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.004764843572593751</v>
+        <v>0.007377857912609764</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.001829186680349909</v>
+        <v>0.02656372198509392</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.03810822013244212</v>
+        <v>0.01202630881230736</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.04728748358257623</v>
+        <v>0.05263878559150281</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.0851732567400029</v>
+        <v>-0.08906417326379759</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1479565619472934</v>
+        <v>0.1584007472144404</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05551913871050263</v>
+        <v>0.07425462061933191</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02666990257275835</v>
+        <v>0.02527110358136263</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01880106430752826</v>
+        <v>0.009284007770166747</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04763141697206212</v>
+        <v>0.04603000342809564</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06293938628683003</v>
+        <v>0.07037693272984816</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002012124895972683</v>
+        <v>0.009270928201389375</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02807785408849802</v>
+        <v>0.03675282681744946</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001146600872495239</v>
+        <v>0.0002141184218563042</v>
       </c>
       <c r="N8" t="n">
-        <v>0.06303539667642237</v>
+        <v>0.03804452366023212</v>
       </c>
       <c r="O8" t="n">
-        <v>0.009003333991423172</v>
+        <v>0.007500410314686175</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03967964034322068</v>
+        <v>0.02485256592597438</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06228115693958913</v>
+        <v>0.0508054803627845</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03582894443688067</v>
+        <v>0.06030828533482727</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01729378473706105</v>
+        <v>0.00710319240593498</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0615598956582568</v>
+        <v>0.04599235844406339</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03735536941523746</v>
+        <v>0.06668321831643161</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06081248860357599</v>
+        <v>0.07448500960925095</v>
       </c>
       <c r="W8" t="n">
-        <v>0.007552313949065547</v>
+        <v>0.005732737304516807</v>
       </c>
       <c r="X8" t="n">
-        <v>0.05792982758862577</v>
+        <v>0.005803358251728991</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02330517189506453</v>
+        <v>0.0002933831103066721</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01121069195777062</v>
+        <v>0.04119515337647623</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.02342141971918201</v>
+        <v>0.02967381967429717</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.06454391090710777</v>
+        <v>0.08216204914896194</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.03437818283899896</v>
+        <v>0.0332664572275762</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.006191079268033535</v>
+        <v>0.0002917940787962863</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.05126121129821921</v>
+        <v>0.00249332800745795</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.04206105374852857</v>
+        <v>0.07078710646625171</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.04849763732108883</v>
+        <v>0.08107122740994444</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.2387438759557693</v>
+        <v>-0.2515529610723182</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3855201602853845</v>
+        <v>0.2287995058211514</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06795981216223448</v>
+        <v>0.07789076149972822</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01602549941127167</v>
+        <v>0.01638650738767462</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04907254871931014</v>
+        <v>0.009977924958523284</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06787410027443844</v>
+        <v>0.03667332383188877</v>
       </c>
       <c r="J9" t="n">
-        <v>0.008549094510952105</v>
+        <v>0.07652996231091448</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0683927797741145</v>
+        <v>0.02022420915557222</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01674816715529497</v>
+        <v>0.01473215678856549</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07821509266063659</v>
+        <v>0.01654748494359487</v>
       </c>
       <c r="N9" t="n">
-        <v>0.062087673157009</v>
+        <v>0.02622693701159676</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01270694145653328</v>
+        <v>0.00596583057295995</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01038621593367808</v>
+        <v>0.004927252928142748</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02882978064347042</v>
+        <v>0.06765919955885058</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02615365979959054</v>
+        <v>0.07257933808066667</v>
       </c>
       <c r="S9" t="n">
-        <v>0.005875396356479048</v>
+        <v>0.0273495946177765</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01624263582386202</v>
+        <v>0.05667163210791772</v>
       </c>
       <c r="U9" t="n">
-        <v>0.005538907234044183</v>
+        <v>0.05012456575732836</v>
       </c>
       <c r="V9" t="n">
-        <v>0.03722467879185829</v>
+        <v>0.06484776564379632</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03303162044221221</v>
+        <v>0.02392910385091267</v>
       </c>
       <c r="X9" t="n">
-        <v>0.006519757256983851</v>
+        <v>0.02970619552522912</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02121478322055689</v>
+        <v>0.06325599609748844</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.07011123595928649</v>
+        <v>0.04418905587532638</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.04682985691699442</v>
+        <v>0.04439964805947744</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.005966187039582301</v>
+        <v>0.002336607636672215</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.04343997995747974</v>
+        <v>0.03939676832774293</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.06931723237577474</v>
+        <v>0.04579350338282175</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.04756905062350479</v>
+        <v>0.001654201396704053</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.05096589941400421</v>
+        <v>0.006027453369231496</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.02715141292884254</v>
+        <v>0.05399701932289589</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.3046998927184322</v>
+        <v>-0.2745292457524855</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2648486476733483</v>
+        <v>0.2637885285890167</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05131989284673832</v>
+        <v>0.03938739286767041</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06323634066707137</v>
+        <v>0.03951834318699107</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02502876237483483</v>
+        <v>0.02387313011835803</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003039067877753149</v>
+        <v>0.05076505881849912</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05348656473418521</v>
+        <v>0.04877798730010877</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03554623286752556</v>
+        <v>0.03129115646350456</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03546080208730828</v>
+        <v>0.01342857387435752</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02552170598492796</v>
+        <v>0.05637160856175232</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0009325371097962554</v>
+        <v>0.01577449920869311</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004434872092701869</v>
+        <v>0.0109604550612306</v>
       </c>
       <c r="P10" t="n">
-        <v>0.05329190033987577</v>
+        <v>0.01936131037670601</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0005567484410378493</v>
+        <v>0.001098524457961157</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01198750377811845</v>
+        <v>0.04890912256500976</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04503144199178902</v>
+        <v>0.007596210456480937</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0475605572004453</v>
+        <v>0.06968653266273703</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01267404622354711</v>
+        <v>0.002523745398917315</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0611750818117763</v>
+        <v>0.05865534001901076</v>
       </c>
       <c r="W10" t="n">
-        <v>0.06396851865729289</v>
+        <v>0.0757148255409284</v>
       </c>
       <c r="X10" t="n">
-        <v>0.06263526103164932</v>
+        <v>0.03893867262984599</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03340640429044422</v>
+        <v>0.04586500275955189</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.01384768432355212</v>
+        <v>0.01792850456619025</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01333219484038634</v>
+        <v>0.01536518902216806</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.05544233028501747</v>
+        <v>0.04473624426221724</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.03728554791805689</v>
+        <v>0.0329510125235963</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.03385457861084901</v>
+        <v>0.02974176438484719</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.06015765547103056</v>
+        <v>0.05395881719203974</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0364661810552672</v>
+        <v>0.06837462038753549</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.05931958508702147</v>
+        <v>0.03844635533309086</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.01672526387665524</v>
+        <v>-0.01545721793290441</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.9254909368679338</v>
+        <v>1.072693315346676</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02501661355467738</v>
+        <v>0.04566829355582433</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1006661983276952</v>
+        <v>0.08876425529655008</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04766612701001451</v>
+        <v>0.003225324716458748</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02721974156549305</v>
+        <v>0.009867213353329882</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01243870029041694</v>
+        <v>0.02663212420519928</v>
       </c>
       <c r="K11" t="n">
-        <v>0.00991268001220303</v>
+        <v>0.02223868219059795</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003962224961995059</v>
+        <v>0.05588935224802057</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004935662300426221</v>
+        <v>0.06909584046101819</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03108067211470996</v>
+        <v>0.0087286348827499</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04022623040949459</v>
+        <v>0.002398152971448219</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01434174501960332</v>
+        <v>0.03492540375364323</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1028041192051503</v>
+        <v>0.09097329794562425</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1001439341726468</v>
+        <v>0.03184318459075207</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0004486631794980113</v>
+        <v>0.004613454343067602</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04469632198470835</v>
+        <v>0.01685216355464323</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02311590598426331</v>
+        <v>0.0673862717057207</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01155992455651753</v>
+        <v>0.0422227572755707</v>
       </c>
       <c r="W11" t="n">
-        <v>0.06318045408672358</v>
+        <v>0.06962175455527421</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02033415612126952</v>
+        <v>0.006819449291325364</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02815612939775256</v>
+        <v>0.01909277681950476</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.02647150337570502</v>
+        <v>0.04730913930455651</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.02525821785507016</v>
+        <v>0.009058611744216762</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.05930050640055484</v>
+        <v>0.03094685831435749</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.04225856331815862</v>
+        <v>0.03603918766603615</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.01061749750094017</v>
+        <v>0.002030800934441168</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.007012840802030777</v>
+        <v>0.04906936692560825</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.08395372342491157</v>
+        <v>0.07519811550211979</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0332209430673697</v>
+        <v>0.03348953189234078</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.01831867858298696</v>
+        <v>-0.00400625123721872</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.269376741330941</v>
+        <v>0.264219500809235</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05178307998546084</v>
+        <v>0.008178939280855111</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02016157816679872</v>
+        <v>0.06238696995124882</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000843861185732712</v>
+        <v>0.0112525265633002</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06352356474438119</v>
+        <v>0.02297181671910663</v>
       </c>
       <c r="J12" t="n">
-        <v>0.002889708252532519</v>
+        <v>0.001059986565200534</v>
       </c>
       <c r="K12" t="n">
-        <v>0.002719524232172274</v>
+        <v>0.007078310951389927</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01107234137609867</v>
+        <v>0.07405118905126953</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01815239676615981</v>
+        <v>0.001623536292179576</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01127199463276534</v>
+        <v>0.008660210483502361</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01679728968348475</v>
+        <v>4.58084210922276e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>0.08783013732973891</v>
+        <v>0.0006769619768146385</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02463521593457053</v>
+        <v>0.04856530911080484</v>
       </c>
       <c r="R12" t="n">
-        <v>0.05934325443570958</v>
+        <v>0.06950281144349756</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03534810355964243</v>
+        <v>0.01024719571618262</v>
       </c>
       <c r="T12" t="n">
-        <v>0.07816504908496393</v>
+        <v>0.081739311479003</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01514961448404188</v>
+        <v>0.0009623530015117846</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01283976383397043</v>
+        <v>0.08294161781089841</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0475280537291943</v>
+        <v>0.0240302026008394</v>
       </c>
       <c r="X12" t="n">
-        <v>0.05885689077534294</v>
+        <v>0.05994437523263461</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.01995970082154616</v>
+        <v>0.02418323860285327</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.03918364878386071</v>
+        <v>0.004668800747690353</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.007279197138377685</v>
+        <v>0.05299052282393099</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.05378633208735856</v>
+        <v>0.06168770056207414</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.03602140129071118</v>
+        <v>0.07189883310423431</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01148463699768609</v>
+        <v>0.03598360231471414</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.07024959111595577</v>
+        <v>0.07059546681000849</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.05270731466728455</v>
+        <v>0.02967019563975369</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.09041675490445764</v>
+        <v>0.07240220674340882</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1900226489853923</v>
+        <v>0.1845455353420903</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.3579025306954856</v>
+        <v>0.377881403270303</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01015503547167628</v>
+        <v>0.07199138963074962</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05941321060765465</v>
+        <v>0.05711498150563443</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06515411236755267</v>
+        <v>0.06994858638376648</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01566035084582396</v>
+        <v>0.01255144360290565</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0827738409610515</v>
+        <v>0.07862469944001794</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01427108399585041</v>
+        <v>0.06367029132133609</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07196381277896943</v>
+        <v>0.0529934004878068</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04260404397616985</v>
+        <v>0.06126743896110065</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001756804082642359</v>
+        <v>0.003220791477680637</v>
       </c>
       <c r="O13" t="n">
-        <v>0.07838026057994554</v>
+        <v>0.035113285412654</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02428733364895511</v>
+        <v>0.04528860043902053</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01816277951459749</v>
+        <v>0.04844411343492278</v>
       </c>
       <c r="R13" t="n">
-        <v>0.004041646423209679</v>
+        <v>0.0376246598852946</v>
       </c>
       <c r="S13" t="n">
-        <v>0.005690809622052009</v>
+        <v>0.0181445769886904</v>
       </c>
       <c r="T13" t="n">
-        <v>0.06705539143755904</v>
+        <v>0.01347641261073892</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03381131828294286</v>
+        <v>0.02655198108539284</v>
       </c>
       <c r="V13" t="n">
-        <v>0.01164678970244531</v>
+        <v>0.01168535630658637</v>
       </c>
       <c r="W13" t="n">
-        <v>0.01017710924398747</v>
+        <v>0.01953570789086203</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01361293087259885</v>
+        <v>0.001016531881380609</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.002186767701057087</v>
+        <v>0.004178422143342931</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.08177051606755324</v>
+        <v>0.001019446095183015</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.003350202540588085</v>
+        <v>0.06185188497120087</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.008109759338228021</v>
+        <v>0.03142644046180746</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.03557896283305356</v>
+        <v>0.02165379088908085</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.001424664435294922</v>
+        <v>0.02636541116665133</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.06051884448315633</v>
+        <v>0.04025173900899344</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.09197088208980858</v>
+        <v>0.01316343909395883</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.08447073609557584</v>
+        <v>0.07182517742323985</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.2325644630009688</v>
+        <v>0.2695610813176634</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.3027450551086622</v>
+        <v>0.2801126717331752</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0170323324268854</v>
+        <v>0.006859323258398526</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07000743966848358</v>
+        <v>0.03197599029036493</v>
       </c>
       <c r="H14" t="n">
-        <v>0.007409487688676735</v>
+        <v>0.004559556340292301</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01938185249505734</v>
+        <v>0.03407078900434172</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02424346604092604</v>
+        <v>0.02336784111520723</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01323125804766763</v>
+        <v>0.00558761223169912</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06547022996727929</v>
+        <v>0.024627779529906</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06681266902101261</v>
+        <v>0.04631862192682913</v>
       </c>
       <c r="N14" t="n">
-        <v>0.004270666935197282</v>
+        <v>0.01705037260908263</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04173254368638417</v>
+        <v>0.04576558104457494</v>
       </c>
       <c r="P14" t="n">
-        <v>0.06394494324872421</v>
+        <v>0.002291032776736195</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.06676798294824066</v>
+        <v>0.01369643516536935</v>
       </c>
       <c r="R14" t="n">
-        <v>0.05148646172073836</v>
+        <v>0.08355481620388865</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03878372034557592</v>
+        <v>0.01175400743161443</v>
       </c>
       <c r="T14" t="n">
-        <v>0.06673569289597493</v>
+        <v>0.08479402177888722</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02371155454931907</v>
+        <v>0.01475929145247932</v>
       </c>
       <c r="V14" t="n">
-        <v>0.04121851494301559</v>
+        <v>0.07274070099553266</v>
       </c>
       <c r="W14" t="n">
-        <v>0.01811121397401641</v>
+        <v>0.08138685384657347</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0006936544651356208</v>
+        <v>0.01409457299492892</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.07011508413761205</v>
+        <v>0.08687751107547827</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.003730594392763897</v>
+        <v>0.003261537567871091</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.02410865414907708</v>
+        <v>0.004308860855259797</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.002424858084814492</v>
+        <v>0.08416581446389851</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01515496453605386</v>
+        <v>0.01684421473132781</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.05052135708694667</v>
+        <v>0.03844030018363793</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.05074686871595974</v>
+        <v>0.08486363412124506</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.009055334096259722</v>
+        <v>0.01733916662198094</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.07309659973220159</v>
+        <v>0.04464376038259386</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.09057546250880998</v>
+        <v>-0.08489834050585172</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3488354172567865</v>
+        <v>0.3827775880286065</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08447198685967897</v>
+        <v>0.08686267272977292</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05369055480681063</v>
+        <v>0.01020012079269521</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06546266657255109</v>
+        <v>0.06615315725366304</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07236796926837778</v>
+        <v>0.0618974656791715</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0460100418792053</v>
+        <v>0.05719051196706619</v>
       </c>
       <c r="K15" t="n">
-        <v>0.006745115073114501</v>
+        <v>0.0473375100134386</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01778762679787388</v>
+        <v>0.02951714256595887</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08226716396449732</v>
+        <v>0.01112107961875534</v>
       </c>
       <c r="N15" t="n">
-        <v>0.009405420264135309</v>
+        <v>0.0034180890403279</v>
       </c>
       <c r="O15" t="n">
-        <v>0.04890979553292944</v>
+        <v>0.03751668211451678</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01565558766496629</v>
+        <v>0.0568421681098219</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01555618696013004</v>
+        <v>0.02759003029588783</v>
       </c>
       <c r="R15" t="n">
-        <v>0.04189321379179251</v>
+        <v>0.01168151509710004</v>
       </c>
       <c r="S15" t="n">
-        <v>0.009089372560221069</v>
+        <v>0.06302481840399611</v>
       </c>
       <c r="T15" t="n">
-        <v>0.02824348418992895</v>
+        <v>0.08469262408255915</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01782606575344295</v>
+        <v>0.0003085008992078298</v>
       </c>
       <c r="V15" t="n">
-        <v>0.07671762188249977</v>
+        <v>0.06907724598389949</v>
       </c>
       <c r="W15" t="n">
-        <v>0.03122533205014693</v>
+        <v>0.03152355574105585</v>
       </c>
       <c r="X15" t="n">
-        <v>0.001643106491138604</v>
+        <v>0.00533222053685865</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.05181916279702824</v>
+        <v>0.006916092407480678</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.05476060572713292</v>
+        <v>0.01313070311564139</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.02049752682603625</v>
+        <v>0.0570821575445106</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.02389902777520786</v>
+        <v>0.02884558407677471</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.009291261878531501</v>
+        <v>0.01276696895034288</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.006039338839357024</v>
+        <v>0.0003686700011891703</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.02735082361499116</v>
+        <v>0.009709291849712155</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.07427128942155348</v>
+        <v>0.07974829935259649</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.007102650756720234</v>
+        <v>0.03014512177599874</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.08512714613283107</v>
+        <v>-0.05135503015642673</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2899497490013456</v>
+        <v>0.2890050093716739</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0006839969541643914</v>
+        <v>0.006216649843714277</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07022093940093051</v>
+        <v>0.05633834449588013</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01280433282773624</v>
+        <v>0.005745487478014595</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0009764201089004755</v>
+        <v>0.04882285144870688</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02034119762843991</v>
+        <v>0.009520524420931225</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02251764501382553</v>
+        <v>0.002091505485183158</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002167543770155547</v>
+        <v>0.004090937890657395</v>
       </c>
       <c r="M16" t="n">
-        <v>0.006504790604225833</v>
+        <v>0.05937602994873503</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02752597024572176</v>
+        <v>0.04942290409012668</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01489191494741411</v>
+        <v>0.009043168434167867</v>
       </c>
       <c r="P16" t="n">
-        <v>0.06236253769868831</v>
+        <v>0.0005152506372828338</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.04976280777667188</v>
+        <v>0.05150569772573264</v>
       </c>
       <c r="R16" t="n">
-        <v>0.05988159584224879</v>
+        <v>0.004329775184840155</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01073118318219956</v>
+        <v>0.006644226370656573</v>
       </c>
       <c r="T16" t="n">
-        <v>0.07429897422234683</v>
+        <v>0.0773892880210572</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04273393889294901</v>
+        <v>0.01264999100034872</v>
       </c>
       <c r="V16" t="n">
-        <v>0.04272969480273147</v>
+        <v>0.06296894000327641</v>
       </c>
       <c r="W16" t="n">
-        <v>0.05728974632340527</v>
+        <v>0.01544047505929936</v>
       </c>
       <c r="X16" t="n">
-        <v>0.03504532811530944</v>
+        <v>0.05658207950942171</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.01453660402734426</v>
+        <v>0.07418770195948844</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.06589857004977231</v>
+        <v>0.04935627079519869</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.05204852096260137</v>
+        <v>0.03266236468377934</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.05857529525048197</v>
+        <v>0.0476247852866917</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.04183042828893687</v>
+        <v>0.03257273688658555</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0124393810846846</v>
+        <v>0.02769471095482388</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.05589444890278914</v>
+        <v>0.05982110086853916</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.05584642375523255</v>
+        <v>0.06932993254799134</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.02945976932009206</v>
+        <v>0.06805626896886904</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1887894375790652</v>
+        <v>0.176851498384611</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.373903089096874</v>
+        <v>0.3492806776442905</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09400593889322631</v>
+        <v>0.04282279139579771</v>
       </c>
       <c r="G17" t="n">
-        <v>0.005950372110044072</v>
+        <v>0.009260616955569394</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08927804669202637</v>
+        <v>0.08227382468212768</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01597582855713112</v>
+        <v>0.02359548691497255</v>
       </c>
       <c r="J17" t="n">
-        <v>0.001169794786856823</v>
+        <v>0.02503301696557378</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07108321110799273</v>
+        <v>0.05657972726075721</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05157797702729758</v>
+        <v>0.07731180007759617</v>
       </c>
       <c r="M17" t="n">
-        <v>0.008636841376795499</v>
+        <v>0.04480317950401508</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01927366830005617</v>
+        <v>0.0447589763825777</v>
       </c>
       <c r="O17" t="n">
-        <v>0.06863608706108448</v>
+        <v>0.02724162511003274</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0415770239812314</v>
+        <v>0.06153900292840278</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.06130891227306091</v>
+        <v>0.01492318698320955</v>
       </c>
       <c r="R17" t="n">
-        <v>0.05228843011949483</v>
+        <v>0.04340569783842525</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01468130701859155</v>
+        <v>0.02075936628776795</v>
       </c>
       <c r="T17" t="n">
-        <v>0.01506427170633206</v>
+        <v>0.007436269446521448</v>
       </c>
       <c r="U17" t="n">
-        <v>0.008426479971151118</v>
+        <v>0.01772236453070754</v>
       </c>
       <c r="V17" t="n">
-        <v>0.02555382326967506</v>
+        <v>0.006470324492361339</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02684117838078191</v>
+        <v>0.0005194657851027198</v>
       </c>
       <c r="X17" t="n">
-        <v>0.05248832340896845</v>
+        <v>0.08894913987574392</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.05524457041978532</v>
+        <v>0.04770318981835646</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.01168139452382927</v>
+        <v>0.06532208502252082</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.06786432684456639</v>
+        <v>0.0001269571035599501</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.03433054749452651</v>
+        <v>0.0645753831784058</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.02383494735917178</v>
+        <v>0.009884027189477557</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.009909193183997422</v>
+        <v>0.01042354605446419</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0432438471149912</v>
+        <v>0.04148589363798168</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.004331999884473321</v>
+        <v>0.0006396736199503775</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.02574165713286021</v>
+        <v>0.06443338095802079</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.187350766286823</v>
+        <v>0.163833925633583</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.3171152614711947</v>
+        <v>0.3138221483956372</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0007378422163156883</v>
+        <v>0.05050148610461874</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02020581120531515</v>
+        <v>0.0634726517663369</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0552970583341517</v>
+        <v>0.05382248087350985</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0592334982437613</v>
+        <v>0.06719900281961066</v>
       </c>
       <c r="J18" t="n">
-        <v>0.00748512343780394</v>
+        <v>0.005307250631272391</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0181040206444408</v>
+        <v>0.01216609948061224</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03256154081633536</v>
+        <v>0.04724114787373823</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01926329999183903</v>
+        <v>0.007937899732987674</v>
       </c>
       <c r="N18" t="n">
-        <v>0.007750476720550191</v>
+        <v>0.005542163304564791</v>
       </c>
       <c r="O18" t="n">
-        <v>0.04912519935588736</v>
+        <v>0.003565712930289724</v>
       </c>
       <c r="P18" t="n">
-        <v>0.07262841374562938</v>
+        <v>0.03849647520151507</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02659643365319308</v>
+        <v>0.01315803081999279</v>
       </c>
       <c r="R18" t="n">
-        <v>0.05067782304209889</v>
+        <v>0.02245467578627394</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0344630449442841</v>
+        <v>0.03378444813523827</v>
       </c>
       <c r="T18" t="n">
-        <v>0.04445167718208622</v>
+        <v>0.07148185927290289</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04442519268114914</v>
+        <v>0.06871322376454876</v>
       </c>
       <c r="V18" t="n">
-        <v>0.001329681634471677</v>
+        <v>0.005091199162952458</v>
       </c>
       <c r="W18" t="n">
-        <v>0.04985964294319267</v>
+        <v>0.004123378204399492</v>
       </c>
       <c r="X18" t="n">
-        <v>0.03063730032210871</v>
+        <v>0.01450033779002838</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.050707728167283</v>
+        <v>0.06759533813886558</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.05918088314614352</v>
+        <v>0.07985944660093433</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.05142084114598199</v>
+        <v>0.02511584728641498</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.07405779953180006</v>
+        <v>0.06979667749665823</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.04007258523015627</v>
+        <v>0.04297112082229735</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.02179743126029485</v>
+        <v>0.01056444475002092</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.001061323763145952</v>
+        <v>0.01791078507413211</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.02076396441107466</v>
+        <v>0.0688590020594269</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.05610436222950525</v>
+        <v>0.02876781411585653</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.03891736041782435</v>
+        <v>0.03278912056430336</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.3763469426642754</v>
+        <v>0.4351008386422493</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07420023689013884</v>
+        <v>0.06933449867260666</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06470021307971778</v>
+        <v>0.05427219475382939</v>
       </c>
       <c r="H19" t="n">
-        <v>0.005178244859158157</v>
+        <v>0.06953382235423385</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06589989427863588</v>
+        <v>0.04420898051532472</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02400950922262257</v>
+        <v>0.02220237358947136</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03563764774933444</v>
+        <v>0.01737011989340027</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02985711921009076</v>
+        <v>0.03266699050985148</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002335573290410917</v>
+        <v>0.01147095927835159</v>
       </c>
       <c r="N19" t="n">
-        <v>0.07812131569786915</v>
+        <v>0.06544175875936896</v>
       </c>
       <c r="O19" t="n">
-        <v>0.007750742557794182</v>
+        <v>0.04144914294273351</v>
       </c>
       <c r="P19" t="n">
-        <v>0.07645360644550676</v>
+        <v>0.05821034657182322</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.02237917910329861</v>
+        <v>0.0115010518208226</v>
       </c>
       <c r="R19" t="n">
-        <v>0.04439296255586296</v>
+        <v>0.06990503545363452</v>
       </c>
       <c r="S19" t="n">
-        <v>0.02733421283885844</v>
+        <v>0.06592722467340742</v>
       </c>
       <c r="T19" t="n">
-        <v>0.05137626332485676</v>
+        <v>0.01838811196379524</v>
       </c>
       <c r="U19" t="n">
-        <v>0.005539225685454934</v>
+        <v>0.01799369395501319</v>
       </c>
       <c r="V19" t="n">
-        <v>0.007239714830981041</v>
+        <v>0.01756164735666529</v>
       </c>
       <c r="W19" t="n">
-        <v>0.02891078195930296</v>
+        <v>0.04048098146801366</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0203734120499808</v>
+        <v>0.02053146282738318</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.02434038187985628</v>
+        <v>0.02034206899243738</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.03488087495206196</v>
+        <v>0.002124041009310336</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.07778594112726156</v>
+        <v>0.04819319481151188</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.05926242737368408</v>
+        <v>0.02969256711518299</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.03854184650530836</v>
+        <v>0.04474765704984145</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.02233371842673399</v>
+        <v>0.0435815349414212</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.01883441679850336</v>
+        <v>0.01104959761878743</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.01619444502690687</v>
+        <v>0.0006693524511138717</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.03613609227980779</v>
+        <v>0.05114958865066348</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.05301573480766496</v>
+        <v>0.06302243051862016</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1499203572888836</v>
+        <v>0.1582029424992621</v>
       </c>
       <c r="F20" t="n">
-        <v>0.002202682768537536</v>
+        <v>0.01973441442475852</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01566540146521093</v>
+        <v>9.778898559136227e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001494137884914754</v>
+        <v>0.006435429187250125</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06572159539758032</v>
+        <v>0.04900770728344011</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05033154405907961</v>
+        <v>0.002237255678795219</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02357894943414679</v>
+        <v>0.06205646718225873</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04947087653703908</v>
+        <v>0.05576169902783572</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01146846702506159</v>
+        <v>0.01314330868354372</v>
       </c>
       <c r="N20" t="n">
-        <v>0.04395459716014821</v>
+        <v>0.06416199299381528</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002317547171251478</v>
+        <v>0.03105773612893759</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01303137486033917</v>
+        <v>0.05346151205030431</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0284893906816818</v>
+        <v>0.04499536437287642</v>
       </c>
       <c r="R20" t="n">
-        <v>0.04918063996313735</v>
+        <v>0.02185739891843123</v>
       </c>
       <c r="S20" t="n">
-        <v>0.01849991232389163</v>
+        <v>0.01702487685933809</v>
       </c>
       <c r="T20" t="n">
-        <v>0.01893271617901393</v>
+        <v>0.06680673989802569</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03384032420131085</v>
+        <v>0.07152842303862825</v>
       </c>
       <c r="V20" t="n">
-        <v>0.06026819985783591</v>
+        <v>0.06477631960659259</v>
       </c>
       <c r="W20" t="n">
-        <v>0.00358241279232517</v>
+        <v>0.001105584288335571</v>
       </c>
       <c r="X20" t="n">
-        <v>0.07613469465706769</v>
+        <v>0.07454027661404869</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.0787201069104278</v>
+        <v>0.05160612996925403</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.04156041838760558</v>
+        <v>0.005829069210042913</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.03081413777410043</v>
+        <v>0.03871825779896763</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.07649624161101377</v>
+        <v>0.0686340923374303</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.02963264303283624</v>
+        <v>0.02473339726103808</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.007672352533931242</v>
+        <v>0.008696029202388466</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.04758370205173064</v>
+        <v>0.04233258493533544</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.06934726579732908</v>
+        <v>0.005312883325355978</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.05000766748145145</v>
+        <v>0.03434726073737994</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0.03112155857827627</v>
+        <v>-0.0426885724783021</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.2094435056688795</v>
+        <v>0.1935880613125733</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04969726391617734</v>
+        <v>0.0003550111907029339</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03296693790396398</v>
+        <v>0.01499660067374198</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07741028024098762</v>
+        <v>0.05421439687500026</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03024685885450857</v>
+        <v>0.06668280002708139</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05299344045014945</v>
+        <v>0.06076906468238592</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05306880404928493</v>
+        <v>0.08353937599014394</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01591807059709486</v>
+        <v>0.04420942876931344</v>
       </c>
       <c r="M21" t="n">
-        <v>0.05261334325589675</v>
+        <v>0.04070502720287927</v>
       </c>
       <c r="N21" t="n">
-        <v>0.05666853008863407</v>
+        <v>0.02054687321471549</v>
       </c>
       <c r="O21" t="n">
-        <v>0.007954445556137543</v>
+        <v>0.05092082904857734</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03368217815067606</v>
+        <v>0.03282190451935445</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.05858190135854252</v>
+        <v>0.008716690690034581</v>
       </c>
       <c r="R21" t="n">
-        <v>0.04209703880723472</v>
+        <v>0.02506724791786967</v>
       </c>
       <c r="S21" t="n">
-        <v>0.02455097983713524</v>
+        <v>0.02494018203380966</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01683810773443176</v>
+        <v>0.003824298970335861</v>
       </c>
       <c r="U21" t="n">
-        <v>0.001928956006892445</v>
+        <v>0.009559049669937633</v>
       </c>
       <c r="V21" t="n">
-        <v>0.03520344521504864</v>
+        <v>0.02471786352272413</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01492758108905795</v>
+        <v>0.004862251307220625</v>
       </c>
       <c r="X21" t="n">
-        <v>0.02960849217651365</v>
+        <v>0.04619037791253998</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.02105301654358707</v>
+        <v>0.004510283557754805</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.03448268110508</v>
+        <v>0.05295862089077822</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.03839435881756941</v>
+        <v>0.07219000377270063</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.05545903757855335</v>
+        <v>0.07876643980339056</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.008315612377042503</v>
+        <v>0.03521638215907783</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.07663861764302242</v>
+        <v>0.07375296179023763</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.006737020145188408</v>
+        <v>0.04327369763623346</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.009059830726909355</v>
+        <v>0.01651886280190196</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.06290316977467932</v>
+        <v>0.005173473369556277</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.02396442743188552</v>
+        <v>-0.06369714604798588</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1703109958370055</v>
+        <v>0.17040642337951</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02403089228454222</v>
+        <v>0.01120823489929989</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01641086705086234</v>
+        <v>0.005357569354143409</v>
       </c>
       <c r="H22" t="n">
-        <v>0.005706599911828748</v>
+        <v>0.01792448373335766</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04905296373926481</v>
+        <v>0.02281391810647959</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01748130624377935</v>
+        <v>0.04762813374201964</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02358311230075152</v>
+        <v>0.02212100956712731</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02134619166873</v>
+        <v>0.04996978045779472</v>
       </c>
       <c r="M22" t="n">
-        <v>0.05265131041589582</v>
+        <v>0.0836736812552671</v>
       </c>
       <c r="N22" t="n">
-        <v>0.03045091191141824</v>
+        <v>0.01955509864009796</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03163959130778039</v>
+        <v>0.05272951323510144</v>
       </c>
       <c r="P22" t="n">
-        <v>0.04991888716748288</v>
+        <v>0.01078454734210587</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0133850148354233</v>
+        <v>0.007118099876905535</v>
       </c>
       <c r="R22" t="n">
-        <v>0.07419799436056226</v>
+        <v>0.08140163664269315</v>
       </c>
       <c r="S22" t="n">
-        <v>0.04201106886996615</v>
+        <v>0.02018381632476031</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0311268492534285</v>
+        <v>0.07624090516817782</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03754562094130117</v>
+        <v>0.0001893514952931608</v>
       </c>
       <c r="V22" t="n">
-        <v>0.04669123752733132</v>
+        <v>0.0149246653253222</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0003171153287814099</v>
+        <v>0.001758120913246283</v>
       </c>
       <c r="X22" t="n">
-        <v>0.002750397570582843</v>
+        <v>0.02517895250209938</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.05933520702020845</v>
+        <v>0.06701041103973429</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.04584388753894199</v>
+        <v>0.04956204732362124</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.007560029394524554</v>
+        <v>0.006910361176695599</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0717496423906412</v>
+        <v>0.08478260672771312</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.02741533532523159</v>
+        <v>0.0356550843052747</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.0428184535825663</v>
+        <v>0.05254958603301543</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.07173760214562047</v>
+        <v>0.03511202293544369</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.02597715173044485</v>
+        <v>0.08379918722525941</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.07726475818210725</v>
+        <v>0.01385717465195004</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.07403760399341894</v>
+        <v>0.03077972273607421</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.4965375821007395</v>
+        <v>0.6896132682885256</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08320310877396249</v>
+        <v>0.07838183147505949</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05589106366463031</v>
+        <v>0.04198376662109413</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01550991060731344</v>
+        <v>0.06763440102529369</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001797829042690951</v>
+        <v>0.00174114482877458</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001916869178123376</v>
+        <v>0.02656293297820614</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00721537993927512</v>
+        <v>0.01492310256565731</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00237579274794798</v>
+        <v>0.005884004091002063</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04120918914465727</v>
+        <v>0.02431788797427645</v>
       </c>
       <c r="N23" t="n">
-        <v>0.008461994705752506</v>
+        <v>0.0002029772182187518</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0005319964178346672</v>
+        <v>0.005881529431165876</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0844075301113405</v>
+        <v>0.03144119266330351</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.02389251429990565</v>
+        <v>0.02559613075894435</v>
       </c>
       <c r="R23" t="n">
-        <v>0.07228265712991459</v>
+        <v>0.0740056692940191</v>
       </c>
       <c r="S23" t="n">
-        <v>0.02036316533793695</v>
+        <v>0.01084453369466879</v>
       </c>
       <c r="T23" t="n">
-        <v>0.03431051900945409</v>
+        <v>0.03243187867400925</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06620612246410547</v>
+        <v>0.01134121095075749</v>
       </c>
       <c r="V23" t="n">
-        <v>0.03686786130396932</v>
+        <v>0.04947716276232628</v>
       </c>
       <c r="W23" t="n">
-        <v>0.07039365230872491</v>
+        <v>0.08976276911834016</v>
       </c>
       <c r="X23" t="n">
-        <v>0.02720449884805928</v>
+        <v>0.02747328107412838</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.02127261543195858</v>
+        <v>0.01793153998936104</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.007273491616419121</v>
+        <v>0.07636490475003924</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.04172668640482752</v>
+        <v>0.04043646163868392</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.01358486098962827</v>
+        <v>0.01824455807854171</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.04688225829038273</v>
+        <v>0.04821977480605802</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.07574757619312213</v>
+        <v>0.03059036555411956</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.06586211293244905</v>
+        <v>0.08678465065422057</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.01915185008957456</v>
+        <v>0.0250368068515634</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.05445689301603923</v>
+        <v>0.03650353047816709</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.0903595973489226</v>
+        <v>0.08226817260689274</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1651486430385988</v>
+        <v>0.1664729784103777</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0363517777846769</v>
+        <v>0.04318503179243909</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06559773889926131</v>
+        <v>0.06514068561299778</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0610907037025078</v>
+        <v>0.00698910315165797</v>
       </c>
       <c r="I24" t="n">
-        <v>0.06973508434108876</v>
+        <v>0.03018362580501294</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03630445824557198</v>
+        <v>0.02417193997457701</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02124852996914551</v>
+        <v>0.01584960208253742</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02220914249582645</v>
+        <v>0.0005446517219974979</v>
       </c>
       <c r="M24" t="n">
-        <v>0.003622671853564634</v>
+        <v>0.04706121647132331</v>
       </c>
       <c r="N24" t="n">
-        <v>0.001194894530063693</v>
+        <v>0.04071130300625529</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03855599378370899</v>
+        <v>0.01398496036153347</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01084530874761696</v>
+        <v>0.003295454356891662</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01277035945791979</v>
+        <v>0.06845531702268598</v>
       </c>
       <c r="R24" t="n">
-        <v>0.07027643399835079</v>
+        <v>0.0603787613676787</v>
       </c>
       <c r="S24" t="n">
-        <v>0.06955540165226676</v>
+        <v>0.02885124093082846</v>
       </c>
       <c r="T24" t="n">
-        <v>0.05176470617009338</v>
+        <v>0.05410512381465197</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01090328488040512</v>
+        <v>0.04000159612204388</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0494587227888956</v>
+        <v>0.03504765539027869</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0548966645622452</v>
+        <v>0.02710018813328111</v>
       </c>
       <c r="X24" t="n">
-        <v>0.03986995793955136</v>
+        <v>0.06025347342305707</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0008710966417713202</v>
+        <v>0.0311452846021281</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01491194380545798</v>
+        <v>0.03155729368616916</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.04674834331406578</v>
+        <v>0.07989764934252649</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.04537210710835345</v>
+        <v>0.03803088724283276</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.04418848859131129</v>
+        <v>0.02430381741436864</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.04635384488617657</v>
+        <v>0.05481757240038641</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.003075530164795435</v>
+        <v>0.008532137617895562</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.06176741378366236</v>
+        <v>0.06275289756730956</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.01045939590164478</v>
+        <v>0.003651529584654025</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.03767523095279327</v>
+        <v>0.05113778858755832</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2407137659326261</v>
+        <v>0.2382190682081793</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02487746756112771</v>
+        <v>0.0647072771886162</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01058936558278589</v>
+        <v>0.01478591334846412</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0601240349996477</v>
+        <v>0.02844598980315022</v>
       </c>
       <c r="I25" t="n">
-        <v>0.007118757829035356</v>
+        <v>0.0482447863253023</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04807092341582764</v>
+        <v>0.01666470413322815</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03492488692182111</v>
+        <v>0.01408033910669674</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02777592133724895</v>
+        <v>0.002432198110180032</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0180894574486428</v>
+        <v>0.03336917718236569</v>
       </c>
       <c r="N25" t="n">
-        <v>0.009038322366885794</v>
+        <v>0.04359681188325511</v>
       </c>
       <c r="O25" t="n">
-        <v>0.06426640350406942</v>
+        <v>0.02865684072101184</v>
       </c>
       <c r="P25" t="n">
-        <v>0.001618420268058138</v>
+        <v>0.06146987960357998</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01564457364932536</v>
+        <v>0.03957177838329895</v>
       </c>
       <c r="R25" t="n">
-        <v>0.02941392020992699</v>
+        <v>0.08786268322250092</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01980625107456812</v>
+        <v>0.02335605517897467</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02404912384626742</v>
+        <v>0.04782863052312371</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06606718445216436</v>
+        <v>0.01186480336775766</v>
       </c>
       <c r="V25" t="n">
-        <v>0.06509500171277199</v>
+        <v>0.09350604231428712</v>
       </c>
       <c r="W25" t="n">
-        <v>0.07866884312919586</v>
+        <v>0.005942530836632572</v>
       </c>
       <c r="X25" t="n">
-        <v>0.005190698375816704</v>
+        <v>0.009504132850657238</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.07338050470256671</v>
+        <v>0.03584446029588591</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.009517868536932258</v>
+        <v>0.004896985597145644</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.04442922908671972</v>
+        <v>0.07779415272159533</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.04477199737879973</v>
+        <v>0.0118365164106087</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.02974227535562527</v>
+        <v>0.04825156429288724</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.0283529631914212</v>
+        <v>0.04693953616054296</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.007670136511853541</v>
+        <v>0.0740966377437231</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.07275450278217255</v>
+        <v>0.0101802738730672</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.0789509647687217</v>
+        <v>0.01426929882146067</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.05919356130235929</v>
+        <v>0.02726891083691808</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1898973155562653</v>
+        <v>0.1950978580898423</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06515919712719208</v>
+        <v>0.0654707444704996</v>
       </c>
       <c r="G26" t="n">
-        <v>0.003382108996321783</v>
+        <v>0.00531335486349262</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0005060472492112606</v>
+        <v>0.01366639303040367</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05477856197239159</v>
+        <v>0.05698510357944889</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03723215353054195</v>
+        <v>0.01001099373372698</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04495838741743751</v>
+        <v>0.005888830519792145</v>
       </c>
       <c r="L26" t="n">
-        <v>0.04026870857406311</v>
+        <v>0.007974608521844366</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02614602824647574</v>
+        <v>0.02927570665431697</v>
       </c>
       <c r="N26" t="n">
-        <v>0.00676054021807998</v>
+        <v>0.03400449521465283</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002274816817888032</v>
+        <v>0.0203655605471975</v>
       </c>
       <c r="P26" t="n">
-        <v>0.006493438467161206</v>
+        <v>0.006643540892950377</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02643621904575679</v>
+        <v>0.03692007538427485</v>
       </c>
       <c r="R26" t="n">
-        <v>0.03103886698597962</v>
+        <v>0.06230228112910687</v>
       </c>
       <c r="S26" t="n">
-        <v>0.04352877465660452</v>
+        <v>0.05358612898254749</v>
       </c>
       <c r="T26" t="n">
-        <v>0.04643185667050148</v>
+        <v>0.03158003343076687</v>
       </c>
       <c r="U26" t="n">
-        <v>0.006636917981619358</v>
+        <v>0.003135867389256614</v>
       </c>
       <c r="V26" t="n">
-        <v>0.05672887779351853</v>
+        <v>0.05134885460903563</v>
       </c>
       <c r="W26" t="n">
-        <v>0.06704185606561552</v>
+        <v>0.05683240376264963</v>
       </c>
       <c r="X26" t="n">
-        <v>0.03621624294409053</v>
+        <v>0.05957956010125961</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.02113125313105469</v>
+        <v>0.04616467323039865</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.06745946833121896</v>
+        <v>0.05696127410569485</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.04329076511770911</v>
+        <v>0.01630672827476061</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.05447355982381068</v>
+        <v>0.06101946548009289</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.05912041414633553</v>
+        <v>0.03316774530965233</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.04709052563043244</v>
+        <v>0.04633276047292877</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.01984425907615541</v>
+        <v>0.007431023803936162</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.03138619827599137</v>
+        <v>0.06716141586300564</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.05418395570684123</v>
+        <v>0.05457037664230657</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.09369504484397112</v>
+        <v>0.1072839914208516</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2415324666554693</v>
+        <v>0.2524954205915552</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07251782630709078</v>
+        <v>0.03721068438171966</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05065727900576913</v>
+        <v>0.006318713100525482</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08511843777585835</v>
+        <v>0.08831873738746705</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02757037002481136</v>
+        <v>0.06167562732487158</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01078176485920927</v>
+        <v>0.01431997831545962</v>
       </c>
       <c r="K27" t="n">
-        <v>0.08120227018995174</v>
+        <v>0.07291202979799739</v>
       </c>
       <c r="L27" t="n">
-        <v>0.08955625740894911</v>
+        <v>0.08543182367156026</v>
       </c>
       <c r="M27" t="n">
-        <v>0.004203135856908266</v>
+        <v>0.006311339708213951</v>
       </c>
       <c r="N27" t="n">
-        <v>0.05905942740098506</v>
+        <v>0.0178886931661646</v>
       </c>
       <c r="O27" t="n">
-        <v>0.05124597496538175</v>
+        <v>0.05072371579043676</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0173756629650435</v>
+        <v>0.004081500720702195</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02621753942652165</v>
+        <v>0.02544050186819682</v>
       </c>
       <c r="R27" t="n">
-        <v>0.009656360713379972</v>
+        <v>0.06205144410162448</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01519380076163361</v>
+        <v>0.008342479250710086</v>
       </c>
       <c r="T27" t="n">
-        <v>0.09200198501108593</v>
+        <v>0.01299612509944895</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01510085668193576</v>
+        <v>0.03126488821080078</v>
       </c>
       <c r="V27" t="n">
-        <v>0.07386698493137828</v>
+        <v>0.04781663417294155</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01231031321085552</v>
+        <v>0.005641319852599577</v>
       </c>
       <c r="X27" t="n">
-        <v>0.03151437468074809</v>
+        <v>0.06562502101701816</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0924074890831101</v>
+        <v>0.09187807691415038</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.03062441702601936</v>
+        <v>0.02465584619823047</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.004168060241437291</v>
+        <v>0.02400424556535966</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.009539048807732976</v>
+        <v>0.02353692075053435</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.01085516656366515</v>
+        <v>0.03324107331319248</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.01605424137242938</v>
+        <v>0.04237734878957682</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.005865133175557389</v>
+        <v>0.02366553285064554</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.002101349082933482</v>
+        <v>0.03120154186742008</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.003234472469617762</v>
+        <v>0.001068156812431317</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.1053630909197535</v>
+        <v>0.115199409882556</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.3754564283061402</v>
+        <v>0.3135695115945178</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04697734620300273</v>
+        <v>0.02364831829478424</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0731802021323165</v>
+        <v>0.07797229617697557</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02927806192514341</v>
+        <v>0.001995793431131253</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02963516370840212</v>
+        <v>0.03030457805804629</v>
       </c>
       <c r="J28" t="n">
-        <v>0.009680036424537261</v>
+        <v>0.03874623107525143</v>
       </c>
       <c r="K28" t="n">
-        <v>0.04772817035606824</v>
+        <v>0.0601033879793104</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01308525569041339</v>
+        <v>0.01186447656411207</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07205456363160521</v>
+        <v>0.004295692999604867</v>
       </c>
       <c r="N28" t="n">
-        <v>0.008523071307979089</v>
+        <v>0.009016060857297954</v>
       </c>
       <c r="O28" t="n">
-        <v>0.05529162897543642</v>
+        <v>0.05738526274697314</v>
       </c>
       <c r="P28" t="n">
-        <v>0.006534792193285605</v>
+        <v>0.01487617905999231</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02327681241340781</v>
+        <v>0.0456079827156004</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0619056182424032</v>
+        <v>0.03625440349683252</v>
       </c>
       <c r="S28" t="n">
-        <v>0.07347411180396352</v>
+        <v>0.01676152030158136</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01667070015470424</v>
+        <v>0.04764803684677315</v>
       </c>
       <c r="U28" t="n">
-        <v>0.007701628436465957</v>
+        <v>0.02084606277580632</v>
       </c>
       <c r="V28" t="n">
-        <v>0.008943897653422305</v>
+        <v>0.01657087574297481</v>
       </c>
       <c r="W28" t="n">
-        <v>0.02099361826405595</v>
+        <v>0.06105037030195496</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0655836290068008</v>
+        <v>0.03936639798658775</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.02034502818432047</v>
+        <v>0.06107281110642682</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.01234721920425894</v>
+        <v>0.01857262184738931</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.006120735582969356</v>
+        <v>0.02951824121378482</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.07139831935519307</v>
+        <v>0.05723305366158064</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.04348942221168542</v>
+        <v>0.05231388025656618</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.0006594756287853434</v>
+        <v>0.001551159106462825</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.03890576054576989</v>
+        <v>0.06840961369345357</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.06249242348709418</v>
+        <v>0.01806220455779403</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.07372330727650968</v>
+        <v>0.078952487144951</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.1285394614181637</v>
+        <v>0.114369886875572</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.5988492035746129</v>
+        <v>0.6094456581246488</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02691071098550177</v>
+        <v>0.05825926930853668</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03647436373584993</v>
+        <v>0.03792797998366713</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001508964589538942</v>
+        <v>0.003157819933187904</v>
       </c>
       <c r="I29" t="n">
-        <v>0.07997064096224381</v>
+        <v>0.008596972186599581</v>
       </c>
       <c r="J29" t="n">
-        <v>0.07597616497108534</v>
+        <v>0.01819536129990467</v>
       </c>
       <c r="K29" t="n">
-        <v>0.06522677767799312</v>
+        <v>0.01541945099562117</v>
       </c>
       <c r="L29" t="n">
-        <v>0.05028332503429663</v>
+        <v>0.07095817296934608</v>
       </c>
       <c r="M29" t="n">
-        <v>0.008139272871352674</v>
+        <v>0.06249950564091551</v>
       </c>
       <c r="N29" t="n">
-        <v>0.006756475837206378</v>
+        <v>0.009131098016968967</v>
       </c>
       <c r="O29" t="n">
-        <v>0.002546151978025506</v>
+        <v>0.05961329886897049</v>
       </c>
       <c r="P29" t="n">
-        <v>0.00875401804127245</v>
+        <v>0.03036769249665521</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.07742577107777403</v>
+        <v>0.02152185300845709</v>
       </c>
       <c r="R29" t="n">
-        <v>0.02606724438683553</v>
+        <v>0.07371593219224683</v>
       </c>
       <c r="S29" t="n">
-        <v>0.01910675793816166</v>
+        <v>0.07574491555393986</v>
       </c>
       <c r="T29" t="n">
-        <v>0.06319013042502995</v>
+        <v>0.0379851574236608</v>
       </c>
       <c r="U29" t="n">
-        <v>0.07866848460819631</v>
+        <v>0.07149768822933743</v>
       </c>
       <c r="V29" t="n">
-        <v>0.01948027526607249</v>
+        <v>0.01824783651830586</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03204477939247029</v>
+        <v>0.02308705533207984</v>
       </c>
       <c r="X29" t="n">
-        <v>0.005273741281099867</v>
+        <v>0.001003399244334708</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.01965731653409468</v>
+        <v>0.03556396042647561</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.03927902751683036</v>
+        <v>0.07476072472763495</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.0005901796566204329</v>
+        <v>0.01768840064741374</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.02662830973829282</v>
+        <v>0.06379113407266923</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.08242926705110376</v>
+        <v>0.03452312663931359</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.0005638244875539503</v>
+        <v>0.008533171365436847</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.05565249998271286</v>
+        <v>0.03006559100126565</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.02709758911485898</v>
+        <v>0.03050336320442609</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.06429793485792558</v>
+        <v>0.007640068712628568</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.1153349065302509</v>
+        <v>0.09093062256083853</v>
       </c>
     </row>
     <row r="30">
@@ -3700,94 +3700,94 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1474518537535911</v>
+        <v>0.1377576174156156</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01770638151884511</v>
+        <v>0.00950741386431804</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0379227775594436</v>
+        <v>0.01474899517344511</v>
       </c>
       <c r="H30" t="n">
-        <v>0.003726908576446152</v>
+        <v>0.004895520500502256</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01440127527552676</v>
+        <v>0.01810597684058373</v>
       </c>
       <c r="J30" t="n">
-        <v>0.05372698295574762</v>
+        <v>0.0614534356415353</v>
       </c>
       <c r="K30" t="n">
-        <v>0.05888989632170141</v>
+        <v>0.02039701437474957</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02133051913463426</v>
+        <v>0.03354985979396402</v>
       </c>
       <c r="M30" t="n">
-        <v>0.06092487120567495</v>
+        <v>0.05562992583016283</v>
       </c>
       <c r="N30" t="n">
-        <v>0.005986395597757477</v>
+        <v>0.01172232793623032</v>
       </c>
       <c r="O30" t="n">
-        <v>0.03108344383566483</v>
+        <v>0.01572979963164131</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0122161041302593</v>
+        <v>0.002926147810604749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.03890332474424713</v>
+        <v>0.07261400618391879</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0669418049193919</v>
+        <v>0.003524712308533071</v>
       </c>
       <c r="S30" t="n">
-        <v>0.06708082292193755</v>
+        <v>0.05795565558526546</v>
       </c>
       <c r="T30" t="n">
-        <v>0.05893366074595761</v>
+        <v>0.000121259151924015</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01348626984791942</v>
+        <v>0.0542783071657921</v>
       </c>
       <c r="V30" t="n">
-        <v>0.04078933068461909</v>
+        <v>0.06882803046482702</v>
       </c>
       <c r="W30" t="n">
-        <v>0.03069218752794299</v>
+        <v>0.07154747546642788</v>
       </c>
       <c r="X30" t="n">
-        <v>0.03692590951893161</v>
+        <v>0.00520833454319381</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.04366496107780757</v>
+        <v>0.06454257183008406</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.06185767626289537</v>
+        <v>0.01499540118968758</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.04295645474173228</v>
+        <v>0.07866279422965521</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.03165047062794816</v>
+        <v>0.04176825431546784</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.007271910515778875</v>
+        <v>0.0003266161599660412</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.02567462047272423</v>
+        <v>0.03815651207663104</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.01490264292817006</v>
+        <v>0.07449561014715904</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.04879692904925722</v>
+        <v>0.03629039667597436</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.05155546730103772</v>
+        <v>0.06801764510775543</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.07881122313039023</v>
+        <v>0.06448619159349454</v>
       </c>
     </row>
     <row r="31">
@@ -3810,94 +3810,94 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1811159253317994</v>
+        <v>0.1919066625204876</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0612545769186212</v>
+        <v>0.03616035215560845</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04572409243966521</v>
+        <v>0.05574654822287502</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00181581538026784</v>
+        <v>0.008649701972684921</v>
       </c>
       <c r="I31" t="n">
-        <v>0.03206668707904228</v>
+        <v>0.02741592018403438</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01407825720351431</v>
+        <v>0.02020995045397737</v>
       </c>
       <c r="K31" t="n">
-        <v>0.06358804350379542</v>
+        <v>0.06337890306826541</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0645686041248697</v>
+        <v>8.494692812951067e-06</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03918649069682435</v>
+        <v>0.04116157059457239</v>
       </c>
       <c r="N31" t="n">
-        <v>0.01460890753650739</v>
+        <v>0.003732046143488025</v>
       </c>
       <c r="O31" t="n">
-        <v>0.01287903017449274</v>
+        <v>0.04580882785243338</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0290817413995047</v>
+        <v>0.0120351458724194</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01617613894056498</v>
+        <v>0.06238996946346677</v>
       </c>
       <c r="R31" t="n">
-        <v>0.009951521933296971</v>
+        <v>0.06954772223750254</v>
       </c>
       <c r="S31" t="n">
-        <v>0.01754224848741047</v>
+        <v>0.03548649565690242</v>
       </c>
       <c r="T31" t="n">
-        <v>0.05544518723779421</v>
+        <v>0.07104502086526956</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04153974756749695</v>
+        <v>0.003069685207803488</v>
       </c>
       <c r="V31" t="n">
-        <v>0.03057287067986849</v>
+        <v>0.003050470314676221</v>
       </c>
       <c r="W31" t="n">
-        <v>0.06679265015786998</v>
+        <v>0.02735993420504326</v>
       </c>
       <c r="X31" t="n">
-        <v>0.06008237088122853</v>
+        <v>0.007467040821119993</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.04850503816261577</v>
+        <v>0.02303776729123653</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.04919377961120811</v>
+        <v>0.0648053229550646</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.05818341497899859</v>
+        <v>0.06413483531507702</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.02672517350685265</v>
+        <v>0.06281768126703223</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.007415236995937153</v>
+        <v>0.002249318183306149</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.06449415408719869</v>
+        <v>0.07344199358438107</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.009215346119579781</v>
+        <v>0.03544278862349849</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.05288428093434749</v>
+        <v>0.07847990575589814</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.006428593260626054</v>
+        <v>0.001866587039549721</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.08176148935002298</v>
+        <v>0.07607632420838142</v>
       </c>
     </row>
     <row r="32">
@@ -3920,94 +3920,94 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1552855260852727</v>
+        <v>0.179588955223749</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001382620147200708</v>
+        <v>0.008443762093669776</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02518722073056899</v>
+        <v>0.02974840983644598</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04009974410619475</v>
+        <v>0.07989246476046571</v>
       </c>
       <c r="I32" t="n">
-        <v>0.005933426843330289</v>
+        <v>0.05883042132957864</v>
       </c>
       <c r="J32" t="n">
-        <v>0.04962338074344563</v>
+        <v>0.03560276322689807</v>
       </c>
       <c r="K32" t="n">
-        <v>0.008115492717823898</v>
+        <v>0.03492578919805998</v>
       </c>
       <c r="L32" t="n">
-        <v>0.001464544931701435</v>
+        <v>0.07830455591556382</v>
       </c>
       <c r="M32" t="n">
-        <v>0.04349621182462436</v>
+        <v>0.04751673840964139</v>
       </c>
       <c r="N32" t="n">
-        <v>0.04898479918182644</v>
+        <v>0.05989410292853494</v>
       </c>
       <c r="O32" t="n">
-        <v>0.06641909979676339</v>
+        <v>0.03431497631025809</v>
       </c>
       <c r="P32" t="n">
-        <v>0.07625312140624001</v>
+        <v>0.05340433356136554</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.03598646632089066</v>
+        <v>0.00610550564804662</v>
       </c>
       <c r="R32" t="n">
-        <v>0.08151752209638394</v>
+        <v>0.03748559051113082</v>
       </c>
       <c r="S32" t="n">
-        <v>0.005189814486214696</v>
+        <v>0.007173726298849261</v>
       </c>
       <c r="T32" t="n">
-        <v>0.001764561833085002</v>
+        <v>0.0005137499056434321</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04944215120922568</v>
+        <v>0.02146597426953887</v>
       </c>
       <c r="V32" t="n">
-        <v>0.07571281934523728</v>
+        <v>0.004476864250614387</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0318809325883825</v>
+        <v>0.03088557598521536</v>
       </c>
       <c r="X32" t="n">
-        <v>0.006260072303998083</v>
+        <v>0.01033362897885893</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.02032970857446323</v>
+        <v>0.0116083714936377</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.026979368106781</v>
+        <v>0.02066192930773782</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.0253722846392501</v>
+        <v>0.06963273496089502</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.06115124426435666</v>
+        <v>0.08025344348498578</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.003597444982429453</v>
+        <v>0.02806585965598796</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.06146395023945941</v>
+        <v>0.03605826340753921</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.07328490047512461</v>
+        <v>0.02193761089554909</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.04741972518963377</v>
+        <v>0.0235011316291212</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.02568737091536417</v>
+        <v>0.06896172174616659</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.04765114863968132</v>
+        <v>0.07029095984367578</v>
       </c>
     </row>
     <row r="33">
@@ -4030,94 +4030,94 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.5578495863367037</v>
+        <v>0.179588955223749</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06890023594048769</v>
+        <v>0.008443762093669776</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04681014334325116</v>
+        <v>0.02974840983644598</v>
       </c>
       <c r="H33" t="n">
-        <v>0.006520104970803028</v>
+        <v>0.07989246476046571</v>
       </c>
       <c r="I33" t="n">
-        <v>0.06811831138446309</v>
+        <v>0.05883042132957864</v>
       </c>
       <c r="J33" t="n">
-        <v>0.07066022825507888</v>
+        <v>0.03560276322689807</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01993115227947519</v>
+        <v>0.03492578919805998</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03524343917360098</v>
+        <v>0.07830455591556382</v>
       </c>
       <c r="M33" t="n">
-        <v>0.04151966215806846</v>
+        <v>0.04751673840964139</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0279858162867664</v>
+        <v>0.05989410292853494</v>
       </c>
       <c r="O33" t="n">
-        <v>0.06296964953326843</v>
+        <v>0.03431497631025809</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0009243179380478666</v>
+        <v>0.05340433356136554</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.04497489479975253</v>
+        <v>0.00610550564804662</v>
       </c>
       <c r="R33" t="n">
-        <v>0.007362909439863117</v>
+        <v>0.03748559051113082</v>
       </c>
       <c r="S33" t="n">
-        <v>0.001650761321398623</v>
+        <v>0.007173726298849261</v>
       </c>
       <c r="T33" t="n">
-        <v>0.01602289474725144</v>
+        <v>0.0005137499056434321</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0291503124819104</v>
+        <v>0.02146597426953887</v>
       </c>
       <c r="V33" t="n">
-        <v>0.06476227899330597</v>
+        <v>0.004476864250614387</v>
       </c>
       <c r="W33" t="n">
-        <v>0.02189166046888644</v>
+        <v>0.03088557598521536</v>
       </c>
       <c r="X33" t="n">
-        <v>0.02743661650191268</v>
+        <v>0.01033362897885893</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.04821660429914485</v>
+        <v>0.0116083714936377</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0646695501720732</v>
+        <v>0.02066192930773782</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.0141737923334147</v>
+        <v>0.06963273496089502</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.02770958538578564</v>
+        <v>0.08025344348498578</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.05048811348387792</v>
+        <v>0.02806585965598796</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.03541021049879572</v>
+        <v>0.03605826340753921</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.02031283486393339</v>
+        <v>0.02193761089554909</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.07158631410714025</v>
+        <v>0.0235011316291212</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.004597604838241919</v>
+        <v>0.06896172174616659</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.05472601292925366</v>
+        <v>0.07029095984367578</v>
       </c>
     </row>
     <row r="34">
@@ -4140,94 +4140,94 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1579363993791998</v>
+        <v>0.1541166332696658</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02243197068674287</v>
+        <v>0.005883870813178767</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01739624916269772</v>
+        <v>0.009322994609543573</v>
       </c>
       <c r="H34" t="n">
-        <v>0.06800615771541355</v>
+        <v>0.05293046053390395</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04737370494841409</v>
+        <v>0.03179526724716155</v>
       </c>
       <c r="J34" t="n">
-        <v>0.04111922367622142</v>
+        <v>0.05327239853541797</v>
       </c>
       <c r="K34" t="n">
-        <v>0.05358934544942908</v>
+        <v>0.01041669467556813</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01464514569628947</v>
+        <v>0.06295640199047231</v>
       </c>
       <c r="M34" t="n">
-        <v>0.06055526596475853</v>
+        <v>0.05878190832703054</v>
       </c>
       <c r="N34" t="n">
-        <v>0.03463483152447946</v>
+        <v>0.04507146628866388</v>
       </c>
       <c r="O34" t="n">
-        <v>0.07071425603421348</v>
+        <v>0.05639444255789678</v>
       </c>
       <c r="P34" t="n">
-        <v>0.04315497462672504</v>
+        <v>0.06231485075878124</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.004104202312100905</v>
+        <v>0.06333223103025758</v>
       </c>
       <c r="R34" t="n">
-        <v>0.03621132438559782</v>
+        <v>0.05433709263660167</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0416832180714803</v>
+        <v>0.06191873385271617</v>
       </c>
       <c r="T34" t="n">
-        <v>0.01880950426842885</v>
+        <v>0.03919728599735642</v>
       </c>
       <c r="U34" t="n">
-        <v>0.006917198224469683</v>
+        <v>0.001349251221792989</v>
       </c>
       <c r="V34" t="n">
-        <v>0.04833515196328713</v>
+        <v>0.05964899778086702</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02198822248329855</v>
+        <v>0.03499131302721892</v>
       </c>
       <c r="X34" t="n">
-        <v>0.06140339799489301</v>
+        <v>0.0647671613912576</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.03427400329163466</v>
+        <v>0.0149215327261444</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0535067275919371</v>
+        <v>0.06412569439640546</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.008409644564238756</v>
+        <v>0.004145948141227629</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.009797812409783013</v>
+        <v>0.00343390320649116</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.0731632063585196</v>
+        <v>0.03558760178209155</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.001312755107181731</v>
+        <v>0.0009359979101780273</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.0306744569314214</v>
+        <v>0.01360442523365301</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.05601055954739373</v>
+        <v>0.02056160516640043</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.01977748900894911</v>
+        <v>0.01400046816172128</v>
       </c>
       <c r="AH34" t="n">
-        <v>-0.009968748171535105</v>
+        <v>-0.02284102466981125</v>
       </c>
     </row>
     <row r="35">
@@ -4250,94 +4250,94 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2291503594609036</v>
+        <v>0.2055179389314179</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04158008536107989</v>
+        <v>0.05290123155444162</v>
       </c>
       <c r="G35" t="n">
-        <v>0.001853790172745105</v>
+        <v>0.007094981453795344</v>
       </c>
       <c r="H35" t="n">
-        <v>0.03999770321450767</v>
+        <v>0.0171581704172697</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01019560221293521</v>
+        <v>0.05264091500088951</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01134961018422936</v>
+        <v>0.02509523699299309</v>
       </c>
       <c r="K35" t="n">
-        <v>0.04688792862555925</v>
+        <v>0.06865124401293954</v>
       </c>
       <c r="L35" t="n">
-        <v>0.07865530156739443</v>
+        <v>0.06379084454716272</v>
       </c>
       <c r="M35" t="n">
-        <v>0.04050876597013288</v>
+        <v>0.01956286237489646</v>
       </c>
       <c r="N35" t="n">
-        <v>0.06603949991365932</v>
+        <v>0.06923601608260706</v>
       </c>
       <c r="O35" t="n">
-        <v>0.061106553882677</v>
+        <v>0.06061779122433818</v>
       </c>
       <c r="P35" t="n">
-        <v>0.05548564192625089</v>
+        <v>0.02409802949306855</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.002624119003242334</v>
+        <v>0.03613050543045094</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0420067412846027</v>
+        <v>0.04215197903277877</v>
       </c>
       <c r="S35" t="n">
-        <v>0.0470718315509352</v>
+        <v>0.07127804837412501</v>
       </c>
       <c r="T35" t="n">
-        <v>0.006827016675422863</v>
+        <v>0.03239211090524852</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0557099389904685</v>
+        <v>0.06027807527217673</v>
       </c>
       <c r="V35" t="n">
-        <v>0.06920236320710887</v>
+        <v>0.01194490912601345</v>
       </c>
       <c r="W35" t="n">
-        <v>0.02426851074622019</v>
+        <v>0.01205867903821891</v>
       </c>
       <c r="X35" t="n">
-        <v>0.009667407725886404</v>
+        <v>0.03933555264146133</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.04087801329070421</v>
+        <v>0.009425849391596221</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.07882000242289437</v>
+        <v>0.06379307525082051</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.01053435983053973</v>
+        <v>0.01475144602621932</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.00927661208126395</v>
+        <v>0.000403924770029151</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.005678554240181492</v>
+        <v>0.02073050691661892</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.01543399522635659</v>
+        <v>0.01039131812755239</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.04771958033881008</v>
+        <v>0.02268037232831855</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.07721321599719727</v>
+        <v>0.06250292323001473</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.003407254356994314</v>
+        <v>0.02890340098395442</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.02283512539432225</v>
+        <v>0.02676306483537934</v>
       </c>
     </row>
     <row r="36">
@@ -4360,94 +4360,94 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1116895144051805</v>
+        <v>0.11328762765558</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08221796195196651</v>
+        <v>0.05888978800303287</v>
       </c>
       <c r="G36" t="n">
-        <v>0.002330767950700835</v>
+        <v>0.04660468333756104</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01645312887888708</v>
+        <v>0.02137179657189925</v>
       </c>
       <c r="I36" t="n">
-        <v>0.06623824371203194</v>
+        <v>0.05655710378975539</v>
       </c>
       <c r="J36" t="n">
-        <v>0.05959733646598848</v>
+        <v>0.05377773214044376</v>
       </c>
       <c r="K36" t="n">
-        <v>0.03876439506114541</v>
+        <v>0.02287703578790463</v>
       </c>
       <c r="L36" t="n">
-        <v>0.07340784182861193</v>
+        <v>0.02533854406344656</v>
       </c>
       <c r="M36" t="n">
-        <v>0.01377309862726073</v>
+        <v>0.06441312952096774</v>
       </c>
       <c r="N36" t="n">
-        <v>0.005055661272911729</v>
+        <v>0.008916816497827985</v>
       </c>
       <c r="O36" t="n">
-        <v>0.04583669486256032</v>
+        <v>0.04933832140063436</v>
       </c>
       <c r="P36" t="n">
-        <v>0.02460495880683037</v>
+        <v>0.01119422888631437</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.03862718326008124</v>
+        <v>0.02759667304235397</v>
       </c>
       <c r="R36" t="n">
-        <v>0.01733212185445638</v>
+        <v>0.05767810361303142</v>
       </c>
       <c r="S36" t="n">
-        <v>0.06544370120601954</v>
+        <v>0.005356514890748061</v>
       </c>
       <c r="T36" t="n">
-        <v>0.01426318695823361</v>
+        <v>0.06289571240387505</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0024389647978441</v>
+        <v>0.002415649118280122</v>
       </c>
       <c r="V36" t="n">
-        <v>0.002849389328681817</v>
+        <v>0.02007318477301647</v>
       </c>
       <c r="W36" t="n">
-        <v>0.07664719813025654</v>
+        <v>0.02826508069787762</v>
       </c>
       <c r="X36" t="n">
-        <v>0.04915180318428154</v>
+        <v>0.04541420703826791</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.02765251492258643</v>
+        <v>0.04424151475596159</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.004173751127383709</v>
+        <v>0.06037713903528873</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.00212233105714867</v>
+        <v>0.003863784446524937</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.0150545638160808</v>
+        <v>0.03682914407752547</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.03949498251037646</v>
+        <v>0.03739383820578206</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.0327521988477831</v>
+        <v>0.02077688944048676</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.07426230774527712</v>
+        <v>0.05468036518253983</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.0371560113168591</v>
+        <v>0.04549515261030911</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.0722977005177546</v>
+        <v>0.02736786666834285</v>
       </c>
       <c r="AH36" t="n">
-        <v>-0.01821855986303961</v>
+        <v>-0.02214539991515913</v>
       </c>
     </row>
     <row r="37">
@@ -4470,94 +4470,94 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2388203837070189</v>
+        <v>0.1699892054585617</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0197748973903305</v>
+        <v>0.06034999623446356</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08199545522510862</v>
+        <v>0.05763653983686492</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02024992516479466</v>
+        <v>0.02080766947877861</v>
       </c>
       <c r="I37" t="n">
-        <v>0.005193671992980785</v>
+        <v>0.004617813675088938</v>
       </c>
       <c r="J37" t="n">
-        <v>0.03676368053085078</v>
+        <v>0.006778826142630677</v>
       </c>
       <c r="K37" t="n">
-        <v>0.008983682394632283</v>
+        <v>0.02245296904414748</v>
       </c>
       <c r="L37" t="n">
-        <v>0.04953600570603336</v>
+        <v>0.0719414808962219</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0112723153567217</v>
+        <v>0.07431530866140601</v>
       </c>
       <c r="N37" t="n">
-        <v>0.05008621782680816</v>
+        <v>0.03457623225723234</v>
       </c>
       <c r="O37" t="n">
-        <v>0.02633066117671636</v>
+        <v>0.02387672617019321</v>
       </c>
       <c r="P37" t="n">
-        <v>0.04131280092886984</v>
+        <v>0.002498354887853902</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.08111885522780121</v>
+        <v>0.05607566479014269</v>
       </c>
       <c r="R37" t="n">
-        <v>0.03544263626513035</v>
+        <v>0.01407788440241278</v>
       </c>
       <c r="S37" t="n">
-        <v>0.04792033345806656</v>
+        <v>0.05063563078239006</v>
       </c>
       <c r="T37" t="n">
-        <v>0.008660906291526282</v>
+        <v>0.06433571954194867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.00508453556654379</v>
+        <v>0.005650175760669395</v>
       </c>
       <c r="V37" t="n">
-        <v>0.01992188912466681</v>
+        <v>0.008658398318464102</v>
       </c>
       <c r="W37" t="n">
-        <v>0.05371744854518164</v>
+        <v>0.05803933944989121</v>
       </c>
       <c r="X37" t="n">
-        <v>0.05024274406686408</v>
+        <v>0.02968215436864927</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.02281845834561981</v>
+        <v>0.05893555370496156</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.07292081357150441</v>
+        <v>0.01401689046308524</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.03058873447255503</v>
+        <v>0.01312320842371144</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.01991390312711582</v>
+        <v>0.05536127638452349</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.0005767512408665613</v>
+        <v>0.009694865648738159</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.08014677531670067</v>
+        <v>0.05858041802886588</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.02068932154744357</v>
+        <v>0.06026342685432298</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.07776199935494706</v>
+        <v>0.04795095528191405</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.0209745807836194</v>
+        <v>0.01506652051042745</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.01050770562199627</v>
+        <v>-0.008379120890288513</v>
       </c>
     </row>
     <row r="38">
@@ -4580,94 +4580,94 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1412708367211573</v>
+        <v>0.1355024708970137</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01470610640077467</v>
+        <v>0.001402744424844381</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04721680597715706</v>
+        <v>0.01949352451392913</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07236133715068936</v>
+        <v>0.009089711208241995</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01419434180317442</v>
+        <v>0.005013107410779797</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01851419643251061</v>
+        <v>0.05948865935817397</v>
       </c>
       <c r="K38" t="n">
-        <v>0.05320258766403823</v>
+        <v>0.009420508168534007</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0425003979597299</v>
+        <v>0.08181499651604836</v>
       </c>
       <c r="M38" t="n">
-        <v>0.05530845802002519</v>
+        <v>0.006184226550412672</v>
       </c>
       <c r="N38" t="n">
-        <v>0.06952715813574663</v>
+        <v>0.07640603767360629</v>
       </c>
       <c r="O38" t="n">
-        <v>0.04955586844571697</v>
+        <v>0.02385739824306012</v>
       </c>
       <c r="P38" t="n">
-        <v>0.001637859818581905</v>
+        <v>0.001983135383599606</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.04359713234170774</v>
+        <v>0.04704162267397331</v>
       </c>
       <c r="R38" t="n">
-        <v>0.04758514867985843</v>
+        <v>0.004237688395451643</v>
       </c>
       <c r="S38" t="n">
-        <v>0.009406172260011371</v>
+        <v>0.05832527821804791</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01827190863819932</v>
+        <v>0.03259088417868049</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04004185890854189</v>
+        <v>0.09268570291681863</v>
       </c>
       <c r="V38" t="n">
-        <v>0.01639797166708334</v>
+        <v>0.05684472395501212</v>
       </c>
       <c r="W38" t="n">
-        <v>0.00171849808539706</v>
+        <v>0.002904572148686855</v>
       </c>
       <c r="X38" t="n">
-        <v>0.033459430671305</v>
+        <v>0.0336568759057577</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.06236133151730941</v>
+        <v>0.08032641436357074</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.04229400446066696</v>
+        <v>0.04619653055991185</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.03178813512914754</v>
+        <v>0.01147275344986052</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.06271616283201946</v>
+        <v>0.04185310038448323</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.01695752438510309</v>
+        <v>0.02621690794831235</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.0219183184133068</v>
+        <v>0.01413959593019159</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.02657347015894651</v>
+        <v>0.05051380422286132</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.0115954558563343</v>
+        <v>0.02960457533911262</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.07459235818691684</v>
+        <v>0.07723491995803704</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.04106811338735054</v>
+        <v>0.05693474830267203</v>
       </c>
     </row>
     <row r="39">
@@ -4690,94 +4690,94 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.240168133984942</v>
+        <v>0.4503551773031801</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04396144992004887</v>
+        <v>0.009495768269218134</v>
       </c>
       <c r="G39" t="n">
-        <v>0.003746280203118367</v>
+        <v>0.001410336832725834</v>
       </c>
       <c r="H39" t="n">
-        <v>0.009716641472014738</v>
+        <v>0.02167105546625278</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01108175498815457</v>
+        <v>0.01396299656692087</v>
       </c>
       <c r="J39" t="n">
-        <v>0.000245535202024787</v>
+        <v>0.007575375926268542</v>
       </c>
       <c r="K39" t="n">
-        <v>0.05789989189530693</v>
+        <v>0.05690445030941398</v>
       </c>
       <c r="L39" t="n">
-        <v>0.07666530997117869</v>
+        <v>0.04547194945686781</v>
       </c>
       <c r="M39" t="n">
-        <v>0.06321846638082068</v>
+        <v>0.0003798518514542117</v>
       </c>
       <c r="N39" t="n">
-        <v>0.02190482268044846</v>
+        <v>0.01727397714617723</v>
       </c>
       <c r="O39" t="n">
-        <v>4.298370241808946e-07</v>
+        <v>0.04378038132769049</v>
       </c>
       <c r="P39" t="n">
-        <v>0.05964949191765249</v>
+        <v>0.08165719429859838</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.06595311569030936</v>
+        <v>0.03438857006246396</v>
       </c>
       <c r="R39" t="n">
-        <v>0.06133356852772711</v>
+        <v>0.04369065106488848</v>
       </c>
       <c r="S39" t="n">
-        <v>0.01182277455586278</v>
+        <v>0.03445700628968182</v>
       </c>
       <c r="T39" t="n">
-        <v>0.04208449515033895</v>
+        <v>0.06909010480781054</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0499185307710644</v>
+        <v>0.009969974392755951</v>
       </c>
       <c r="V39" t="n">
-        <v>0.06103623556432107</v>
+        <v>0.01971278980605665</v>
       </c>
       <c r="W39" t="n">
-        <v>0.07477342582995546</v>
+        <v>0.05426595503942561</v>
       </c>
       <c r="X39" t="n">
-        <v>0.02443554265994668</v>
+        <v>0.06929314388070079</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0009904435074253961</v>
+        <v>0.02829372474400845</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.06288827948585271</v>
+        <v>0.0604965456238889</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.06167869801008297</v>
+        <v>0.0352524265353765</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.004118196239397662</v>
+        <v>0.01522224662959027</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.009102334219808442</v>
+        <v>0.04867837687422539</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.06488443626687225</v>
+        <v>0.06830397987659004</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.007552589632741922</v>
+        <v>0.04455569596810335</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.01415985171462424</v>
+        <v>0.06002921136723193</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.03517740770587571</v>
+        <v>0.004716259585613058</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.0524457206853457</v>
+        <v>0.0517465224592876</v>
       </c>
     </row>
     <row r="40">
@@ -4800,94 +4800,94 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1338285822807269</v>
+        <v>0.1357811978208211</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02432823541220685</v>
+        <v>0.01644356821939703</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0198190388538561</v>
+        <v>0.06883162972386028</v>
       </c>
       <c r="H40" t="n">
-        <v>0.03737987377747663</v>
+        <v>0.04968553704436976</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0625860507958541</v>
+        <v>0.03011946480277769</v>
       </c>
       <c r="J40" t="n">
-        <v>0.04681447759162709</v>
+        <v>0.0180250968661162</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01679433389568215</v>
+        <v>0.01089045770733185</v>
       </c>
       <c r="L40" t="n">
-        <v>0.05021750835613367</v>
+        <v>0.04657686159730456</v>
       </c>
       <c r="M40" t="n">
-        <v>0.04021779151533419</v>
+        <v>0.06223111813511999</v>
       </c>
       <c r="N40" t="n">
-        <v>0.05228739598355657</v>
+        <v>0.0587313259020247</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0335044182724662</v>
+        <v>0.01878949778620899</v>
       </c>
       <c r="P40" t="n">
-        <v>0.03554258021899871</v>
+        <v>0.01965210551648422</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.004498534076316036</v>
+        <v>0.001494190287975736</v>
       </c>
       <c r="R40" t="n">
-        <v>0.01692183989046623</v>
+        <v>0.02697204895073024</v>
       </c>
       <c r="S40" t="n">
-        <v>0.007709475959350475</v>
+        <v>0.03989031812598874</v>
       </c>
       <c r="T40" t="n">
-        <v>0.05963648113079897</v>
+        <v>0.05712755475509628</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0290056861529518</v>
+        <v>0.003860944899509529</v>
       </c>
       <c r="V40" t="n">
-        <v>0.06064954099058972</v>
+        <v>0.05495421653443964</v>
       </c>
       <c r="W40" t="n">
-        <v>0.04458611727640383</v>
+        <v>0.05312339844370088</v>
       </c>
       <c r="X40" t="n">
-        <v>0.02122287870086766</v>
+        <v>0.03566245333424361</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.02234626536629915</v>
+        <v>0.02390922104832091</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.06037597464155522</v>
+        <v>0.01806490123151237</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.05156453506075879</v>
+        <v>0.06499022085808895</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.05962411119128151</v>
+        <v>0.06811549571615542</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.05035332784854774</v>
+        <v>0.06455938560461412</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.0005934154389194499</v>
+        <v>0.00131667337607436</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.05980298476684671</v>
+        <v>0.03400764650638743</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.02175782513834137</v>
+        <v>0.01062162844096346</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.009859301696513037</v>
+        <v>0.04135303858520305</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.06633427153731296</v>
+        <v>0.0366632694382786</v>
       </c>
     </row>
     <row r="41">
@@ -4910,94 +4910,94 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.6259816789674792</v>
+        <v>0.473734465943264</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01188157459242711</v>
+        <v>0.03315194655893521</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02001927441196824</v>
+        <v>0.08309841329694757</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03595263019974032</v>
+        <v>0.04484139891925193</v>
       </c>
       <c r="I41" t="n">
-        <v>0.05176614115179221</v>
+        <v>0.01270316363585678</v>
       </c>
       <c r="J41" t="n">
-        <v>0.02856190372112745</v>
+        <v>0.001889565084986808</v>
       </c>
       <c r="K41" t="n">
-        <v>0.03734272474402553</v>
+        <v>0.06365066363729611</v>
       </c>
       <c r="L41" t="n">
-        <v>0.003181646584052511</v>
+        <v>0.05477487252671741</v>
       </c>
       <c r="M41" t="n">
-        <v>0.00393811807439336</v>
+        <v>0.01129864492102678</v>
       </c>
       <c r="N41" t="n">
-        <v>0.005710460558509976</v>
+        <v>0.05200525964045515</v>
       </c>
       <c r="O41" t="n">
-        <v>0.06362988740371435</v>
+        <v>0.01673487428859871</v>
       </c>
       <c r="P41" t="n">
-        <v>0.02432092593921807</v>
+        <v>0.06661437921603824</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.0001728235573580312</v>
+        <v>0.01651194725660656</v>
       </c>
       <c r="R41" t="n">
-        <v>0.03779543381351137</v>
+        <v>0.01306433850448615</v>
       </c>
       <c r="S41" t="n">
-        <v>0.02956524091086706</v>
+        <v>0.01863117567716474</v>
       </c>
       <c r="T41" t="n">
-        <v>0.05160802695630896</v>
+        <v>0.0298397833109004</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08147678456678138</v>
+        <v>0.0520126337738085</v>
       </c>
       <c r="V41" t="n">
-        <v>0.007213437855699971</v>
+        <v>0.0341364918958454</v>
       </c>
       <c r="W41" t="n">
-        <v>0.03492956111347854</v>
+        <v>0.05676779601550341</v>
       </c>
       <c r="X41" t="n">
-        <v>0.07838395814069464</v>
+        <v>0.006158807620264849</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.04918720545562391</v>
+        <v>0.05926958945684268</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.02851330819333697</v>
+        <v>0.00675823455966839</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.01893185066827269</v>
+        <v>0.07357215866463652</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.03568892666277761</v>
+        <v>0.02258902066549369</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.04231519628514083</v>
+        <v>0.01036840325642601</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.07658252257895269</v>
+        <v>0.07840032373585386</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.08268661024072567</v>
+        <v>0.02408757294339935</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.01224712366191398</v>
+        <v>0.03185116810907287</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.04639670195758663</v>
+        <v>0.02521737282791589</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.09111490214836002</v>
+        <v>0.04135257420574639</v>
       </c>
     </row>
     <row r="42">
@@ -5020,94 +5020,94 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1433046240225804</v>
+        <v>0.1505869235427386</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003814985872514743</v>
+        <v>0.04810945109542827</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06499283579473709</v>
+        <v>0.04625909764206381</v>
       </c>
       <c r="H42" t="n">
-        <v>0.03050698002077906</v>
+        <v>0.03940560503562505</v>
       </c>
       <c r="I42" t="n">
-        <v>0.05359118447644858</v>
+        <v>0.0193367785048905</v>
       </c>
       <c r="J42" t="n">
-        <v>0.01024145724430486</v>
+        <v>0.004966621091711935</v>
       </c>
       <c r="K42" t="n">
-        <v>0.05421669425133187</v>
+        <v>0.01971950600358681</v>
       </c>
       <c r="L42" t="n">
-        <v>0.07302216977284787</v>
+        <v>0.07375325297891082</v>
       </c>
       <c r="M42" t="n">
-        <v>0.02059649004236353</v>
+        <v>0.007846509142490181</v>
       </c>
       <c r="N42" t="n">
-        <v>0.05699369639174612</v>
+        <v>0.05621105143939759</v>
       </c>
       <c r="O42" t="n">
-        <v>0.002285356026451637</v>
+        <v>0.005958819078470726</v>
       </c>
       <c r="P42" t="n">
-        <v>0.01422186727192145</v>
+        <v>0.06363250604113263</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.06626793634384801</v>
+        <v>0.05127584107114336</v>
       </c>
       <c r="R42" t="n">
-        <v>0.06187409873599259</v>
+        <v>0.07008669798135399</v>
       </c>
       <c r="S42" t="n">
-        <v>0.06110652667335388</v>
+        <v>0.03679471579342935</v>
       </c>
       <c r="T42" t="n">
-        <v>0.02955998116638476</v>
+        <v>0.05804265743940112</v>
       </c>
       <c r="U42" t="n">
-        <v>0.002729194787907097</v>
+        <v>0.01012791473308771</v>
       </c>
       <c r="V42" t="n">
-        <v>0.0557629394665051</v>
+        <v>0.05918638067838657</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0002645147512779215</v>
+        <v>0.01969389069577381</v>
       </c>
       <c r="X42" t="n">
-        <v>0.04037703651069447</v>
+        <v>0.03046713135334506</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.005005696866476681</v>
+        <v>0.03332738910091257</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.009166341999866106</v>
+        <v>0.01530786798126091</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.04371159555609573</v>
+        <v>0.05554281860240818</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.04868491744642157</v>
+        <v>0.06691663654972355</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.02708242724886402</v>
+        <v>0.04079830234363557</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.000563478990787731</v>
+        <v>0.005518826594508712</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.02002363656070357</v>
+        <v>0.0291613947399136</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.07582236666549194</v>
+        <v>0.02840861782393111</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.06751359306388208</v>
+        <v>0.004143718464076537</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.06007985842396252</v>
+        <v>0.06764819451523282</v>
       </c>
     </row>
     <row r="43">
@@ -5130,94 +5130,94 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.6039026571215237</v>
+        <v>0.4653624218674219</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01666694809506755</v>
+        <v>0.01747355043923475</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06827861541237454</v>
+        <v>0.062652066857232</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04078785324413703</v>
+        <v>0.009794136938684592</v>
       </c>
       <c r="I43" t="n">
-        <v>0.07954237665672806</v>
+        <v>0.05996109966358402</v>
       </c>
       <c r="J43" t="n">
-        <v>0.01326176175980318</v>
+        <v>0.0007523383852903285</v>
       </c>
       <c r="K43" t="n">
-        <v>0.005582242556952954</v>
+        <v>0.04932091503682958</v>
       </c>
       <c r="L43" t="n">
-        <v>0.04773808444687451</v>
+        <v>0.03733945563053007</v>
       </c>
       <c r="M43" t="n">
-        <v>0.05151915449011452</v>
+        <v>0.02184064227911163</v>
       </c>
       <c r="N43" t="n">
-        <v>0.05995394870209629</v>
+        <v>0.04735259349865721</v>
       </c>
       <c r="O43" t="n">
-        <v>0.002090461168571046</v>
+        <v>0.0001286519105609451</v>
       </c>
       <c r="P43" t="n">
-        <v>0.009496587655370389</v>
+        <v>0.02345282865496218</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.03266374735246739</v>
+        <v>0.01449690876345147</v>
       </c>
       <c r="R43" t="n">
-        <v>0.04629023509971031</v>
+        <v>0.03803066784617595</v>
       </c>
       <c r="S43" t="n">
-        <v>0.01740848574397147</v>
+        <v>0.04377154880510321</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0450925050654887</v>
+        <v>0.01105827532495534</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08015720604451931</v>
+        <v>0.07883987870586862</v>
       </c>
       <c r="V43" t="n">
-        <v>0.00261400939064539</v>
+        <v>0.01910893499855108</v>
       </c>
       <c r="W43" t="n">
-        <v>0.02679275966639906</v>
+        <v>0.03791110723212206</v>
       </c>
       <c r="X43" t="n">
-        <v>0.01445772904695322</v>
+        <v>0.0002056571487633375</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.07165257914848319</v>
+        <v>0.03295666687925362</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.001857656137289383</v>
+        <v>0.0114294455590697</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.0185774591541872</v>
+        <v>0.06568467438482958</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.007360783199119074</v>
+        <v>0.07224393035463493</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.0695721237423973</v>
+        <v>0.05563088918676285</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.05651796426572514</v>
+        <v>0.006720250816944174</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.06845544906041336</v>
+        <v>0.08478496976709016</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.007220100568276106</v>
+        <v>0.03389917677897765</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.03839117312586429</v>
+        <v>0.06315873815276882</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.0605315251399902</v>
+        <v>0.05452164116203569</v>
       </c>
     </row>
     <row r="44">
@@ -5240,94 +5240,94 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1964634264307168</v>
+        <v>0.2053856273430831</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0427858457089029</v>
+        <v>0.04053409524585191</v>
       </c>
       <c r="G44" t="n">
-        <v>0.05412181090307056</v>
+        <v>0.02657588139176111</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03164985593332692</v>
+        <v>0.003378216971824572</v>
       </c>
       <c r="I44" t="n">
-        <v>0.03120611159817912</v>
+        <v>0.01301847009791619</v>
       </c>
       <c r="J44" t="n">
-        <v>0.01477202576336108</v>
+        <v>0.009287385483011189</v>
       </c>
       <c r="K44" t="n">
-        <v>0.05913904160660582</v>
+        <v>0.04674625377239379</v>
       </c>
       <c r="L44" t="n">
-        <v>0.009026758297619631</v>
+        <v>0.07308106021862984</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04617674630277799</v>
+        <v>0.06189157034538741</v>
       </c>
       <c r="N44" t="n">
-        <v>0.06073427765021628</v>
+        <v>0.07342721330929791</v>
       </c>
       <c r="O44" t="n">
-        <v>0.05298310424597923</v>
+        <v>0.09219993750165753</v>
       </c>
       <c r="P44" t="n">
-        <v>0.02531992787635528</v>
+        <v>0.008582055906048885</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.02252086197947694</v>
+        <v>0.006017408198803932</v>
       </c>
       <c r="R44" t="n">
-        <v>0.03996931874705961</v>
+        <v>0.07490304854035497</v>
       </c>
       <c r="S44" t="n">
-        <v>0.02119946949323724</v>
+        <v>0.001803421658392115</v>
       </c>
       <c r="T44" t="n">
-        <v>0.03584730422682132</v>
+        <v>0.03581593051663288</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0493151211583765</v>
+        <v>0.03174220944809</v>
       </c>
       <c r="V44" t="n">
-        <v>0.04642558292417905</v>
+        <v>0.06325188841250916</v>
       </c>
       <c r="W44" t="n">
-        <v>0.04138920556268201</v>
+        <v>0.06315038338860639</v>
       </c>
       <c r="X44" t="n">
-        <v>0.00106921365305916</v>
+        <v>0.0116202427194865</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0176365296983384</v>
+        <v>0.02127520831838896</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.005914001111827736</v>
+        <v>0.003782757130545554</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.05598742361540326</v>
+        <v>0.008061416825497722</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.04707807151799578</v>
+        <v>0.04112472931237643</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.06286453144723039</v>
+        <v>0.04086366736586469</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.01691544582637079</v>
+        <v>0.02299002634510352</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.03947610204727069</v>
+        <v>0.07513165092104519</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.0620658046226746</v>
+        <v>0.02850997626342082</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.006410506481601558</v>
+        <v>0.02123389439110079</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.1008047878330977</v>
+        <v>0.1012030353760831</v>
       </c>
     </row>
     <row r="45">
@@ -5350,94 +5350,94 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.37418651273253</v>
+        <v>0.5238546818249257</v>
       </c>
       <c r="F45" t="n">
-        <v>0.06943794407128924</v>
+        <v>0.01784457735313433</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04446625122871004</v>
+        <v>0.04212788968202417</v>
       </c>
       <c r="H45" t="n">
-        <v>0.007736584125878445</v>
+        <v>0.04673029240293202</v>
       </c>
       <c r="I45" t="n">
-        <v>0.02648180568273156</v>
+        <v>0.03570346202666564</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0005473071812706149</v>
+        <v>0.04612737707981819</v>
       </c>
       <c r="K45" t="n">
-        <v>0.06608800973964393</v>
+        <v>0.009023424605275181</v>
       </c>
       <c r="L45" t="n">
-        <v>0.04137961089727471</v>
+        <v>0.02712886045702199</v>
       </c>
       <c r="M45" t="n">
-        <v>0.02291517737455924</v>
+        <v>0.04702061045384867</v>
       </c>
       <c r="N45" t="n">
-        <v>0.03388986156230511</v>
+        <v>0.02505103463874342</v>
       </c>
       <c r="O45" t="n">
-        <v>0.07707992244543181</v>
+        <v>0.05292727526966239</v>
       </c>
       <c r="P45" t="n">
-        <v>0.008881675408676071</v>
+        <v>0.03594006956029826</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.03946510207536932</v>
+        <v>0.07919549420351546</v>
       </c>
       <c r="R45" t="n">
-        <v>0.07073590143684202</v>
+        <v>0.02612617244163958</v>
       </c>
       <c r="S45" t="n">
-        <v>0.06332919661809391</v>
+        <v>0.03002518429195298</v>
       </c>
       <c r="T45" t="n">
-        <v>0.02156242312629794</v>
+        <v>0.01221314348213123</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05936790552209598</v>
+        <v>0.07908563088158001</v>
       </c>
       <c r="V45" t="n">
-        <v>0.07051935403532057</v>
+        <v>0.007963216273144903</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0009273439489955484</v>
+        <v>0.07896130262824692</v>
       </c>
       <c r="X45" t="n">
-        <v>0.08137947482206617</v>
+        <v>0.002196950989490761</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.07333001617695839</v>
+        <v>0.07800641897302897</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.0001037460789757146</v>
+        <v>0.02652762799298825</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.03152384666543713</v>
+        <v>0.01447388021889161</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.01712967005945671</v>
+        <v>0.05055721868212008</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.009389354682005715</v>
+        <v>0.04418656272246325</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.009901965952159093</v>
+        <v>0.04562684447524454</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.01432769189527321</v>
+        <v>0.004739722250417339</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.02744116645252856</v>
+        <v>0.01342649199783256</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.01066169073435312</v>
+        <v>0.02106326396588739</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.1017472072531099</v>
+        <v>0.1274266593124788</v>
       </c>
     </row>
     <row r="46">
@@ -5460,94 +5460,94 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.3382181413829977</v>
+        <v>0.2923313533951614</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01308159727875489</v>
+        <v>0.02392563674348635</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0435431949758858</v>
+        <v>0.07126879394664816</v>
       </c>
       <c r="H46" t="n">
-        <v>0.03991552710225305</v>
+        <v>0.01854557522568211</v>
       </c>
       <c r="I46" t="n">
-        <v>0.01082060943264026</v>
+        <v>0.01024911212462297</v>
       </c>
       <c r="J46" t="n">
-        <v>0.002022610542560672</v>
+        <v>0.0196538591079674</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0005042797871460255</v>
+        <v>0.0289690793389846</v>
       </c>
       <c r="L46" t="n">
-        <v>0.04500738180962231</v>
+        <v>0.009541794796298743</v>
       </c>
       <c r="M46" t="n">
-        <v>0.05795837947086957</v>
+        <v>0.07917673542069369</v>
       </c>
       <c r="N46" t="n">
-        <v>0.048905375246071</v>
+        <v>0.01592527603437988</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0421898459824884</v>
+        <v>0.02045332038902582</v>
       </c>
       <c r="P46" t="n">
-        <v>0.00627891556302177</v>
+        <v>0.003425455214367921</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.02557762216445115</v>
+        <v>0.01893172237229002</v>
       </c>
       <c r="R46" t="n">
-        <v>0.06680562572724502</v>
+        <v>0.03224374602680084</v>
       </c>
       <c r="S46" t="n">
-        <v>0.008504790970510177</v>
+        <v>0.07868556759405532</v>
       </c>
       <c r="T46" t="n">
-        <v>0.08108556022659275</v>
+        <v>0.04791452175664836</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02084936330137705</v>
+        <v>0.03868162977635819</v>
       </c>
       <c r="V46" t="n">
-        <v>0.0449247898890374</v>
+        <v>0.07232235852105054</v>
       </c>
       <c r="W46" t="n">
-        <v>0.01086176152504569</v>
+        <v>0.08353545794082902</v>
       </c>
       <c r="X46" t="n">
-        <v>0.05684898951805607</v>
+        <v>0.02942463135303028</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.04011418233029698</v>
+        <v>0.06948857943469765</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.03289464864585612</v>
+        <v>0.04283811917528708</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.03224702587825286</v>
+        <v>0.08309975196010594</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.0156721420986241</v>
+        <v>0.01870470884903043</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.01292024963750461</v>
+        <v>0.001652964789966443</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.08004510922325944</v>
+        <v>0.02686805880967347</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.02328103524053424</v>
+        <v>0.01783903195983967</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.08211716058928914</v>
+        <v>0.005242395889035207</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.05502222584275347</v>
+        <v>0.03139211544914397</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.04177109995115467</v>
+        <v>0.006132675932863319</v>
       </c>
     </row>
     <row r="47">
@@ -5570,94 +5570,94 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.7255781128611243</v>
+        <v>0.43552835993146</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01365189050512387</v>
+        <v>0.06473109416802172</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02699290729910458</v>
+        <v>0.01773559750199368</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04558238737181618</v>
+        <v>0.007018116208934083</v>
       </c>
       <c r="I47" t="n">
-        <v>0.006050775568250835</v>
+        <v>0.001943962587873197</v>
       </c>
       <c r="J47" t="n">
-        <v>0.03208908778274681</v>
+        <v>0.02503506229907941</v>
       </c>
       <c r="K47" t="n">
-        <v>0.007590338075373394</v>
+        <v>0.0503486048692072</v>
       </c>
       <c r="L47" t="n">
-        <v>0.08219271911278121</v>
+        <v>0.07481563401674116</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0008610947817312023</v>
+        <v>0.04500677992972366</v>
       </c>
       <c r="N47" t="n">
-        <v>0.01493194825851966</v>
+        <v>0.05741670405488575</v>
       </c>
       <c r="O47" t="n">
-        <v>0.08196068479816015</v>
+        <v>0.0004454908827994828</v>
       </c>
       <c r="P47" t="n">
-        <v>0.03735239058309367</v>
+        <v>0.00688155631907132</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0976569858323439</v>
+        <v>0.03466428354143911</v>
       </c>
       <c r="R47" t="n">
-        <v>0.03478986823519714</v>
+        <v>0.008626389527925143</v>
       </c>
       <c r="S47" t="n">
-        <v>0.007484213715701402</v>
+        <v>0.06657018684912804</v>
       </c>
       <c r="T47" t="n">
-        <v>0.01089922744192937</v>
+        <v>0.02799700893635405</v>
       </c>
       <c r="U47" t="n">
-        <v>0.05226882428149342</v>
+        <v>0.01119281258127166</v>
       </c>
       <c r="V47" t="n">
-        <v>0.04441714190924066</v>
+        <v>0.07044660278327154</v>
       </c>
       <c r="W47" t="n">
-        <v>0.07546497786856447</v>
+        <v>0.04473040069022822</v>
       </c>
       <c r="X47" t="n">
-        <v>0.07911386965928613</v>
+        <v>0.04379530696319853</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.08781957096268719</v>
+        <v>0.02732913276698853</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.01672813578300583</v>
+        <v>0.08876647533620864</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.004043716033186654</v>
+        <v>0.0280971247027745</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.03826066415187749</v>
+        <v>0.06164491892547794</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.001739772769688618</v>
+        <v>0.01793728630685531</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.04066316467799783</v>
+        <v>0.05593057461586509</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.003231475884565058</v>
+        <v>0.03686768895507892</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.01124348099351052</v>
+        <v>0.004632590346673647</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.04491868566302266</v>
+        <v>0.01939261333293029</v>
       </c>
       <c r="AH47" t="n">
-        <v>-0.04047319334807199</v>
+        <v>0.01047536928570888</v>
       </c>
     </row>
     <row r="48">
@@ -5680,94 +5680,94 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1178889404734635</v>
+        <v>0.1157456511263105</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00760622728270055</v>
+        <v>0.02907433723617861</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01906540074338052</v>
+        <v>0.05066146679077169</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01940837787901007</v>
+        <v>0.03352270572416925</v>
       </c>
       <c r="I48" t="n">
-        <v>0.04210872521707183</v>
+        <v>0.01301094590271757</v>
       </c>
       <c r="J48" t="n">
-        <v>0.05295068966208946</v>
+        <v>0.05852676357681877</v>
       </c>
       <c r="K48" t="n">
-        <v>0.002987124720896031</v>
+        <v>0.0008264639118920332</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0679549403820949</v>
+        <v>0.01695443414634143</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0125457334355079</v>
+        <v>0.04200075174141952</v>
       </c>
       <c r="N48" t="n">
-        <v>0.06933385915107945</v>
+        <v>0.04517830089035922</v>
       </c>
       <c r="O48" t="n">
-        <v>0.05966903729256094</v>
+        <v>0.03853738454427</v>
       </c>
       <c r="P48" t="n">
-        <v>0.03059318499007482</v>
+        <v>0.01914150183281288</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.01165937504494763</v>
+        <v>0.04628947778118365</v>
       </c>
       <c r="R48" t="n">
-        <v>0.05030084582885706</v>
+        <v>0.06410837983513892</v>
       </c>
       <c r="S48" t="n">
-        <v>0.04582898106155252</v>
+        <v>0.01048996308553752</v>
       </c>
       <c r="T48" t="n">
-        <v>0.002335503459289937</v>
+        <v>0.0512778837537011</v>
       </c>
       <c r="U48" t="n">
-        <v>0.0264553559925522</v>
+        <v>0.03031343934572555</v>
       </c>
       <c r="V48" t="n">
-        <v>0.02631744525231581</v>
+        <v>0.02019176126160998</v>
       </c>
       <c r="W48" t="n">
-        <v>0.05237514566386559</v>
+        <v>0.0510643904059831</v>
       </c>
       <c r="X48" t="n">
-        <v>0.04549012694760701</v>
+        <v>0.01921934963045491</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.03725561894108973</v>
+        <v>0.05666551326933681</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.004520221586787389</v>
+        <v>0.0001719280846973445</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.05027446865702884</v>
+        <v>0.02788612573268866</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.05883194547524977</v>
+        <v>0.06202823483676355</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.06204005090554195</v>
+        <v>0.06431447568508061</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.002837316612746856</v>
+        <v>0.004822474305060684</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.04543954972924041</v>
+        <v>0.04195007794438509</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.04525173076461495</v>
+        <v>0.05296359509380177</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.04856301732024576</v>
+        <v>0.04880787365109982</v>
       </c>
       <c r="AH48" t="n">
-        <v>-0.004948056114730009</v>
+        <v>0.00246458396783223</v>
       </c>
     </row>
     <row r="49">
@@ -5790,94 +5790,94 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.289974078859589</v>
+        <v>0.1443604341918127</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0004400046372103783</v>
+        <v>0.04446472163183329</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04690168859847462</v>
+        <v>0.06398693658202735</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02476088300392015</v>
+        <v>0.008019911204659353</v>
       </c>
       <c r="I49" t="n">
-        <v>0.02538831646590644</v>
+        <v>0.06176341781736755</v>
       </c>
       <c r="J49" t="n">
-        <v>0.05734081526743751</v>
+        <v>0.05476656607944824</v>
       </c>
       <c r="K49" t="n">
-        <v>0.003794443534542196</v>
+        <v>0.00352377509692483</v>
       </c>
       <c r="L49" t="n">
-        <v>0.004498127471491522</v>
+        <v>0.001879006030817794</v>
       </c>
       <c r="M49" t="n">
-        <v>0.05269188411362307</v>
+        <v>0.05613120768097453</v>
       </c>
       <c r="N49" t="n">
-        <v>0.03427819451186171</v>
+        <v>0.02185559827431968</v>
       </c>
       <c r="O49" t="n">
-        <v>0.007584673891407369</v>
+        <v>0.04029127550915404</v>
       </c>
       <c r="P49" t="n">
-        <v>0.03929129661125499</v>
+        <v>0.04781366845708783</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.0240044351001985</v>
+        <v>0.03533327602479107</v>
       </c>
       <c r="R49" t="n">
-        <v>0.05980685929838399</v>
+        <v>0.04343680995283065</v>
       </c>
       <c r="S49" t="n">
-        <v>0.03985270293531561</v>
+        <v>0.04417881461523984</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0553662791121028</v>
+        <v>0.06211521384883452</v>
       </c>
       <c r="U49" t="n">
-        <v>0.002795259893856981</v>
+        <v>0.07452726675014763</v>
       </c>
       <c r="V49" t="n">
-        <v>0.04254274933108546</v>
+        <v>0.04079980057943262</v>
       </c>
       <c r="W49" t="n">
-        <v>0.02933664337595186</v>
+        <v>0.01919346257655254</v>
       </c>
       <c r="X49" t="n">
-        <v>0.04427050217035927</v>
+        <v>0.05348364936841157</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.07674672671770633</v>
+        <v>0.03370192987613538</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.005522090304051062</v>
+        <v>0.004020101960865117</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.05502530021240078</v>
+        <v>0.05000743527685349</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.06136165762510151</v>
+        <v>0.000579981714321753</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.01304630384443801</v>
+        <v>0.008147717401602464</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.07040924619317573</v>
+        <v>0.01801869729448608</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.0528456649948525</v>
+        <v>0.008419570242744749</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.0544097487097746</v>
+        <v>0.05644135338495793</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.01568750207411502</v>
+        <v>0.04309883476717834</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.01489094951378256</v>
+        <v>-0.02967611047402429</v>
       </c>
     </row>
     <row r="50">
@@ -5900,94 +5900,94 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1356020428560535</v>
+        <v>0.1397210395217026</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01631934791381114</v>
+        <v>0.06165745917889361</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01589165168833828</v>
+        <v>0.0626640465899479</v>
       </c>
       <c r="H50" t="n">
-        <v>0.02746569795992673</v>
+        <v>0.001211268024500458</v>
       </c>
       <c r="I50" t="n">
-        <v>0.05995795006388058</v>
+        <v>0.04030137528801368</v>
       </c>
       <c r="J50" t="n">
-        <v>0.01180989862403181</v>
+        <v>0.01469225983688721</v>
       </c>
       <c r="K50" t="n">
-        <v>0.05943753404261896</v>
+        <v>0.04046981096267805</v>
       </c>
       <c r="L50" t="n">
-        <v>0.01506316684343637</v>
+        <v>0.02849219693114338</v>
       </c>
       <c r="M50" t="n">
-        <v>0.03864106774160128</v>
+        <v>0.05144306791366242</v>
       </c>
       <c r="N50" t="n">
-        <v>0.02353599684101115</v>
+        <v>0.03941789369217155</v>
       </c>
       <c r="O50" t="n">
-        <v>0.04892265965037065</v>
+        <v>0.03327275910536629</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0520191227064122</v>
+        <v>0.04870722514919159</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0382355686460728</v>
+        <v>0.0539911451864693</v>
       </c>
       <c r="R50" t="n">
-        <v>0.0528233560980645</v>
+        <v>0.05312400620108281</v>
       </c>
       <c r="S50" t="n">
-        <v>0.06040949760420979</v>
+        <v>0.03403742397907185</v>
       </c>
       <c r="T50" t="n">
-        <v>0.0628812573315497</v>
+        <v>0.02580782271172431</v>
       </c>
       <c r="U50" t="n">
-        <v>0.01805289741818183</v>
+        <v>0.03379236403016239</v>
       </c>
       <c r="V50" t="n">
-        <v>0.002535943543285095</v>
+        <v>0.0004648125077441603</v>
       </c>
       <c r="W50" t="n">
-        <v>0.06219764447579824</v>
+        <v>0.006335297063785056</v>
       </c>
       <c r="X50" t="n">
-        <v>0.04319657349311386</v>
+        <v>0.05597613957170913</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.0629743128535402</v>
+        <v>0.009113500523451208</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.008004763832090141</v>
+        <v>0.000124678036334364</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.04668227723902115</v>
+        <v>0.02280040713991826</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.01178349162615197</v>
+        <v>0.03442708135179034</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.05597619459463535</v>
+        <v>0.06178753143460401</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.001670179221494871</v>
+        <v>0.01143028810596623</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.04902031646302249</v>
+        <v>0.05974153515513674</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.03288371236066335</v>
+        <v>0.06083327425574267</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.02160791912366546</v>
+        <v>0.05388333007285103</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.1255119757279282</v>
+        <v>0.1157397581790674</v>
       </c>
     </row>
     <row r="51">
@@ -6010,94 +6010,94 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1679679327140161</v>
+        <v>0.1629848989469691</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0102742718408965</v>
+        <v>0.05833082208005685</v>
       </c>
       <c r="G51" t="n">
-        <v>0.003400999047258538</v>
+        <v>0.02779734242103532</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03743122207853503</v>
+        <v>0.07971839424781905</v>
       </c>
       <c r="I51" t="n">
-        <v>0.07586974642010649</v>
+        <v>0.06040489309567274</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01731189085871584</v>
+        <v>0.02287414237444519</v>
       </c>
       <c r="K51" t="n">
-        <v>0.06315839820833553</v>
+        <v>0.01945904645903865</v>
       </c>
       <c r="L51" t="n">
-        <v>0.06207613290637608</v>
+        <v>0.06213809172246226</v>
       </c>
       <c r="M51" t="n">
-        <v>0.04298930050044607</v>
+        <v>0.004857165050012197</v>
       </c>
       <c r="N51" t="n">
-        <v>0.07603310627975751</v>
+        <v>0.01262214222836878</v>
       </c>
       <c r="O51" t="n">
-        <v>0.005540524402219264</v>
+        <v>0.002848529082887833</v>
       </c>
       <c r="P51" t="n">
-        <v>0.06759536556074966</v>
+        <v>0.02207308120904412</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.07235671303317744</v>
+        <v>0.05128877881908625</v>
       </c>
       <c r="R51" t="n">
-        <v>0.006782058010825582</v>
+        <v>0.01900392876268232</v>
       </c>
       <c r="S51" t="n">
-        <v>0.02503265503484491</v>
+        <v>0.06666886672338444</v>
       </c>
       <c r="T51" t="n">
-        <v>0.004356626478533599</v>
+        <v>0.05073711149769327</v>
       </c>
       <c r="U51" t="n">
-        <v>0.04418713113908656</v>
+        <v>0.009292882021823249</v>
       </c>
       <c r="V51" t="n">
-        <v>0.002003529481355608</v>
+        <v>0.002696477159035065</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01919486644408996</v>
+        <v>0.06125723914184281</v>
       </c>
       <c r="X51" t="n">
-        <v>0.03494886605496757</v>
+        <v>0.0001175057890593473</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.04114905586096761</v>
+        <v>0.07348939805204339</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.03149619630715809</v>
+        <v>0.02824913243080916</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.05786696958515464</v>
+        <v>0.03016598569707471</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.06200576368155663</v>
+        <v>0.07520087440528113</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.01061359588521385</v>
+        <v>0.02392389998114569</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.01442521350968594</v>
+        <v>0.002758947255124577</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.02325638492005551</v>
+        <v>0.07941206632132686</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.0484910532871218</v>
+        <v>0.02320542169377675</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.04015236318280833</v>
+        <v>0.02940783427796806</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.1463968632333001</v>
+        <v>0.1466181406666868</v>
       </c>
     </row>
     <row r="52">
@@ -6120,94 +6120,94 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1515254260914482</v>
+        <v>0.1508107110867351</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0149413659041548</v>
+        <v>0.05122903078644111</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07351232421899184</v>
+        <v>0.04870410374847702</v>
       </c>
       <c r="H52" t="n">
-        <v>0.002230365250874506</v>
+        <v>0.01102354868596724</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01441987789152693</v>
+        <v>0.007917725609979007</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0108913918170021</v>
+        <v>0.02580660950989655</v>
       </c>
       <c r="K52" t="n">
-        <v>0.04152937586209395</v>
+        <v>0.0614774798238312</v>
       </c>
       <c r="L52" t="n">
-        <v>0.03108430428855137</v>
+        <v>0.01226475602803771</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0006652738326453058</v>
+        <v>0.06659301944756842</v>
       </c>
       <c r="N52" t="n">
-        <v>0.01510072793048413</v>
+        <v>0.02107944991854312</v>
       </c>
       <c r="O52" t="n">
-        <v>0.05438990571185327</v>
+        <v>0.0616463754256127</v>
       </c>
       <c r="P52" t="n">
-        <v>0.01427188444102001</v>
+        <v>0.035390479215011</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.01559744779734892</v>
+        <v>0.04565548018446623</v>
       </c>
       <c r="R52" t="n">
-        <v>0.06786066316695606</v>
+        <v>0.05429023920049789</v>
       </c>
       <c r="S52" t="n">
-        <v>0.05762708689921647</v>
+        <v>0.0173533055795505</v>
       </c>
       <c r="T52" t="n">
-        <v>0.06686106180268896</v>
+        <v>0.03911499633032594</v>
       </c>
       <c r="U52" t="n">
-        <v>0.05618127301703044</v>
+        <v>0.06692666797813407</v>
       </c>
       <c r="V52" t="n">
-        <v>0.04762084479941491</v>
+        <v>0.06081796430083231</v>
       </c>
       <c r="W52" t="n">
-        <v>0.01273821547638164</v>
+        <v>0.0573467660648064</v>
       </c>
       <c r="X52" t="n">
-        <v>0.07067136946745499</v>
+        <v>0.01977006096145505</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.05027126126307262</v>
+        <v>0.03458246209519377</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.05080772316598627</v>
+        <v>0.01390627236879133</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.02486742771809008</v>
+        <v>0.00112442605884609</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.003278101901913613</v>
+        <v>0.002944073832783287</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.04868588452232483</v>
+        <v>0.06084719125578837</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.04575056203359407</v>
+        <v>0.06151730800390548</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.0003798801757220799</v>
+        <v>0.0005178762464520324</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.04737088804870104</v>
+        <v>0.02149836800519806</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.06039351159490485</v>
+        <v>0.03865396333360825</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.08434940901631864</v>
+        <v>0.07495536970579002</v>
       </c>
     </row>
     <row r="53">
@@ -6230,94 +6230,94 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.2347341393162922</v>
+        <v>0.1883080792889143</v>
       </c>
       <c r="F53" t="n">
-        <v>0.02186118994059826</v>
+        <v>0.01906613691935809</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04695549389093168</v>
+        <v>0.0770051659733802</v>
       </c>
       <c r="H53" t="n">
-        <v>0.05102517564966333</v>
+        <v>0.01386123928147931</v>
       </c>
       <c r="I53" t="n">
-        <v>0.02958870525319596</v>
+        <v>0.04927115966195901</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0268817436587062</v>
+        <v>0.007286084805357253</v>
       </c>
       <c r="K53" t="n">
-        <v>0.08058055039187592</v>
+        <v>0.07657997106233637</v>
       </c>
       <c r="L53" t="n">
-        <v>0.03698718947962495</v>
+        <v>0.05726203622411486</v>
       </c>
       <c r="M53" t="n">
-        <v>0.04735932345166626</v>
+        <v>0.03994863029034674</v>
       </c>
       <c r="N53" t="n">
-        <v>0.01070971522029774</v>
+        <v>0.02168384795527799</v>
       </c>
       <c r="O53" t="n">
-        <v>0.003532020835670668</v>
+        <v>0.01900564295573443</v>
       </c>
       <c r="P53" t="n">
-        <v>0.04827873881298859</v>
+        <v>0.05321142900373333</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.01801922528483088</v>
+        <v>0.07001256996314331</v>
       </c>
       <c r="R53" t="n">
-        <v>0.009309172564846814</v>
+        <v>0.05536775449042338</v>
       </c>
       <c r="S53" t="n">
-        <v>0.01136758704272249</v>
+        <v>0.01756550903316871</v>
       </c>
       <c r="T53" t="n">
-        <v>0.02724057014805941</v>
+        <v>0.06293547349380485</v>
       </c>
       <c r="U53" t="n">
-        <v>0.06948295105134621</v>
+        <v>0.04074763015970985</v>
       </c>
       <c r="V53" t="n">
-        <v>0.02970847403805343</v>
+        <v>0.03789231600230039</v>
       </c>
       <c r="W53" t="n">
-        <v>0.03711676797851898</v>
+        <v>0.03745529997420559</v>
       </c>
       <c r="X53" t="n">
-        <v>0.07045568793172279</v>
+        <v>0.004640182249271595</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.02904967375848281</v>
+        <v>0.07384651787544992</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.05406771328864286</v>
+        <v>0.02608842755187606</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.0160890222527855</v>
+        <v>0.04422702261284225</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.003043364510709223</v>
+        <v>0.000762356948467527</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.01674796950681577</v>
+        <v>0.005550399996186274</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.05243418274627514</v>
+        <v>0.0131029863940332</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.07369621567479863</v>
+        <v>0.01408833462911186</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.01421647615587055</v>
+        <v>0.006433257940877876</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.06419509948029899</v>
+        <v>0.05510261655204979</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.07187163582054601</v>
+        <v>0.06088629347047862</v>
       </c>
     </row>
     <row r="54">
@@ -6340,94 +6340,94 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1743700915000614</v>
+        <v>0.1746106587927568</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02204097506883089</v>
+        <v>0.07375463223683366</v>
       </c>
       <c r="G54" t="n">
-        <v>0.007680546878524429</v>
+        <v>0.0009807817361582808</v>
       </c>
       <c r="H54" t="n">
-        <v>0.06110762635286882</v>
+        <v>0.02108299932480783</v>
       </c>
       <c r="I54" t="n">
-        <v>0.03293360117205701</v>
+        <v>0.07843142864661817</v>
       </c>
       <c r="J54" t="n">
-        <v>0.004113749481114687</v>
+        <v>0.06905358615230878</v>
       </c>
       <c r="K54" t="n">
-        <v>0.001650502621623864</v>
+        <v>0.02680630049143286</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0006048167429614112</v>
+        <v>0.02005897239255268</v>
       </c>
       <c r="M54" t="n">
-        <v>0.03093247053896957</v>
+        <v>0.005446744970699906</v>
       </c>
       <c r="N54" t="n">
-        <v>0.004870301690267457</v>
+        <v>0.01409135659752814</v>
       </c>
       <c r="O54" t="n">
-        <v>0.05374227685570739</v>
+        <v>0.002844761736640778</v>
       </c>
       <c r="P54" t="n">
-        <v>0.0438783726007802</v>
+        <v>0.07134959010874069</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.0674913304356365</v>
+        <v>0.05007609150359467</v>
       </c>
       <c r="R54" t="n">
-        <v>0.01541757110842848</v>
+        <v>0.0341691509838466</v>
       </c>
       <c r="S54" t="n">
-        <v>0.046104503492161</v>
+        <v>0.02651212978560185</v>
       </c>
       <c r="T54" t="n">
-        <v>0.06905647304597305</v>
+        <v>0.006483665751035131</v>
       </c>
       <c r="U54" t="n">
-        <v>0.0662459470517127</v>
+        <v>0.07588610597078535</v>
       </c>
       <c r="V54" t="n">
-        <v>0.01736320908555568</v>
+        <v>0.0670554471866999</v>
       </c>
       <c r="W54" t="n">
-        <v>0.006541183009032348</v>
+        <v>0.07905454307111</v>
       </c>
       <c r="X54" t="n">
-        <v>0.04956806811421793</v>
+        <v>0.01391677103428416</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.02773911627266277</v>
+        <v>0.0002432094322166086</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.008810092174664877</v>
+        <v>0.003494129117564925</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.02102378119042235</v>
+        <v>0.002022730679727524</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.07788914617544217</v>
+        <v>0.08194081923250907</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.01529239101650524</v>
+        <v>0.01686644926176831</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.04338307975400542</v>
+        <v>0.00823494109265987</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.07538451227511471</v>
+        <v>0.0349543059356401</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.06034174783852306</v>
+        <v>0.05136123636487853</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.06879260795623578</v>
+        <v>0.06382711920175548</v>
       </c>
       <c r="AH54" t="n">
-        <v>-0.1475315042842161</v>
+        <v>-0.1450372028541232</v>
       </c>
     </row>
     <row r="55">
@@ -6450,94 +6450,94 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.2088642538034401</v>
+        <v>0.2233626201578204</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06661251261665267</v>
+        <v>0.07713368727054101</v>
       </c>
       <c r="G55" t="n">
-        <v>0.005999421008197667</v>
+        <v>0.02876505180913588</v>
       </c>
       <c r="H55" t="n">
-        <v>0.04113666420721528</v>
+        <v>0.04040846209916559</v>
       </c>
       <c r="I55" t="n">
-        <v>0.001359248662866235</v>
+        <v>0.007729663459274325</v>
       </c>
       <c r="J55" t="n">
-        <v>0.01788296352384778</v>
+        <v>0.0698892991632041</v>
       </c>
       <c r="K55" t="n">
-        <v>0.03582219274051511</v>
+        <v>0.06409350524007616</v>
       </c>
       <c r="L55" t="n">
-        <v>0.01179743309106785</v>
+        <v>0.08150142511383046</v>
       </c>
       <c r="M55" t="n">
-        <v>0.06401927236988715</v>
+        <v>0.04535769867391778</v>
       </c>
       <c r="N55" t="n">
-        <v>0.01122400759818681</v>
+        <v>0.01091889597073934</v>
       </c>
       <c r="O55" t="n">
-        <v>0.08278126463019354</v>
+        <v>0.06568097030468673</v>
       </c>
       <c r="P55" t="n">
-        <v>0.03563972152606535</v>
+        <v>0.003868128459805226</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.0404131527421365</v>
+        <v>0.008515555133990242</v>
       </c>
       <c r="R55" t="n">
-        <v>0.02015704351479894</v>
+        <v>0.01180553862452434</v>
       </c>
       <c r="S55" t="n">
-        <v>0.02284462381966159</v>
+        <v>0.01257753060049082</v>
       </c>
       <c r="T55" t="n">
-        <v>0.04610321580285744</v>
+        <v>0.03304703194590072</v>
       </c>
       <c r="U55" t="n">
-        <v>0.08309758615512224</v>
+        <v>0.01005077812378838</v>
       </c>
       <c r="V55" t="n">
-        <v>0.01112914371413636</v>
+        <v>0.0466390403884774</v>
       </c>
       <c r="W55" t="n">
-        <v>0.03209807144432349</v>
+        <v>0.01147488597875214</v>
       </c>
       <c r="X55" t="n">
-        <v>0.03364705949398806</v>
+        <v>0.00754979587557163</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.03486046684857807</v>
+        <v>0.02090838125267181</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.01556024403519013</v>
+        <v>0.01396203313402973</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.01237571133583103</v>
+        <v>0.02332553213153964</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.04360911309883092</v>
+        <v>0.08386343936029406</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.0200317955421241</v>
+        <v>0.01057867737132205</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.07802302411992072</v>
+        <v>0.0659158203895391</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.05757615095435602</v>
+        <v>0.07755812966723814</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.001544436296659416</v>
+        <v>0.007381243145480099</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.07265445910678957</v>
+        <v>0.05949979931201298</v>
       </c>
       <c r="AH55" t="n">
-        <v>-0.1037232182198249</v>
+        <v>-0.07235801179963582</v>
       </c>
     </row>
     <row r="56">
@@ -6560,94 +6560,94 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2366169208734014</v>
+        <v>0.2350421522225732</v>
       </c>
       <c r="F56" t="n">
-        <v>0.005804775511185201</v>
+        <v>0.0423836295125871</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05623447974115564</v>
+        <v>0.02583782821503474</v>
       </c>
       <c r="H56" t="n">
-        <v>0.04406211630723175</v>
+        <v>0.02485259655530358</v>
       </c>
       <c r="I56" t="n">
-        <v>0.005666596690670967</v>
+        <v>0.0004159921312547301</v>
       </c>
       <c r="J56" t="n">
-        <v>0.03589577916278196</v>
+        <v>0.03051678321908557</v>
       </c>
       <c r="K56" t="n">
-        <v>0.02332138641654659</v>
+        <v>0.06516172875395378</v>
       </c>
       <c r="L56" t="n">
-        <v>0.05310118624082364</v>
+        <v>0.03412300743944741</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0104025166660357</v>
+        <v>0.008898914435383976</v>
       </c>
       <c r="N56" t="n">
-        <v>0.01538813168557303</v>
+        <v>0.01078449345457602</v>
       </c>
       <c r="O56" t="n">
-        <v>0.009801333367116295</v>
+        <v>0.0525235750665263</v>
       </c>
       <c r="P56" t="n">
-        <v>0.06209128039211743</v>
+        <v>0.02320706877970934</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.02185940046409261</v>
+        <v>0.0184709985488056</v>
       </c>
       <c r="R56" t="n">
-        <v>0.0569111915348279</v>
+        <v>0.08280586279595999</v>
       </c>
       <c r="S56" t="n">
-        <v>0.02562590133636403</v>
+        <v>0.006657009443059001</v>
       </c>
       <c r="T56" t="n">
-        <v>0.03795492317817442</v>
+        <v>0.03624078351552491</v>
       </c>
       <c r="U56" t="n">
-        <v>0.02096318125371747</v>
+        <v>0.01969295270541878</v>
       </c>
       <c r="V56" t="n">
-        <v>0.06362965761806061</v>
+        <v>0.08834946069535042</v>
       </c>
       <c r="W56" t="n">
-        <v>0.03781914979329192</v>
+        <v>0.07733437982719844</v>
       </c>
       <c r="X56" t="n">
-        <v>0.04712250071492816</v>
+        <v>0.02477947289604409</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.04614491043187091</v>
+        <v>0.08997969118743937</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.04720571565491846</v>
+        <v>0.05789572598024656</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.05784395154958466</v>
+        <v>0.01212862043315689</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.03697604155336147</v>
+        <v>0.01338719868503261</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.004507737815776418</v>
+        <v>0.002986578623141055</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.05104774314374125</v>
+        <v>0.0245939595068015</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.06005607417835828</v>
+        <v>0.01859754097223956</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.05982451720427013</v>
+        <v>0.1001739417060641</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.00273782039342298</v>
+        <v>0.007220204915654739</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.1257906606580994</v>
+        <v>0.1349768082813206</v>
       </c>
     </row>
     <row r="57">
@@ -6670,97 +6670,97 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.5268458617588236</v>
+        <v>0.255648078331301</v>
       </c>
       <c r="F57" t="n">
-        <v>0.007446724867828492</v>
+        <v>0.0718850454411514</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02743730264557883</v>
+        <v>0.06906138191873007</v>
       </c>
       <c r="H57" t="n">
-        <v>0.001275796847253866</v>
+        <v>0.03513161548325913</v>
       </c>
       <c r="I57" t="n">
-        <v>0.01627144649474921</v>
+        <v>0.004275836440702572</v>
       </c>
       <c r="J57" t="n">
-        <v>0.05377383722695477</v>
+        <v>0.06730059280512959</v>
       </c>
       <c r="K57" t="n">
-        <v>0.01590100484120361</v>
+        <v>0.02265236081340901</v>
       </c>
       <c r="L57" t="n">
-        <v>0.06999380358424277</v>
+        <v>0.01316179988562546</v>
       </c>
       <c r="M57" t="n">
-        <v>0.05863694054281843</v>
+        <v>0.0205118919827509</v>
       </c>
       <c r="N57" t="n">
-        <v>0.03429671775315811</v>
+        <v>0.05718644153048635</v>
       </c>
       <c r="O57" t="n">
-        <v>0.002249630375428719</v>
+        <v>0.07768962851005462</v>
       </c>
       <c r="P57" t="n">
-        <v>0.02216875080717442</v>
+        <v>0.005289304381052176</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.0538684984189365</v>
+        <v>0.03229820572524172</v>
       </c>
       <c r="R57" t="n">
-        <v>0.05931498801512856</v>
+        <v>0.04770316823179031</v>
       </c>
       <c r="S57" t="n">
-        <v>0.01957244289488514</v>
+        <v>0.04066600708849592</v>
       </c>
       <c r="T57" t="n">
-        <v>0.02510619415065937</v>
+        <v>0.02282922170346744</v>
       </c>
       <c r="U57" t="n">
-        <v>0.04731523091463007</v>
+        <v>0.02886242185789618</v>
       </c>
       <c r="V57" t="n">
-        <v>0.03083723919962437</v>
+        <v>0.0590919104531836</v>
       </c>
       <c r="W57" t="n">
-        <v>0.02262106736156275</v>
+        <v>0.04885589740391238</v>
       </c>
       <c r="X57" t="n">
-        <v>0.05870911702764266</v>
+        <v>0.003372273604118621</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.06041337450311946</v>
+        <v>0.04772579578938017</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.008853659630626015</v>
+        <v>0.08717495197826622</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.02324823917138848</v>
+        <v>0.04967668109363405</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.01575831570379424</v>
+        <v>0.01198586531126125</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.02046160752954015</v>
+        <v>0.00281957276679504</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.04803614461875923</v>
+        <v>0.03851582499744919</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.04132647399895859</v>
+        <v>0.03007278127830817</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.05650584836183313</v>
+        <v>0.002794850975461119</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.09859960251252002</v>
+        <v>0.001408670548987327</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.1414749376738706</v>
+        <v>0.1851214489152293</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>